--- a/src/content/menu.xlsx
+++ b/src/content/menu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="246">
   <si>
     <t>order</t>
   </si>
@@ -716,15 +716,27 @@
     <t>Steamed Seafood Delight with Mixed Vegetables</t>
   </si>
   <si>
+    <t>All served with chicken fried with a side of either one egg roll or two crab rangoon.</t>
+  </si>
+  <si>
+    <t>All served with a side of white rice.</t>
+  </si>
+  <si>
+    <t>All served with chicken fried with a side of either one egg roll, two crab rangoon, or a cup of hot &amp; sour soup, egg drop soup, or wonton soup.</t>
+  </si>
+  <si>
+    <t>No salt, low calorie, and steamed dishes with a side of white rice and sauce separated on the side.</t>
+  </si>
+  <si>
+    <t>A party special is three quarts of a dish served on one big tray. This does not come with any rice.</t>
+  </si>
+  <si>
     <t>Pint sized soups come with one packet of fried crunchy noodles, while quart sizes come with two.</t>
   </si>
   <si>
     <t>All served with a side of white rice and a packet of fried crunchy noodles.</t>
   </si>
   <si>
-    <t>All served with a side of white rice.</t>
-  </si>
-  <si>
     <t>A soft and thick brown noodle.</t>
   </si>
   <si>
@@ -737,16 +749,7 @@
     <t>All served with a side of white rice and a cup of sweet &amp; sour sauce.</t>
   </si>
   <si>
-    <t>All served with chicken fried with a side of either one egg roll or two crab rangoon.</t>
-  </si>
-  <si>
     <t>All served with a side of white rice and a cup of egg foo young sauce.</t>
-  </si>
-  <si>
-    <t>A party special is three quarts of a dish served on one big tray. This does not come with any rice.</t>
-  </si>
-  <si>
-    <t>No salt, low calorie, and steamed dishes with a side of white rice and sauce separated on the side.</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -797,6 +800,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5186,7 +5190,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.14"/>
     <col customWidth="1" min="2" max="2" width="24.43"/>
-    <col customWidth="1" min="3" max="3" width="83.43"/>
+    <col customWidth="1" min="3" max="3" width="117.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5204,8 +5208,11 @@
       <c r="A2" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3">
@@ -5213,10 +5220,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>164</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -5224,10 +5231,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
@@ -5235,10 +5242,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6">
@@ -5246,183 +5253,180 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>201</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>6.0</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>237</v>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>7.0</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>238</v>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>8.0</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>236</v>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>9.0</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>87</v>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>10.0</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>236</v>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>11.0</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>236</v>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>12.0</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>236</v>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>13.0</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>236</v>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>14.0</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>143</v>
+      <c r="B15" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>15.0</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>241</v>
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <v>16.0</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>236</v>
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>17.0</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>191</v>
+      <c r="B18" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <v>18.0</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>236</v>
+      <c r="B19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <v>19.0</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>201</v>
+      <c r="B20" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
         <v>20.0</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>241</v>
+      <c r="B21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
         <v>21.0</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>223</v>
+      <c r="B22" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/src/content/menu.xlsx
+++ b/src/content/menu.xlsx
@@ -524,7 +524,7 @@
     <t>Szechuan Triple Crown</t>
   </si>
   <si>
-    <t>Sauteed shrimp, chicken, and beef with mixed vegetables in Szechuan sauce</t>
+    <t>Sauteed shrimp, chicken, and beef with mixed vegetables in Szechuan sauce.</t>
   </si>
   <si>
     <t>Triple Delight</t>
@@ -554,7 +554,7 @@
     <t>Scallops and Shrimp in Garlic Sauce</t>
   </si>
   <si>
-    <t>Scallop and shrimp with mixed vegetables in garlic sauce</t>
+    <t>Scallop and shrimp with mixed vegetables in garlic sauce.</t>
   </si>
   <si>
     <t>Hunan Triple Crown</t>
@@ -581,7 +581,7 @@
     <t>Four Seasons</t>
   </si>
   <si>
-    <t>Beef, shrimp, chicken, and pork with mixed vegetables</t>
+    <t>Beef, shrimp, chicken, and pork with mixed vegetables.</t>
   </si>
   <si>
     <t>General Tso's Shrimp</t>
@@ -716,13 +716,13 @@
     <t>Steamed Seafood Delight with Mixed Vegetables</t>
   </si>
   <si>
-    <t>All served with chicken fried with a side of either one egg roll or two crab rangoon.</t>
+    <t>All served with pork fried with a side of either one egg roll or two crab rangoon.</t>
   </si>
   <si>
     <t>All served with a side of white rice.</t>
   </si>
   <si>
-    <t>All served with chicken fried with a side of either one egg roll, two crab rangoon, or a cup of hot &amp; sour soup, egg drop soup, or wonton soup.</t>
+    <t>All served with pork fried with a side of either one egg roll, two crab rangoon, or a cup of hot &amp; sour soup, egg drop soup, or wonton soup.</t>
   </si>
   <si>
     <t>No salt, low calorie, and steamed dishes with a side of white rice and sauce separated on the side.</t>
@@ -756,21 +756,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <b/>
+      <name val="Open Sans"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -786,21 +797,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1037,10 +1056,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1051,7 +1070,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1060,15 +1079,17 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1077,15 +1098,17 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1094,15 +1117,17 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1111,49 +1136,55 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>2.95</v>
       </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5.0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6.0</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1162,15 +1193,17 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
         <v>5.65</v>
       </c>
-      <c r="F8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7.0</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1179,15 +1212,17 @@
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
-        <v>6.65</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2">
+        <v>5.65</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8.0</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1196,15 +1231,17 @@
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3">
-        <v>5.25</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9.0</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1213,15 +1250,17 @@
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
         <v>5.35</v>
       </c>
-      <c r="F11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10.0</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1230,10 +1269,11 @@
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3">
-        <v>5.75</v>
-      </c>
-      <c r="F12" s="2" t="b">
+      <c r="D12" s="4"/>
+      <c r="E12" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="F12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1241,7 +1281,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11.0</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1250,15 +1290,17 @@
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
         <v>5.45</v>
       </c>
-      <c r="F13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12.0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1267,15 +1309,19 @@
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="3">
-        <v>5.55</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D14" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="E14" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13.0</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1284,2082 +1330,2251 @@
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
         <v>5.55</v>
       </c>
-      <c r="F15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14.0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="E16" s="4">
         <v>2.95</v>
       </c>
-      <c r="F16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15.0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="E17" s="4">
         <v>2.95</v>
       </c>
-      <c r="F17" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16.0</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="2">
+        <v>2.05</v>
+      </c>
+      <c r="E18" s="4">
         <v>3.95</v>
       </c>
-      <c r="F18" s="2" t="b">
+      <c r="F18" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17.0</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="3">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
         <v>5.2</v>
       </c>
-      <c r="F19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>18.0</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="E20" s="4">
         <v>2.95</v>
       </c>
-      <c r="F20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>19.0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>1.5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>2.65</v>
       </c>
-      <c r="F21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20.0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>5.35</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>8.25</v>
       </c>
-      <c r="F22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>21.0</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>5.15</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>7.95</v>
       </c>
-      <c r="F23" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>22.0</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>5.35</v>
       </c>
-      <c r="E24" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E24" s="2">
+        <v>8.85</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>23.0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>5.15</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>7.95</v>
       </c>
-      <c r="F25" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>24.0</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>5.35</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>8.25</v>
       </c>
-      <c r="F26" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>25.0</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="3">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
         <v>8.25</v>
       </c>
-      <c r="F27" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>26.0</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>4.55</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>6.55</v>
       </c>
-      <c r="F28" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>27.0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>5.45</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>8.75</v>
       </c>
-      <c r="F29" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>28.0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="3">
-        <v>5.25</v>
-      </c>
-      <c r="E30" s="3">
-        <v>8.35</v>
-      </c>
-      <c r="F30" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D30" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8.45</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>29.0</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>5.45</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>8.95</v>
       </c>
-      <c r="F31" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>30.0</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="3">
-        <v>5.25</v>
-      </c>
-      <c r="E32" s="3">
-        <v>8.35</v>
-      </c>
-      <c r="F32" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D32" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8.45</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>31.0</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="3">
-        <v>5.55</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="E33" s="4">
         <v>9.25</v>
       </c>
-      <c r="F33" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32.0</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>4.55</v>
       </c>
-      <c r="E34" s="3">
-        <v>6.65</v>
-      </c>
-      <c r="F34" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E34" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>33.0</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="F35" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>34.0</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="3">
-        <v>5.25</v>
-      </c>
-      <c r="E36" s="3">
-        <v>8.25</v>
-      </c>
-      <c r="F36" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D36" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="E36" s="2">
+        <v>8.35</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>35.0</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="3">
-        <v>5.05</v>
-      </c>
-      <c r="E37" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="F37" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D37" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="E37" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36.0</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <v>5.45</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>8.95</v>
       </c>
-      <c r="F38" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>37.0</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="3">
-        <v>5.05</v>
-      </c>
-      <c r="E39" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="F39" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D39" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38.0</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="3">
-        <v>5.25</v>
-      </c>
-      <c r="E40" s="3">
-        <v>8.25</v>
-      </c>
-      <c r="F40" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D40" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8.35</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39.0</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>5.75</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>8.75</v>
       </c>
-      <c r="F41" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>40.0</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <v>4.85</v>
       </c>
-      <c r="E42" s="3">
-        <v>7.15</v>
-      </c>
-      <c r="F42" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E42" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="F42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>41.0</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4">
         <v>4.85</v>
       </c>
-      <c r="E43" s="3">
-        <v>7.15</v>
-      </c>
-      <c r="F43" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E43" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="F43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42.0</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="E44" s="3">
-        <v>4.45</v>
-      </c>
-      <c r="F44" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D44" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4.65</v>
+      </c>
+      <c r="F44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43.0</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="3">
-        <v>5.55</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="E45" s="4">
         <v>8.75</v>
       </c>
-      <c r="F45" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44.0</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <v>5.25</v>
       </c>
-      <c r="E46" s="3">
-        <v>7.95</v>
-      </c>
-      <c r="F46" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E46" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="F46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>45.0</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="3">
-        <v>5.25</v>
-      </c>
-      <c r="E47" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="F47" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D47" s="2">
+        <v>5.45</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>46.0</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <v>5.25</v>
       </c>
-      <c r="E48" s="3">
-        <v>7.95</v>
-      </c>
-      <c r="F48" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E48" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="F48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>47.0</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="3">
-        <v>5.55</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="E49" s="4">
         <v>8.75</v>
       </c>
-      <c r="F49" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>48.0</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="3">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4">
         <v>8.95</v>
       </c>
-      <c r="F50" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>49.0</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <v>4.95</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>7.25</v>
       </c>
-      <c r="F51" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>50.0</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="3">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4">
         <v>7.95</v>
       </c>
-      <c r="F52" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>51.0</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="3">
-        <v>7.45</v>
-      </c>
-      <c r="F53" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="F53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>52.0</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="F54" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="F54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5"/>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>53.0</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="3">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4">
         <v>8.55</v>
       </c>
-      <c r="F55" s="2" t="b">
+      <c r="F55" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>54.0</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="3">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4">
         <v>8.55</v>
       </c>
-      <c r="F56" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>55.0</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F57" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>56.0</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F58" s="2" t="b">
+      <c r="D58" s="4"/>
+      <c r="E58" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F58" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G58" s="5"/>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>57.0</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="E59" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F59" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D59" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="E59" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5"/>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>58.0</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F60" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5"/>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>59.0</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F61" s="2" t="b">
+      <c r="D61" s="4"/>
+      <c r="E61" s="2">
+        <v>9.38</v>
+      </c>
+      <c r="F61" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G61" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>60.0</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F62" s="2" t="b">
+      <c r="D62" s="4"/>
+      <c r="E62" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F62" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G62" s="5"/>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>61.0</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="E63" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F63" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D63" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="E63" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>62.0</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F64" s="2" t="b">
+      <c r="D64" s="4"/>
+      <c r="E64" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F64" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>63.0</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F65" s="2" t="b">
+      <c r="D65" s="4"/>
+      <c r="E65" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F65" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>64.0</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D66" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="E66" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F66" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D66" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="E66" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>65.0</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F67" s="2" t="b">
+      <c r="D67" s="4"/>
+      <c r="E67" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F67" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G67" s="5"/>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>66.0</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="E68" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F68" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D68" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="E68" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>67.0</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F69" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5"/>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>68.0</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="E70" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F70" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D70" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="E70" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5"/>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>69.0</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E71" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F71" s="2" t="b">
+      <c r="D71" s="4"/>
+      <c r="E71" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F71" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G71" s="5"/>
     </row>
     <row r="72">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>70.0</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F72" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5"/>
     </row>
     <row r="73">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>71.0</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="3">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4">
         <v>7.95</v>
       </c>
-      <c r="F73" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5"/>
     </row>
     <row r="74">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>72.0</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E74" s="3">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4">
         <v>7.95</v>
       </c>
-      <c r="F74" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5"/>
     </row>
     <row r="75">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>73.0</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E75" s="3">
-        <v>8.15</v>
-      </c>
-      <c r="F75" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="F75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5"/>
     </row>
     <row r="76">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>74.0</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="3">
-        <v>8.15</v>
-      </c>
-      <c r="F76" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="F76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5"/>
     </row>
     <row r="77">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>75.0</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="3">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4">
         <v>7.45</v>
       </c>
-      <c r="F77" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5"/>
     </row>
     <row r="78">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>76.0</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E78" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F78" s="2" t="b">
+      <c r="D78" s="4"/>
+      <c r="E78" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F78" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G78" s="5"/>
     </row>
     <row r="79">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>77.0</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F79" s="2" t="b">
+      <c r="D79" s="4"/>
+      <c r="E79" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F79" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G79" s="5"/>
     </row>
     <row r="80">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>78.0</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F80" s="2" t="b">
+      <c r="D80" s="4"/>
+      <c r="E80" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F80" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G80" s="5"/>
     </row>
     <row r="81">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>79.0</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E81" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F81" s="2" t="b">
+      <c r="D81" s="4"/>
+      <c r="E81" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F81" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G81" s="5"/>
     </row>
     <row r="82">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>80.0</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="4">
         <v>5.75</v>
       </c>
-      <c r="E82" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F82" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E82" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5"/>
     </row>
     <row r="83">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>81.0</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="4">
         <v>5.75</v>
       </c>
-      <c r="E83" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F83" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E83" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5"/>
     </row>
     <row r="84">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>82.0</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="4">
         <v>5.75</v>
       </c>
-      <c r="E84" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F84" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E84" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5"/>
     </row>
     <row r="85">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>83.0</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="4">
         <v>5.75</v>
       </c>
-      <c r="E85" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F85" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E85" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5"/>
     </row>
     <row r="86">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>84.0</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="4">
         <v>5.75</v>
       </c>
-      <c r="E86" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F86" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E86" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5"/>
     </row>
     <row r="87">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>85.0</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E87" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F87" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5"/>
     </row>
     <row r="88">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>86.0</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E88" s="3">
-        <v>8.85</v>
-      </c>
-      <c r="F88" s="2" t="b">
+      <c r="D88" s="4"/>
+      <c r="E88" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F88" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G88" s="5"/>
     </row>
     <row r="89">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>87.0</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E89" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F89" s="2" t="b">
+      <c r="D89" s="4"/>
+      <c r="E89" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F89" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G89" s="5"/>
     </row>
     <row r="90">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>88.0</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="4">
         <v>6.55</v>
       </c>
-      <c r="E90" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F90" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E90" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5"/>
     </row>
     <row r="91">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>89.0</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="4">
         <v>6.55</v>
       </c>
-      <c r="E91" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F91" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E91" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5"/>
     </row>
     <row r="92">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>90.0</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="4">
         <v>6.55</v>
       </c>
-      <c r="E92" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F92" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E92" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5"/>
     </row>
     <row r="93">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>91.0</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E93" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F93" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5"/>
     </row>
     <row r="94">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>92.0</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="4">
         <v>6.55</v>
       </c>
-      <c r="E94" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F94" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E94" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5"/>
     </row>
     <row r="95">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>93.0</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="4">
         <v>6.55</v>
       </c>
-      <c r="E95" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F95" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E95" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5"/>
     </row>
     <row r="96">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>94.0</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="4">
         <v>6.55</v>
       </c>
-      <c r="E96" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F96" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E96" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5"/>
     </row>
     <row r="97">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>95.0</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E97" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F97" s="2" t="b">
+      <c r="D97" s="4"/>
+      <c r="E97" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F97" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G97" s="5"/>
     </row>
     <row r="98">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>96.0</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E98" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F98" s="2" t="b">
+      <c r="D98" s="4"/>
+      <c r="E98" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F98" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G98" s="5"/>
     </row>
     <row r="99">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>97.0</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E99" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F99" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="5"/>
     </row>
     <row r="100">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>98.0</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F100" s="2" t="b">
+      <c r="D100" s="4"/>
+      <c r="E100" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F100" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G100" s="5"/>
     </row>
     <row r="101">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>99.0</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F101" s="2" t="b">
+      <c r="D101" s="4"/>
+      <c r="E101" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F101" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G101" s="5"/>
     </row>
     <row r="102">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>100.0</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E102" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F102" s="2" t="b">
+      <c r="D102" s="4"/>
+      <c r="E102" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F102" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G102" s="5"/>
     </row>
     <row r="103">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>101.0</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E103" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F103" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="5"/>
     </row>
     <row r="104">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>102.0</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E104" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F104" s="2" t="b">
+      <c r="D104" s="4"/>
+      <c r="E104" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F104" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G104" s="5"/>
     </row>
     <row r="105">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>103.0</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E105" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F105" s="2" t="b">
+      <c r="D105" s="4"/>
+      <c r="E105" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F105" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G105" s="5"/>
     </row>
     <row r="106">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>104.0</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F106" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5"/>
     </row>
     <row r="107">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>105.0</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E107" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F107" s="2" t="b">
+      <c r="D107" s="4"/>
+      <c r="E107" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F107" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G107" s="5"/>
     </row>
     <row r="108">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>106.0</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E108" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F108" s="2" t="b">
+      <c r="D108" s="4"/>
+      <c r="E108" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F108" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G108" s="5"/>
     </row>
     <row r="109">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>107.0</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E109" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F109" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5"/>
     </row>
     <row r="110">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>108.0</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E110" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F110" s="2" t="b">
+      <c r="D110" s="4"/>
+      <c r="E110" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F110" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G110" s="5"/>
     </row>
     <row r="111">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>109.0</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="4">
         <v>6.75</v>
       </c>
-      <c r="E111" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F111" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E111" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" s="5"/>
     </row>
     <row r="112">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>110.0</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="4">
         <v>6.75</v>
       </c>
-      <c r="E112" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F112" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E112" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5"/>
     </row>
     <row r="113">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>111.0</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E113" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F113" s="2" t="b">
+      <c r="D113" s="4"/>
+      <c r="E113" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F113" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G113" s="5"/>
     </row>
     <row r="114">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>112.0</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="4">
         <v>6.75</v>
       </c>
-      <c r="E114" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F114" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E114" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" s="5"/>
     </row>
     <row r="115">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>113.0</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="4">
         <v>6.75</v>
       </c>
-      <c r="E115" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F115" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E115" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" s="5"/>
     </row>
     <row r="116">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>114.0</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="4">
         <v>6.75</v>
       </c>
-      <c r="E116" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F116" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E116" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" s="5"/>
     </row>
     <row r="117">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>115.0</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E117" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F117" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5"/>
     </row>
     <row r="118">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>116.0</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E118" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F118" s="2" t="b">
+      <c r="D118" s="4"/>
+      <c r="E118" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F118" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G118" s="5"/>
     </row>
     <row r="119">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>117.0</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E119" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="F119" s="2" t="b">
+      <c r="D119" s="4"/>
+      <c r="E119" s="2">
+        <v>7.35</v>
+      </c>
+      <c r="F119" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G119" s="5"/>
     </row>
     <row r="120">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>118.0</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E120" s="3">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4">
         <v>8.35</v>
       </c>
-      <c r="F120" s="2" t="b">
+      <c r="F120" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G120" s="5"/>
     </row>
     <row r="121">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>119.0</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E121" s="3">
+      <c r="D121" s="4"/>
+      <c r="E121" s="4">
         <v>7.15</v>
       </c>
-      <c r="F121" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" s="5"/>
     </row>
     <row r="122">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>120.0</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E122" s="3">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4">
         <v>7.25</v>
       </c>
-      <c r="F122" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F122" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" s="5"/>
     </row>
     <row r="123">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>121.0</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E123" s="3">
+      <c r="D123" s="4"/>
+      <c r="E123" s="4">
         <v>7.25</v>
       </c>
-      <c r="F123" s="2" t="b">
+      <c r="F123" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G123" s="5"/>
     </row>
     <row r="124">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>122.0</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="4">
         <v>5.95</v>
       </c>
-      <c r="E124" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="F124" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E124" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="F124" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" s="5"/>
     </row>
     <row r="125">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>123.0</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D125" s="3">
-        <v>5.55</v>
-      </c>
-      <c r="E125" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F125" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D125" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="E125" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="F125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" s="5"/>
     </row>
     <row r="126">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>124.0</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="4">
         <v>6.35</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="4">
         <v>9.35</v>
       </c>
-      <c r="F126" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" s="5"/>
     </row>
     <row r="127">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>125.0</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E127" s="3">
+      <c r="D127" s="4"/>
+      <c r="E127" s="4">
         <v>8.95</v>
       </c>
-      <c r="F127" s="2" t="b">
+      <c r="F127" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G127" s="3" t="s">
@@ -3367,512 +3582,571 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>126.0</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E128" s="3">
+      <c r="D128" s="4"/>
+      <c r="E128" s="4">
         <v>8.55</v>
       </c>
-      <c r="F128" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" s="5"/>
     </row>
     <row r="129">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>1.0</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E129" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F129" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D129" s="4"/>
+      <c r="E129" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F129" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" s="5"/>
     </row>
     <row r="130">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>2.0</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E130" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F130" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G130" s="5"/>
     </row>
     <row r="131">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>3.0</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E131" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F131" s="2" t="b">
+      <c r="D131" s="4"/>
+      <c r="E131" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F131" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G131" s="5"/>
     </row>
     <row r="132">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>4.0</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E132" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F132" s="2" t="b">
+      <c r="D132" s="4"/>
+      <c r="E132" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F132" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G132" s="5"/>
     </row>
     <row r="133">
-      <c r="A133" s="2">
+      <c r="A133" s="1">
         <v>5.0</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E133" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F133" s="2" t="b">
+      <c r="D133" s="4"/>
+      <c r="E133" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F133" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G133" s="5"/>
     </row>
     <row r="134">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>6.0</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E134" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F134" s="2" t="b">
+      <c r="D134" s="4"/>
+      <c r="E134" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F134" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G134" s="5"/>
     </row>
     <row r="135">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>7.0</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E135" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F135" s="2" t="b">
+      <c r="D135" s="4"/>
+      <c r="E135" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F135" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G135" s="5"/>
     </row>
     <row r="136">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>8.0</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E136" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F136" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F136" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" s="5"/>
     </row>
     <row r="137">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>9.0</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E137" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F137" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" s="5"/>
     </row>
     <row r="138">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
         <v>10.0</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E138" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F138" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" s="5"/>
     </row>
     <row r="139">
-      <c r="A139" s="2">
+      <c r="A139" s="1">
         <v>11.0</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E139" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F139" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" s="5"/>
     </row>
     <row r="140">
-      <c r="A140" s="2">
+      <c r="A140" s="1">
         <v>12.0</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E140" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F140" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" s="5"/>
     </row>
     <row r="141">
-      <c r="A141" s="2">
+      <c r="A141" s="1">
         <v>13.0</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E141" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F141" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F141" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" s="5"/>
     </row>
     <row r="142">
-      <c r="A142" s="2">
+      <c r="A142" s="1">
         <v>14.0</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E142" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F142" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" s="5"/>
     </row>
     <row r="143">
-      <c r="A143" s="2">
+      <c r="A143" s="1">
         <v>15.0</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E143" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F143" s="2" t="b">
+      <c r="D143" s="4"/>
+      <c r="E143" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F143" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G143" s="5"/>
     </row>
     <row r="144">
-      <c r="A144" s="2">
+      <c r="A144" s="1">
         <v>16.0</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E144" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F144" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" s="5"/>
     </row>
     <row r="145">
-      <c r="A145" s="2">
+      <c r="A145" s="1">
         <v>17.0</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E145" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F145" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F145" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" s="5"/>
     </row>
     <row r="146">
-      <c r="A146" s="2">
+      <c r="A146" s="1">
         <v>18.0</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E146" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F146" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" s="5"/>
     </row>
     <row r="147">
-      <c r="A147" s="2">
+      <c r="A147" s="1">
         <v>19.0</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E147" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F147" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" s="5"/>
     </row>
     <row r="148">
-      <c r="A148" s="2">
+      <c r="A148" s="1">
         <v>20.0</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E148" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F148" s="2" t="b">
+      <c r="D148" s="4"/>
+      <c r="E148" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F148" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G148" s="5"/>
     </row>
     <row r="149">
-      <c r="A149" s="2">
+      <c r="A149" s="1">
         <v>21.0</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E149" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F149" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F149" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" s="5"/>
     </row>
     <row r="150">
-      <c r="A150" s="2">
+      <c r="A150" s="1">
         <v>22.0</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E150" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F150" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F150" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" s="5"/>
     </row>
     <row r="151">
-      <c r="A151" s="2">
+      <c r="A151" s="1">
         <v>23.0</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E151" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F151" s="2" t="b">
+      <c r="D151" s="4"/>
+      <c r="E151" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F151" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G151" s="5"/>
     </row>
     <row r="152">
-      <c r="A152" s="2">
+      <c r="A152" s="1">
         <v>24.0</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E152" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F152" s="2" t="b">
+      <c r="D152" s="4"/>
+      <c r="E152" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F152" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G152" s="5"/>
     </row>
     <row r="153">
-      <c r="A153" s="2">
+      <c r="A153" s="1">
         <v>25.0</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E153" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F153" s="2" t="b">
+      <c r="D153" s="4"/>
+      <c r="E153" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F153" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G153" s="5"/>
     </row>
     <row r="154">
-      <c r="A154" s="2">
+      <c r="A154" s="1">
         <v>26.0</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E154" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F154" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F154" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" s="5"/>
     </row>
     <row r="155">
-      <c r="A155" s="2">
+      <c r="A155" s="1">
         <v>27.0</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E155" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F155" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F155" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" s="5"/>
     </row>
     <row r="156">
-      <c r="A156" s="2">
+      <c r="A156" s="1">
         <v>28.0</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E156" s="3">
-        <v>8.45</v>
-      </c>
-      <c r="F156" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" s="5"/>
     </row>
     <row r="157">
-      <c r="A157" s="2">
+      <c r="A157" s="1">
         <v>1.0</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E157" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="F157" s="2" t="b">
+      <c r="D157" s="4"/>
+      <c r="E157" s="2">
+        <v>12.95</v>
+      </c>
+      <c r="F157" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G157" s="3" t="s">
@@ -3880,19 +4154,20 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2">
+      <c r="A158" s="1">
         <v>2.0</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E158" s="3">
-        <v>13.95</v>
-      </c>
-      <c r="F158" s="2" t="b">
+      <c r="D158" s="4"/>
+      <c r="E158" s="2">
+        <v>14.95</v>
+      </c>
+      <c r="F158" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G158" s="3" t="s">
@@ -3900,39 +4175,41 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2">
+      <c r="A159" s="1">
         <v>3.0</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E159" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F159" s="2" t="b">
+      <c r="D159" s="4"/>
+      <c r="E159" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="F159" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G159" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2">
+      <c r="A160" s="1">
         <v>4.0</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E160" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F160" s="2" t="b">
+      <c r="D160" s="4"/>
+      <c r="E160" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="F160" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G160" s="3" t="s">
@@ -3940,19 +4217,20 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2">
+      <c r="A161" s="1">
         <v>5.0</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E161" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F161" s="2" t="b">
+      <c r="D161" s="4"/>
+      <c r="E161" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="F161" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G161" s="3" t="s">
@@ -3960,53 +4238,58 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2">
+      <c r="A162" s="1">
         <v>6.0</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E162" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F162" s="2" t="b">
+      <c r="D162" s="4"/>
+      <c r="E162" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="F162" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G162" s="5"/>
     </row>
     <row r="163">
-      <c r="A163" s="2">
+      <c r="A163" s="1">
         <v>7.0</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E163" s="3">
-        <v>10.15</v>
-      </c>
-      <c r="F163" s="2" t="b">
+      <c r="D163" s="4"/>
+      <c r="E163" s="2">
+        <v>10.25</v>
+      </c>
+      <c r="F163" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G163" s="5"/>
     </row>
     <row r="164">
-      <c r="A164" s="2">
+      <c r="A164" s="1">
         <v>8.0</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E164" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F164" s="2" t="b">
+      <c r="D164" s="4"/>
+      <c r="E164" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="F164" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G164" s="3" t="s">
@@ -4014,39 +4297,41 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2">
+      <c r="A165" s="1">
         <v>9.0</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E165" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F165" s="2" t="b">
+      <c r="D165" s="4"/>
+      <c r="E165" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="F165" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G165" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2">
+      <c r="A166" s="1">
         <v>10.0</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E166" s="3">
-        <v>13.95</v>
-      </c>
-      <c r="F166" s="2" t="b">
+      <c r="D166" s="4"/>
+      <c r="E166" s="2">
+        <v>14.95</v>
+      </c>
+      <c r="F166" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G166" s="3" t="s">
@@ -4054,983 +4339,1092 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2">
+      <c r="A167" s="1">
         <v>11.0</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E167" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F167" s="2" t="b">
+      <c r="D167" s="4"/>
+      <c r="E167" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="F167" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G167" s="5"/>
     </row>
     <row r="168">
-      <c r="A168" s="2">
+      <c r="A168" s="1">
         <v>12.0</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E168" s="3">
-        <v>10.45</v>
-      </c>
-      <c r="F168" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="2">
+        <v>10.65</v>
+      </c>
+      <c r="F168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" s="5"/>
     </row>
     <row r="169">
-      <c r="A169" s="2">
+      <c r="A169" s="1">
         <v>13.0</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E169" s="3">
-        <v>10.15</v>
-      </c>
-      <c r="F169" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="2">
+        <v>10.25</v>
+      </c>
+      <c r="F169" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G169" s="5"/>
     </row>
     <row r="170">
-      <c r="A170" s="2">
+      <c r="A170" s="1">
         <v>14.0</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E170" s="3">
-        <v>10.45</v>
-      </c>
-      <c r="F170" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="2">
+        <v>10.65</v>
+      </c>
+      <c r="F170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" s="5"/>
     </row>
     <row r="171">
-      <c r="A171" s="2">
+      <c r="A171" s="1">
         <v>15.0</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E171" s="3">
-        <v>10.15</v>
-      </c>
-      <c r="F171" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="2">
+        <v>10.25</v>
+      </c>
+      <c r="F171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G171" s="5"/>
     </row>
     <row r="172">
-      <c r="A172" s="2">
+      <c r="A172" s="1">
         <v>16.0</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E172" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F172" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="F172" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G172" s="5"/>
     </row>
     <row r="173">
-      <c r="A173" s="2">
+      <c r="A173" s="1">
         <v>17.0</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E173" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F173" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D173" s="4"/>
+      <c r="E173" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="F173" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" s="5"/>
     </row>
     <row r="174">
-      <c r="A174" s="2">
+      <c r="A174" s="1">
         <v>18.0</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E174" s="3">
+      <c r="D174" s="4"/>
+      <c r="E174" s="4">
         <v>11.5</v>
       </c>
-      <c r="F174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G174" s="3" t="s">
+      <c r="F174" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2">
+      <c r="A175" s="1">
         <v>19.0</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E175" s="3">
-        <v>10.45</v>
-      </c>
-      <c r="F175" s="2" t="b">
+      <c r="D175" s="4"/>
+      <c r="E175" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="F175" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G175" s="5"/>
     </row>
     <row r="176">
-      <c r="A176" s="2">
+      <c r="A176" s="1">
         <v>126.0</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E176" s="3">
+      <c r="D176" s="4"/>
+      <c r="E176" s="4">
         <v>7.95</v>
       </c>
-      <c r="F176" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F176" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" s="5"/>
     </row>
     <row r="177">
-      <c r="A177" s="2">
+      <c r="A177" s="1">
         <v>127.0</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E177" s="3">
+      <c r="D177" s="4"/>
+      <c r="E177" s="4">
         <v>7.45</v>
       </c>
-      <c r="F177" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F177" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" s="5"/>
     </row>
     <row r="178">
-      <c r="A178" s="2">
+      <c r="A178" s="1">
         <v>128.0</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E178" s="3">
+      <c r="D178" s="4"/>
+      <c r="E178" s="4">
         <v>7.45</v>
       </c>
-      <c r="F178" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F178" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" s="5"/>
     </row>
     <row r="179">
-      <c r="A179" s="2">
+      <c r="A179" s="1">
         <v>129.0</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E179" s="3">
+      <c r="D179" s="4"/>
+      <c r="E179" s="4">
         <v>7.95</v>
       </c>
-      <c r="F179" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" s="5"/>
     </row>
     <row r="180">
-      <c r="A180" s="2">
+      <c r="A180" s="1">
         <v>130.0</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E180" s="3">
+      <c r="D180" s="4"/>
+      <c r="E180" s="4">
         <v>6.95</v>
       </c>
-      <c r="F180" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F180" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" s="5"/>
     </row>
     <row r="181">
-      <c r="A181" s="2">
+      <c r="A181" s="1">
         <v>131.0</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E181" s="3">
-        <v>8.25</v>
-      </c>
-      <c r="F181" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D181" s="4"/>
+      <c r="E181" s="2">
+        <v>8.45</v>
+      </c>
+      <c r="F181" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" s="5"/>
     </row>
     <row r="182">
-      <c r="A182" s="2">
+      <c r="A182" s="1">
         <v>132.0</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="4">
         <v>5.75</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="4">
         <v>8.95</v>
       </c>
-      <c r="F182" s="2" t="b">
+      <c r="F182" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G182" s="5"/>
     </row>
     <row r="183">
-      <c r="A183" s="2">
+      <c r="A183" s="1">
         <v>133.0</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D183" s="3">
-        <v>5.35</v>
-      </c>
-      <c r="E183" s="3">
+      <c r="D183" s="2">
+        <v>5.55</v>
+      </c>
+      <c r="E183" s="4">
         <v>8.75</v>
       </c>
-      <c r="F183" s="2" t="b">
+      <c r="F183" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G183" s="5"/>
     </row>
     <row r="184">
-      <c r="A184" s="2">
+      <c r="A184" s="1">
         <v>134.0</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="4">
         <v>5.75</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184" s="4">
         <v>8.95</v>
       </c>
-      <c r="F184" s="2" t="b">
+      <c r="F184" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G184" s="5"/>
     </row>
     <row r="185">
-      <c r="A185" s="2">
+      <c r="A185" s="1">
         <v>1.0</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E185" s="3">
+      <c r="D185" s="4"/>
+      <c r="E185" s="4">
         <v>28.95</v>
       </c>
-      <c r="F185" s="2" t="b">
+      <c r="F185" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G185" s="5"/>
     </row>
     <row r="186">
-      <c r="A186" s="2">
+      <c r="A186" s="1">
         <v>2.0</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E186" s="3">
+      <c r="D186" s="4"/>
+      <c r="E186" s="4">
         <v>26.95</v>
       </c>
-      <c r="F186" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F186" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" s="5"/>
     </row>
     <row r="187">
-      <c r="A187" s="2">
+      <c r="A187" s="1">
         <v>3.0</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E187" s="3">
+      <c r="D187" s="4"/>
+      <c r="E187" s="4">
         <v>26.95</v>
       </c>
-      <c r="F187" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F187" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" s="5"/>
     </row>
     <row r="188">
-      <c r="A188" s="2">
+      <c r="A188" s="1">
         <v>4.0</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E188" s="3">
+      <c r="D188" s="4"/>
+      <c r="E188" s="4">
         <v>26.95</v>
       </c>
-      <c r="F188" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F188" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" s="5"/>
     </row>
     <row r="189">
-      <c r="A189" s="2">
+      <c r="A189" s="1">
         <v>5.0</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E189" s="3">
+      <c r="D189" s="4"/>
+      <c r="E189" s="4">
         <v>26.95</v>
       </c>
-      <c r="F189" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F189" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" s="5"/>
     </row>
     <row r="190">
-      <c r="A190" s="2">
+      <c r="A190" s="1">
         <v>6.0</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E190" s="3">
+      <c r="D190" s="4"/>
+      <c r="E190" s="4">
         <v>26.95</v>
       </c>
-      <c r="F190" s="2" t="b">
+      <c r="F190" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G190" s="5"/>
     </row>
     <row r="191">
-      <c r="A191" s="2">
+      <c r="A191" s="1">
         <v>7.0</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E191" s="3">
+      <c r="D191" s="4"/>
+      <c r="E191" s="4">
         <v>26.95</v>
       </c>
-      <c r="F191" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F191" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G191" s="5"/>
     </row>
     <row r="192">
-      <c r="A192" s="2">
+      <c r="A192" s="1">
         <v>1.0</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E192" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F192" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D192" s="4"/>
+      <c r="E192" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F192" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G192" s="5"/>
     </row>
     <row r="193">
-      <c r="A193" s="2">
+      <c r="A193" s="1">
         <v>2.0</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E193" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F193" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D193" s="4"/>
+      <c r="E193" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F193" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G193" s="5"/>
     </row>
     <row r="194">
-      <c r="A194" s="2">
+      <c r="A194" s="1">
         <v>3.0</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E194" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F194" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F194" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G194" s="5"/>
     </row>
     <row r="195">
-      <c r="A195" s="2">
+      <c r="A195" s="1">
         <v>4.0</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E195" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F195" s="2" t="b">
+      <c r="D195" s="4"/>
+      <c r="E195" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F195" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G195" s="5"/>
     </row>
     <row r="196">
-      <c r="A196" s="2">
+      <c r="A196" s="1">
         <v>5.0</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E196" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F196" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F196" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G196" s="5"/>
     </row>
     <row r="197">
-      <c r="A197" s="2">
+      <c r="A197" s="1">
         <v>6.0</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E197" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F197" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F197" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G197" s="5"/>
     </row>
     <row r="198">
-      <c r="A198" s="2">
+      <c r="A198" s="1">
         <v>7.0</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E198" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F198" s="2" t="b">
+      <c r="D198" s="4"/>
+      <c r="E198" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F198" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G198" s="5"/>
     </row>
     <row r="199">
-      <c r="A199" s="2">
+      <c r="A199" s="1">
         <v>8.0</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E199" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F199" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G199" s="5"/>
     </row>
     <row r="200">
-      <c r="A200" s="2">
+      <c r="A200" s="1">
         <v>9.0</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E200" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F200" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G200" s="5"/>
     </row>
     <row r="201">
-      <c r="A201" s="2">
+      <c r="A201" s="1">
         <v>10.0</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E201" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F201" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F201" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G201" s="5"/>
     </row>
     <row r="202">
-      <c r="A202" s="2">
+      <c r="A202" s="1">
         <v>11.0</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E202" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F202" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D202" s="4"/>
+      <c r="E202" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F202" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G202" s="5"/>
     </row>
     <row r="203">
-      <c r="A203" s="2">
+      <c r="A203" s="1">
         <v>12.0</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E203" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F203" s="2" t="b">
+      <c r="D203" s="4"/>
+      <c r="E203" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F203" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G203" s="5"/>
     </row>
     <row r="204">
-      <c r="A204" s="2">
+      <c r="A204" s="1">
         <v>13.0</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E204" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F204" s="2" t="b">
+      <c r="D204" s="4"/>
+      <c r="E204" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F204" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G204" s="5"/>
     </row>
     <row r="205">
-      <c r="A205" s="2">
+      <c r="A205" s="1">
         <v>14.0</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E205" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F205" s="2" t="b">
+      <c r="D205" s="4"/>
+      <c r="E205" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F205" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G205" s="5"/>
     </row>
     <row r="206">
-      <c r="A206" s="2">
+      <c r="A206" s="1">
         <v>15.0</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E206" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F206" s="2" t="b">
+      <c r="D206" s="4"/>
+      <c r="E206" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F206" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G206" s="5"/>
     </row>
     <row r="207">
-      <c r="A207" s="2">
+      <c r="A207" s="1">
         <v>16.0</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E207" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F207" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D207" s="4"/>
+      <c r="E207" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F207" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G207" s="5"/>
     </row>
     <row r="208">
-      <c r="A208" s="2">
+      <c r="A208" s="1">
         <v>17.0</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E208" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F208" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D208" s="4"/>
+      <c r="E208" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F208" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G208" s="5"/>
     </row>
     <row r="209">
-      <c r="A209" s="2">
+      <c r="A209" s="1">
         <v>18.0</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E209" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F209" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D209" s="4"/>
+      <c r="E209" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F209" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G209" s="5"/>
     </row>
     <row r="210">
-      <c r="A210" s="2">
+      <c r="A210" s="1">
         <v>19.0</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E210" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F210" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D210" s="4"/>
+      <c r="E210" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F210" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G210" s="5"/>
     </row>
     <row r="211">
-      <c r="A211" s="2">
+      <c r="A211" s="1">
         <v>20.0</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E211" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F211" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D211" s="4"/>
+      <c r="E211" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F211" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G211" s="5"/>
     </row>
     <row r="212">
-      <c r="A212" s="2">
+      <c r="A212" s="1">
         <v>21.0</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E212" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F212" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F212" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G212" s="5"/>
     </row>
     <row r="213">
-      <c r="A213" s="2">
+      <c r="A213" s="1">
         <v>22.0</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E213" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F213" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D213" s="4"/>
+      <c r="E213" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F213" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G213" s="5"/>
     </row>
     <row r="214">
-      <c r="A214" s="2">
+      <c r="A214" s="1">
         <v>23.0</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E214" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F214" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D214" s="4"/>
+      <c r="E214" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F214" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G214" s="5"/>
     </row>
     <row r="215">
-      <c r="A215" s="2">
+      <c r="A215" s="1">
         <v>24.0</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E215" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F215" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D215" s="4"/>
+      <c r="E215" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F215" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G215" s="5"/>
     </row>
     <row r="216">
-      <c r="A216" s="2">
+      <c r="A216" s="1">
         <v>25.0</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E216" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F216" s="2" t="b">
+      <c r="D216" s="4"/>
+      <c r="E216" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F216" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G216" s="5"/>
     </row>
     <row r="217">
-      <c r="A217" s="2">
+      <c r="A217" s="1">
         <v>26.0</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E217" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F217" s="2" t="b">
+      <c r="D217" s="4"/>
+      <c r="E217" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F217" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G217" s="5"/>
     </row>
     <row r="218">
-      <c r="A218" s="2">
+      <c r="A218" s="1">
         <v>27.0</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E218" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F218" s="2" t="b">
+      <c r="D218" s="4"/>
+      <c r="E218" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F218" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G218" s="5"/>
     </row>
     <row r="219">
-      <c r="A219" s="2">
+      <c r="A219" s="1">
         <v>28.0</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E219" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F219" s="2" t="b">
+      <c r="D219" s="4"/>
+      <c r="E219" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F219" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G219" s="5"/>
     </row>
     <row r="220">
-      <c r="A220" s="2">
+      <c r="A220" s="1">
         <v>29.0</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E220" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F220" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D220" s="4"/>
+      <c r="E220" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F220" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G220" s="5"/>
     </row>
     <row r="221">
-      <c r="A221" s="2">
+      <c r="A221" s="1">
         <v>30.0</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E221" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="F221" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D221" s="4"/>
+      <c r="E221" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="F221" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G221" s="5"/>
     </row>
     <row r="222">
-      <c r="A222" s="2">
+      <c r="A222" s="1">
         <v>1.0</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E222" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="F222" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D222" s="4"/>
+      <c r="E222" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="F222" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G222" s="5"/>
     </row>
     <row r="223">
-      <c r="A223" s="2">
+      <c r="A223" s="1">
         <v>2.0</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E223" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F223" s="2" t="b">
+      <c r="D223" s="4"/>
+      <c r="E223" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="F223" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G223" s="3" t="s">
@@ -5038,140 +5432,3232 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2">
+      <c r="A224" s="1">
         <v>3.0</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E224" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F224" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D224" s="4"/>
+      <c r="E224" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F224" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G224" s="5"/>
     </row>
     <row r="225">
-      <c r="A225" s="2">
+      <c r="A225" s="1">
         <v>4.0</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E225" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F225" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D225" s="4"/>
+      <c r="E225" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F225" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G225" s="5"/>
     </row>
     <row r="226">
-      <c r="A226" s="2">
+      <c r="A226" s="1">
         <v>5.0</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E226" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F226" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D226" s="4"/>
+      <c r="E226" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F226" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G226" s="5"/>
     </row>
     <row r="227">
-      <c r="A227" s="2">
+      <c r="A227" s="1">
         <v>6.0</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E227" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F227" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D227" s="4"/>
+      <c r="E227" s="2">
+        <v>9.45</v>
+      </c>
+      <c r="F227" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G227" s="5"/>
     </row>
     <row r="228">
-      <c r="A228" s="2">
+      <c r="A228" s="1">
         <v>7.0</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E228" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="F228" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D228" s="4"/>
+      <c r="E228" s="2">
+        <v>9.95</v>
+      </c>
+      <c r="F228" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G228" s="5"/>
     </row>
     <row r="229">
-      <c r="A229" s="2">
+      <c r="A229" s="1">
         <v>8.0</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E229" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F229" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D229" s="4"/>
+      <c r="E229" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F229" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G229" s="5"/>
     </row>
     <row r="230">
-      <c r="A230" s="2">
+      <c r="A230" s="1">
         <v>9.0</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E230" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="F230" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D230" s="4"/>
+      <c r="E230" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="F230" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G230" s="5"/>
     </row>
     <row r="231">
-      <c r="A231" s="2">
+      <c r="A231" s="1">
         <v>10.0</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E231" s="3">
-        <v>13.95</v>
-      </c>
-      <c r="F231" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="D231" s="4"/>
+      <c r="E231" s="2">
+        <v>14.95</v>
+      </c>
+      <c r="F231" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G231" s="5"/>
+    </row>
+    <row r="232">
+      <c r="D232" s="9"/>
+      <c r="E232" s="10"/>
+    </row>
+    <row r="233">
+      <c r="D233" s="9"/>
+      <c r="E233" s="10"/>
+    </row>
+    <row r="234">
+      <c r="D234" s="9"/>
+      <c r="E234" s="10"/>
+    </row>
+    <row r="235">
+      <c r="D235" s="9"/>
+      <c r="E235" s="10"/>
+    </row>
+    <row r="236">
+      <c r="D236" s="9"/>
+      <c r="E236" s="10"/>
+    </row>
+    <row r="237">
+      <c r="D237" s="9"/>
+      <c r="E237" s="10"/>
+    </row>
+    <row r="238">
+      <c r="D238" s="9"/>
+      <c r="E238" s="10"/>
+    </row>
+    <row r="239">
+      <c r="D239" s="9"/>
+      <c r="E239" s="10"/>
+    </row>
+    <row r="240">
+      <c r="D240" s="9"/>
+      <c r="E240" s="10"/>
+    </row>
+    <row r="241">
+      <c r="D241" s="9"/>
+      <c r="E241" s="10"/>
+    </row>
+    <row r="242">
+      <c r="D242" s="9"/>
+      <c r="E242" s="10"/>
+    </row>
+    <row r="243">
+      <c r="D243" s="9"/>
+      <c r="E243" s="10"/>
+    </row>
+    <row r="244">
+      <c r="D244" s="9"/>
+      <c r="E244" s="10"/>
+    </row>
+    <row r="245">
+      <c r="D245" s="9"/>
+      <c r="E245" s="10"/>
+    </row>
+    <row r="246">
+      <c r="D246" s="9"/>
+      <c r="E246" s="10"/>
+    </row>
+    <row r="247">
+      <c r="D247" s="9"/>
+      <c r="E247" s="10"/>
+    </row>
+    <row r="248">
+      <c r="D248" s="9"/>
+      <c r="E248" s="10"/>
+    </row>
+    <row r="249">
+      <c r="D249" s="9"/>
+      <c r="E249" s="10"/>
+    </row>
+    <row r="250">
+      <c r="D250" s="9"/>
+      <c r="E250" s="10"/>
+    </row>
+    <row r="251">
+      <c r="D251" s="9"/>
+      <c r="E251" s="10"/>
+    </row>
+    <row r="252">
+      <c r="D252" s="9"/>
+      <c r="E252" s="10"/>
+    </row>
+    <row r="253">
+      <c r="D253" s="9"/>
+      <c r="E253" s="10"/>
+    </row>
+    <row r="254">
+      <c r="D254" s="9"/>
+      <c r="E254" s="10"/>
+    </row>
+    <row r="255">
+      <c r="D255" s="9"/>
+      <c r="E255" s="10"/>
+    </row>
+    <row r="256">
+      <c r="D256" s="9"/>
+      <c r="E256" s="10"/>
+    </row>
+    <row r="257">
+      <c r="D257" s="9"/>
+      <c r="E257" s="10"/>
+    </row>
+    <row r="258">
+      <c r="D258" s="9"/>
+      <c r="E258" s="10"/>
+    </row>
+    <row r="259">
+      <c r="D259" s="9"/>
+      <c r="E259" s="10"/>
+    </row>
+    <row r="260">
+      <c r="D260" s="9"/>
+      <c r="E260" s="10"/>
+    </row>
+    <row r="261">
+      <c r="D261" s="9"/>
+      <c r="E261" s="10"/>
+    </row>
+    <row r="262">
+      <c r="D262" s="9"/>
+      <c r="E262" s="10"/>
+    </row>
+    <row r="263">
+      <c r="D263" s="9"/>
+      <c r="E263" s="10"/>
+    </row>
+    <row r="264">
+      <c r="D264" s="9"/>
+      <c r="E264" s="10"/>
+    </row>
+    <row r="265">
+      <c r="D265" s="9"/>
+      <c r="E265" s="10"/>
+    </row>
+    <row r="266">
+      <c r="D266" s="9"/>
+      <c r="E266" s="10"/>
+    </row>
+    <row r="267">
+      <c r="D267" s="9"/>
+      <c r="E267" s="10"/>
+    </row>
+    <row r="268">
+      <c r="D268" s="9"/>
+      <c r="E268" s="10"/>
+    </row>
+    <row r="269">
+      <c r="D269" s="9"/>
+      <c r="E269" s="10"/>
+    </row>
+    <row r="270">
+      <c r="D270" s="9"/>
+      <c r="E270" s="10"/>
+    </row>
+    <row r="271">
+      <c r="D271" s="9"/>
+      <c r="E271" s="10"/>
+    </row>
+    <row r="272">
+      <c r="D272" s="9"/>
+      <c r="E272" s="10"/>
+    </row>
+    <row r="273">
+      <c r="D273" s="9"/>
+      <c r="E273" s="10"/>
+    </row>
+    <row r="274">
+      <c r="D274" s="9"/>
+      <c r="E274" s="10"/>
+    </row>
+    <row r="275">
+      <c r="D275" s="9"/>
+      <c r="E275" s="10"/>
+    </row>
+    <row r="276">
+      <c r="D276" s="9"/>
+      <c r="E276" s="10"/>
+    </row>
+    <row r="277">
+      <c r="D277" s="9"/>
+      <c r="E277" s="10"/>
+    </row>
+    <row r="278">
+      <c r="D278" s="9"/>
+      <c r="E278" s="10"/>
+    </row>
+    <row r="279">
+      <c r="D279" s="9"/>
+      <c r="E279" s="10"/>
+    </row>
+    <row r="280">
+      <c r="D280" s="9"/>
+      <c r="E280" s="10"/>
+    </row>
+    <row r="281">
+      <c r="D281" s="9"/>
+      <c r="E281" s="10"/>
+    </row>
+    <row r="282">
+      <c r="D282" s="9"/>
+      <c r="E282" s="10"/>
+    </row>
+    <row r="283">
+      <c r="D283" s="9"/>
+      <c r="E283" s="10"/>
+    </row>
+    <row r="284">
+      <c r="D284" s="9"/>
+      <c r="E284" s="10"/>
+    </row>
+    <row r="285">
+      <c r="D285" s="9"/>
+      <c r="E285" s="10"/>
+    </row>
+    <row r="286">
+      <c r="D286" s="9"/>
+      <c r="E286" s="10"/>
+    </row>
+    <row r="287">
+      <c r="D287" s="9"/>
+      <c r="E287" s="10"/>
+    </row>
+    <row r="288">
+      <c r="D288" s="9"/>
+      <c r="E288" s="10"/>
+    </row>
+    <row r="289">
+      <c r="D289" s="9"/>
+      <c r="E289" s="10"/>
+    </row>
+    <row r="290">
+      <c r="D290" s="9"/>
+      <c r="E290" s="10"/>
+    </row>
+    <row r="291">
+      <c r="D291" s="9"/>
+      <c r="E291" s="10"/>
+    </row>
+    <row r="292">
+      <c r="D292" s="9"/>
+      <c r="E292" s="10"/>
+    </row>
+    <row r="293">
+      <c r="D293" s="9"/>
+      <c r="E293" s="10"/>
+    </row>
+    <row r="294">
+      <c r="D294" s="9"/>
+      <c r="E294" s="10"/>
+    </row>
+    <row r="295">
+      <c r="D295" s="9"/>
+      <c r="E295" s="10"/>
+    </row>
+    <row r="296">
+      <c r="D296" s="9"/>
+      <c r="E296" s="10"/>
+    </row>
+    <row r="297">
+      <c r="D297" s="9"/>
+      <c r="E297" s="10"/>
+    </row>
+    <row r="298">
+      <c r="D298" s="9"/>
+      <c r="E298" s="10"/>
+    </row>
+    <row r="299">
+      <c r="D299" s="9"/>
+      <c r="E299" s="10"/>
+    </row>
+    <row r="300">
+      <c r="D300" s="9"/>
+      <c r="E300" s="10"/>
+    </row>
+    <row r="301">
+      <c r="D301" s="9"/>
+      <c r="E301" s="10"/>
+    </row>
+    <row r="302">
+      <c r="D302" s="9"/>
+      <c r="E302" s="10"/>
+    </row>
+    <row r="303">
+      <c r="D303" s="9"/>
+      <c r="E303" s="10"/>
+    </row>
+    <row r="304">
+      <c r="D304" s="9"/>
+      <c r="E304" s="10"/>
+    </row>
+    <row r="305">
+      <c r="D305" s="9"/>
+      <c r="E305" s="10"/>
+    </row>
+    <row r="306">
+      <c r="D306" s="9"/>
+      <c r="E306" s="10"/>
+    </row>
+    <row r="307">
+      <c r="D307" s="9"/>
+      <c r="E307" s="10"/>
+    </row>
+    <row r="308">
+      <c r="D308" s="9"/>
+      <c r="E308" s="10"/>
+    </row>
+    <row r="309">
+      <c r="D309" s="9"/>
+      <c r="E309" s="10"/>
+    </row>
+    <row r="310">
+      <c r="D310" s="9"/>
+      <c r="E310" s="10"/>
+    </row>
+    <row r="311">
+      <c r="D311" s="9"/>
+      <c r="E311" s="10"/>
+    </row>
+    <row r="312">
+      <c r="D312" s="9"/>
+      <c r="E312" s="10"/>
+    </row>
+    <row r="313">
+      <c r="D313" s="9"/>
+      <c r="E313" s="10"/>
+    </row>
+    <row r="314">
+      <c r="D314" s="9"/>
+      <c r="E314" s="10"/>
+    </row>
+    <row r="315">
+      <c r="D315" s="9"/>
+      <c r="E315" s="10"/>
+    </row>
+    <row r="316">
+      <c r="D316" s="9"/>
+      <c r="E316" s="10"/>
+    </row>
+    <row r="317">
+      <c r="D317" s="9"/>
+      <c r="E317" s="10"/>
+    </row>
+    <row r="318">
+      <c r="D318" s="9"/>
+      <c r="E318" s="10"/>
+    </row>
+    <row r="319">
+      <c r="D319" s="9"/>
+      <c r="E319" s="10"/>
+    </row>
+    <row r="320">
+      <c r="D320" s="9"/>
+      <c r="E320" s="10"/>
+    </row>
+    <row r="321">
+      <c r="D321" s="9"/>
+      <c r="E321" s="10"/>
+    </row>
+    <row r="322">
+      <c r="D322" s="9"/>
+      <c r="E322" s="10"/>
+    </row>
+    <row r="323">
+      <c r="D323" s="9"/>
+      <c r="E323" s="10"/>
+    </row>
+    <row r="324">
+      <c r="D324" s="9"/>
+      <c r="E324" s="10"/>
+    </row>
+    <row r="325">
+      <c r="D325" s="9"/>
+      <c r="E325" s="10"/>
+    </row>
+    <row r="326">
+      <c r="D326" s="9"/>
+      <c r="E326" s="10"/>
+    </row>
+    <row r="327">
+      <c r="D327" s="9"/>
+      <c r="E327" s="10"/>
+    </row>
+    <row r="328">
+      <c r="D328" s="9"/>
+      <c r="E328" s="10"/>
+    </row>
+    <row r="329">
+      <c r="D329" s="9"/>
+      <c r="E329" s="10"/>
+    </row>
+    <row r="330">
+      <c r="D330" s="9"/>
+      <c r="E330" s="10"/>
+    </row>
+    <row r="331">
+      <c r="D331" s="9"/>
+      <c r="E331" s="10"/>
+    </row>
+    <row r="332">
+      <c r="D332" s="9"/>
+      <c r="E332" s="10"/>
+    </row>
+    <row r="333">
+      <c r="D333" s="9"/>
+      <c r="E333" s="10"/>
+    </row>
+    <row r="334">
+      <c r="D334" s="9"/>
+      <c r="E334" s="10"/>
+    </row>
+    <row r="335">
+      <c r="D335" s="9"/>
+      <c r="E335" s="10"/>
+    </row>
+    <row r="336">
+      <c r="D336" s="9"/>
+      <c r="E336" s="10"/>
+    </row>
+    <row r="337">
+      <c r="D337" s="9"/>
+      <c r="E337" s="10"/>
+    </row>
+    <row r="338">
+      <c r="D338" s="9"/>
+      <c r="E338" s="10"/>
+    </row>
+    <row r="339">
+      <c r="D339" s="9"/>
+      <c r="E339" s="10"/>
+    </row>
+    <row r="340">
+      <c r="D340" s="9"/>
+      <c r="E340" s="10"/>
+    </row>
+    <row r="341">
+      <c r="D341" s="9"/>
+      <c r="E341" s="10"/>
+    </row>
+    <row r="342">
+      <c r="D342" s="9"/>
+      <c r="E342" s="10"/>
+    </row>
+    <row r="343">
+      <c r="D343" s="9"/>
+      <c r="E343" s="10"/>
+    </row>
+    <row r="344">
+      <c r="D344" s="9"/>
+      <c r="E344" s="10"/>
+    </row>
+    <row r="345">
+      <c r="D345" s="9"/>
+      <c r="E345" s="10"/>
+    </row>
+    <row r="346">
+      <c r="D346" s="9"/>
+      <c r="E346" s="10"/>
+    </row>
+    <row r="347">
+      <c r="D347" s="9"/>
+      <c r="E347" s="10"/>
+    </row>
+    <row r="348">
+      <c r="D348" s="9"/>
+      <c r="E348" s="10"/>
+    </row>
+    <row r="349">
+      <c r="D349" s="9"/>
+      <c r="E349" s="10"/>
+    </row>
+    <row r="350">
+      <c r="D350" s="9"/>
+      <c r="E350" s="10"/>
+    </row>
+    <row r="351">
+      <c r="D351" s="9"/>
+      <c r="E351" s="10"/>
+    </row>
+    <row r="352">
+      <c r="D352" s="9"/>
+      <c r="E352" s="10"/>
+    </row>
+    <row r="353">
+      <c r="D353" s="9"/>
+      <c r="E353" s="10"/>
+    </row>
+    <row r="354">
+      <c r="D354" s="9"/>
+      <c r="E354" s="10"/>
+    </row>
+    <row r="355">
+      <c r="D355" s="9"/>
+      <c r="E355" s="10"/>
+    </row>
+    <row r="356">
+      <c r="D356" s="9"/>
+      <c r="E356" s="10"/>
+    </row>
+    <row r="357">
+      <c r="D357" s="9"/>
+      <c r="E357" s="10"/>
+    </row>
+    <row r="358">
+      <c r="D358" s="9"/>
+      <c r="E358" s="10"/>
+    </row>
+    <row r="359">
+      <c r="D359" s="9"/>
+      <c r="E359" s="10"/>
+    </row>
+    <row r="360">
+      <c r="D360" s="9"/>
+      <c r="E360" s="10"/>
+    </row>
+    <row r="361">
+      <c r="D361" s="9"/>
+      <c r="E361" s="10"/>
+    </row>
+    <row r="362">
+      <c r="D362" s="9"/>
+      <c r="E362" s="10"/>
+    </row>
+    <row r="363">
+      <c r="D363" s="9"/>
+      <c r="E363" s="10"/>
+    </row>
+    <row r="364">
+      <c r="D364" s="9"/>
+      <c r="E364" s="10"/>
+    </row>
+    <row r="365">
+      <c r="D365" s="9"/>
+      <c r="E365" s="10"/>
+    </row>
+    <row r="366">
+      <c r="D366" s="9"/>
+      <c r="E366" s="10"/>
+    </row>
+    <row r="367">
+      <c r="D367" s="9"/>
+      <c r="E367" s="10"/>
+    </row>
+    <row r="368">
+      <c r="D368" s="9"/>
+      <c r="E368" s="10"/>
+    </row>
+    <row r="369">
+      <c r="D369" s="9"/>
+      <c r="E369" s="10"/>
+    </row>
+    <row r="370">
+      <c r="D370" s="9"/>
+      <c r="E370" s="10"/>
+    </row>
+    <row r="371">
+      <c r="D371" s="9"/>
+      <c r="E371" s="10"/>
+    </row>
+    <row r="372">
+      <c r="D372" s="9"/>
+      <c r="E372" s="10"/>
+    </row>
+    <row r="373">
+      <c r="D373" s="9"/>
+      <c r="E373" s="10"/>
+    </row>
+    <row r="374">
+      <c r="D374" s="9"/>
+      <c r="E374" s="10"/>
+    </row>
+    <row r="375">
+      <c r="D375" s="9"/>
+      <c r="E375" s="10"/>
+    </row>
+    <row r="376">
+      <c r="D376" s="9"/>
+      <c r="E376" s="10"/>
+    </row>
+    <row r="377">
+      <c r="D377" s="9"/>
+      <c r="E377" s="10"/>
+    </row>
+    <row r="378">
+      <c r="D378" s="9"/>
+      <c r="E378" s="10"/>
+    </row>
+    <row r="379">
+      <c r="D379" s="9"/>
+      <c r="E379" s="10"/>
+    </row>
+    <row r="380">
+      <c r="D380" s="9"/>
+      <c r="E380" s="10"/>
+    </row>
+    <row r="381">
+      <c r="D381" s="9"/>
+      <c r="E381" s="10"/>
+    </row>
+    <row r="382">
+      <c r="D382" s="9"/>
+      <c r="E382" s="10"/>
+    </row>
+    <row r="383">
+      <c r="D383" s="9"/>
+      <c r="E383" s="10"/>
+    </row>
+    <row r="384">
+      <c r="D384" s="9"/>
+      <c r="E384" s="10"/>
+    </row>
+    <row r="385">
+      <c r="D385" s="9"/>
+      <c r="E385" s="10"/>
+    </row>
+    <row r="386">
+      <c r="D386" s="9"/>
+      <c r="E386" s="10"/>
+    </row>
+    <row r="387">
+      <c r="D387" s="9"/>
+      <c r="E387" s="10"/>
+    </row>
+    <row r="388">
+      <c r="D388" s="9"/>
+      <c r="E388" s="10"/>
+    </row>
+    <row r="389">
+      <c r="D389" s="9"/>
+      <c r="E389" s="10"/>
+    </row>
+    <row r="390">
+      <c r="D390" s="9"/>
+      <c r="E390" s="10"/>
+    </row>
+    <row r="391">
+      <c r="D391" s="9"/>
+      <c r="E391" s="10"/>
+    </row>
+    <row r="392">
+      <c r="D392" s="9"/>
+      <c r="E392" s="10"/>
+    </row>
+    <row r="393">
+      <c r="D393" s="9"/>
+      <c r="E393" s="10"/>
+    </row>
+    <row r="394">
+      <c r="D394" s="9"/>
+      <c r="E394" s="10"/>
+    </row>
+    <row r="395">
+      <c r="D395" s="9"/>
+      <c r="E395" s="10"/>
+    </row>
+    <row r="396">
+      <c r="D396" s="9"/>
+      <c r="E396" s="10"/>
+    </row>
+    <row r="397">
+      <c r="D397" s="9"/>
+      <c r="E397" s="10"/>
+    </row>
+    <row r="398">
+      <c r="D398" s="9"/>
+      <c r="E398" s="10"/>
+    </row>
+    <row r="399">
+      <c r="D399" s="9"/>
+      <c r="E399" s="10"/>
+    </row>
+    <row r="400">
+      <c r="D400" s="9"/>
+      <c r="E400" s="10"/>
+    </row>
+    <row r="401">
+      <c r="D401" s="9"/>
+      <c r="E401" s="10"/>
+    </row>
+    <row r="402">
+      <c r="D402" s="9"/>
+      <c r="E402" s="10"/>
+    </row>
+    <row r="403">
+      <c r="D403" s="9"/>
+      <c r="E403" s="10"/>
+    </row>
+    <row r="404">
+      <c r="D404" s="9"/>
+      <c r="E404" s="10"/>
+    </row>
+    <row r="405">
+      <c r="D405" s="9"/>
+      <c r="E405" s="10"/>
+    </row>
+    <row r="406">
+      <c r="D406" s="9"/>
+      <c r="E406" s="10"/>
+    </row>
+    <row r="407">
+      <c r="D407" s="9"/>
+      <c r="E407" s="10"/>
+    </row>
+    <row r="408">
+      <c r="D408" s="9"/>
+      <c r="E408" s="10"/>
+    </row>
+    <row r="409">
+      <c r="D409" s="9"/>
+      <c r="E409" s="10"/>
+    </row>
+    <row r="410">
+      <c r="D410" s="9"/>
+      <c r="E410" s="10"/>
+    </row>
+    <row r="411">
+      <c r="D411" s="9"/>
+      <c r="E411" s="10"/>
+    </row>
+    <row r="412">
+      <c r="D412" s="9"/>
+      <c r="E412" s="10"/>
+    </row>
+    <row r="413">
+      <c r="D413" s="9"/>
+      <c r="E413" s="10"/>
+    </row>
+    <row r="414">
+      <c r="D414" s="9"/>
+      <c r="E414" s="10"/>
+    </row>
+    <row r="415">
+      <c r="D415" s="9"/>
+      <c r="E415" s="10"/>
+    </row>
+    <row r="416">
+      <c r="D416" s="9"/>
+      <c r="E416" s="10"/>
+    </row>
+    <row r="417">
+      <c r="D417" s="9"/>
+      <c r="E417" s="10"/>
+    </row>
+    <row r="418">
+      <c r="D418" s="9"/>
+      <c r="E418" s="10"/>
+    </row>
+    <row r="419">
+      <c r="D419" s="9"/>
+      <c r="E419" s="10"/>
+    </row>
+    <row r="420">
+      <c r="D420" s="9"/>
+      <c r="E420" s="10"/>
+    </row>
+    <row r="421">
+      <c r="D421" s="9"/>
+      <c r="E421" s="10"/>
+    </row>
+    <row r="422">
+      <c r="D422" s="9"/>
+      <c r="E422" s="10"/>
+    </row>
+    <row r="423">
+      <c r="D423" s="9"/>
+      <c r="E423" s="10"/>
+    </row>
+    <row r="424">
+      <c r="D424" s="9"/>
+      <c r="E424" s="10"/>
+    </row>
+    <row r="425">
+      <c r="D425" s="9"/>
+      <c r="E425" s="10"/>
+    </row>
+    <row r="426">
+      <c r="D426" s="9"/>
+      <c r="E426" s="10"/>
+    </row>
+    <row r="427">
+      <c r="D427" s="9"/>
+      <c r="E427" s="10"/>
+    </row>
+    <row r="428">
+      <c r="D428" s="9"/>
+      <c r="E428" s="10"/>
+    </row>
+    <row r="429">
+      <c r="D429" s="9"/>
+      <c r="E429" s="10"/>
+    </row>
+    <row r="430">
+      <c r="D430" s="9"/>
+      <c r="E430" s="10"/>
+    </row>
+    <row r="431">
+      <c r="D431" s="9"/>
+      <c r="E431" s="10"/>
+    </row>
+    <row r="432">
+      <c r="D432" s="9"/>
+      <c r="E432" s="10"/>
+    </row>
+    <row r="433">
+      <c r="D433" s="9"/>
+      <c r="E433" s="10"/>
+    </row>
+    <row r="434">
+      <c r="D434" s="9"/>
+      <c r="E434" s="10"/>
+    </row>
+    <row r="435">
+      <c r="D435" s="9"/>
+      <c r="E435" s="10"/>
+    </row>
+    <row r="436">
+      <c r="D436" s="9"/>
+      <c r="E436" s="10"/>
+    </row>
+    <row r="437">
+      <c r="D437" s="9"/>
+      <c r="E437" s="10"/>
+    </row>
+    <row r="438">
+      <c r="D438" s="9"/>
+      <c r="E438" s="10"/>
+    </row>
+    <row r="439">
+      <c r="D439" s="9"/>
+      <c r="E439" s="10"/>
+    </row>
+    <row r="440">
+      <c r="D440" s="9"/>
+      <c r="E440" s="10"/>
+    </row>
+    <row r="441">
+      <c r="D441" s="9"/>
+      <c r="E441" s="10"/>
+    </row>
+    <row r="442">
+      <c r="D442" s="9"/>
+      <c r="E442" s="10"/>
+    </row>
+    <row r="443">
+      <c r="D443" s="9"/>
+      <c r="E443" s="10"/>
+    </row>
+    <row r="444">
+      <c r="D444" s="9"/>
+      <c r="E444" s="10"/>
+    </row>
+    <row r="445">
+      <c r="D445" s="9"/>
+      <c r="E445" s="10"/>
+    </row>
+    <row r="446">
+      <c r="D446" s="9"/>
+      <c r="E446" s="10"/>
+    </row>
+    <row r="447">
+      <c r="D447" s="9"/>
+      <c r="E447" s="10"/>
+    </row>
+    <row r="448">
+      <c r="D448" s="9"/>
+      <c r="E448" s="10"/>
+    </row>
+    <row r="449">
+      <c r="D449" s="9"/>
+      <c r="E449" s="10"/>
+    </row>
+    <row r="450">
+      <c r="D450" s="9"/>
+      <c r="E450" s="10"/>
+    </row>
+    <row r="451">
+      <c r="D451" s="9"/>
+      <c r="E451" s="10"/>
+    </row>
+    <row r="452">
+      <c r="D452" s="9"/>
+      <c r="E452" s="10"/>
+    </row>
+    <row r="453">
+      <c r="D453" s="9"/>
+      <c r="E453" s="10"/>
+    </row>
+    <row r="454">
+      <c r="D454" s="9"/>
+      <c r="E454" s="10"/>
+    </row>
+    <row r="455">
+      <c r="D455" s="9"/>
+      <c r="E455" s="10"/>
+    </row>
+    <row r="456">
+      <c r="D456" s="9"/>
+      <c r="E456" s="10"/>
+    </row>
+    <row r="457">
+      <c r="D457" s="9"/>
+      <c r="E457" s="10"/>
+    </row>
+    <row r="458">
+      <c r="D458" s="9"/>
+      <c r="E458" s="10"/>
+    </row>
+    <row r="459">
+      <c r="D459" s="9"/>
+      <c r="E459" s="10"/>
+    </row>
+    <row r="460">
+      <c r="D460" s="9"/>
+      <c r="E460" s="10"/>
+    </row>
+    <row r="461">
+      <c r="D461" s="9"/>
+      <c r="E461" s="10"/>
+    </row>
+    <row r="462">
+      <c r="D462" s="9"/>
+      <c r="E462" s="10"/>
+    </row>
+    <row r="463">
+      <c r="D463" s="9"/>
+      <c r="E463" s="10"/>
+    </row>
+    <row r="464">
+      <c r="D464" s="9"/>
+      <c r="E464" s="10"/>
+    </row>
+    <row r="465">
+      <c r="D465" s="9"/>
+      <c r="E465" s="10"/>
+    </row>
+    <row r="466">
+      <c r="D466" s="9"/>
+      <c r="E466" s="10"/>
+    </row>
+    <row r="467">
+      <c r="D467" s="9"/>
+      <c r="E467" s="10"/>
+    </row>
+    <row r="468">
+      <c r="D468" s="9"/>
+      <c r="E468" s="10"/>
+    </row>
+    <row r="469">
+      <c r="D469" s="9"/>
+      <c r="E469" s="10"/>
+    </row>
+    <row r="470">
+      <c r="D470" s="9"/>
+      <c r="E470" s="10"/>
+    </row>
+    <row r="471">
+      <c r="D471" s="9"/>
+      <c r="E471" s="10"/>
+    </row>
+    <row r="472">
+      <c r="D472" s="9"/>
+      <c r="E472" s="10"/>
+    </row>
+    <row r="473">
+      <c r="D473" s="9"/>
+      <c r="E473" s="10"/>
+    </row>
+    <row r="474">
+      <c r="D474" s="9"/>
+      <c r="E474" s="10"/>
+    </row>
+    <row r="475">
+      <c r="D475" s="9"/>
+      <c r="E475" s="10"/>
+    </row>
+    <row r="476">
+      <c r="D476" s="9"/>
+      <c r="E476" s="10"/>
+    </row>
+    <row r="477">
+      <c r="D477" s="9"/>
+      <c r="E477" s="10"/>
+    </row>
+    <row r="478">
+      <c r="D478" s="9"/>
+      <c r="E478" s="10"/>
+    </row>
+    <row r="479">
+      <c r="D479" s="9"/>
+      <c r="E479" s="10"/>
+    </row>
+    <row r="480">
+      <c r="D480" s="9"/>
+      <c r="E480" s="10"/>
+    </row>
+    <row r="481">
+      <c r="D481" s="9"/>
+      <c r="E481" s="10"/>
+    </row>
+    <row r="482">
+      <c r="D482" s="9"/>
+      <c r="E482" s="10"/>
+    </row>
+    <row r="483">
+      <c r="D483" s="9"/>
+      <c r="E483" s="10"/>
+    </row>
+    <row r="484">
+      <c r="D484" s="9"/>
+      <c r="E484" s="10"/>
+    </row>
+    <row r="485">
+      <c r="D485" s="9"/>
+      <c r="E485" s="10"/>
+    </row>
+    <row r="486">
+      <c r="D486" s="9"/>
+      <c r="E486" s="10"/>
+    </row>
+    <row r="487">
+      <c r="D487" s="9"/>
+      <c r="E487" s="10"/>
+    </row>
+    <row r="488">
+      <c r="D488" s="9"/>
+      <c r="E488" s="10"/>
+    </row>
+    <row r="489">
+      <c r="D489" s="9"/>
+      <c r="E489" s="10"/>
+    </row>
+    <row r="490">
+      <c r="D490" s="9"/>
+      <c r="E490" s="10"/>
+    </row>
+    <row r="491">
+      <c r="D491" s="9"/>
+      <c r="E491" s="10"/>
+    </row>
+    <row r="492">
+      <c r="D492" s="9"/>
+      <c r="E492" s="10"/>
+    </row>
+    <row r="493">
+      <c r="D493" s="9"/>
+      <c r="E493" s="10"/>
+    </row>
+    <row r="494">
+      <c r="D494" s="9"/>
+      <c r="E494" s="10"/>
+    </row>
+    <row r="495">
+      <c r="D495" s="9"/>
+      <c r="E495" s="10"/>
+    </row>
+    <row r="496">
+      <c r="D496" s="9"/>
+      <c r="E496" s="10"/>
+    </row>
+    <row r="497">
+      <c r="D497" s="9"/>
+      <c r="E497" s="10"/>
+    </row>
+    <row r="498">
+      <c r="D498" s="9"/>
+      <c r="E498" s="10"/>
+    </row>
+    <row r="499">
+      <c r="D499" s="9"/>
+      <c r="E499" s="10"/>
+    </row>
+    <row r="500">
+      <c r="D500" s="9"/>
+      <c r="E500" s="10"/>
+    </row>
+    <row r="501">
+      <c r="D501" s="9"/>
+      <c r="E501" s="10"/>
+    </row>
+    <row r="502">
+      <c r="D502" s="9"/>
+      <c r="E502" s="10"/>
+    </row>
+    <row r="503">
+      <c r="D503" s="9"/>
+      <c r="E503" s="10"/>
+    </row>
+    <row r="504">
+      <c r="D504" s="9"/>
+      <c r="E504" s="10"/>
+    </row>
+    <row r="505">
+      <c r="D505" s="9"/>
+      <c r="E505" s="10"/>
+    </row>
+    <row r="506">
+      <c r="D506" s="9"/>
+      <c r="E506" s="10"/>
+    </row>
+    <row r="507">
+      <c r="D507" s="9"/>
+      <c r="E507" s="10"/>
+    </row>
+    <row r="508">
+      <c r="D508" s="9"/>
+      <c r="E508" s="10"/>
+    </row>
+    <row r="509">
+      <c r="D509" s="9"/>
+      <c r="E509" s="10"/>
+    </row>
+    <row r="510">
+      <c r="D510" s="9"/>
+      <c r="E510" s="10"/>
+    </row>
+    <row r="511">
+      <c r="D511" s="9"/>
+      <c r="E511" s="10"/>
+    </row>
+    <row r="512">
+      <c r="D512" s="9"/>
+      <c r="E512" s="10"/>
+    </row>
+    <row r="513">
+      <c r="D513" s="9"/>
+      <c r="E513" s="10"/>
+    </row>
+    <row r="514">
+      <c r="D514" s="9"/>
+      <c r="E514" s="10"/>
+    </row>
+    <row r="515">
+      <c r="D515" s="9"/>
+      <c r="E515" s="10"/>
+    </row>
+    <row r="516">
+      <c r="D516" s="9"/>
+      <c r="E516" s="10"/>
+    </row>
+    <row r="517">
+      <c r="D517" s="9"/>
+      <c r="E517" s="10"/>
+    </row>
+    <row r="518">
+      <c r="D518" s="9"/>
+      <c r="E518" s="10"/>
+    </row>
+    <row r="519">
+      <c r="D519" s="9"/>
+      <c r="E519" s="10"/>
+    </row>
+    <row r="520">
+      <c r="D520" s="9"/>
+      <c r="E520" s="10"/>
+    </row>
+    <row r="521">
+      <c r="D521" s="9"/>
+      <c r="E521" s="10"/>
+    </row>
+    <row r="522">
+      <c r="D522" s="9"/>
+      <c r="E522" s="10"/>
+    </row>
+    <row r="523">
+      <c r="D523" s="9"/>
+      <c r="E523" s="10"/>
+    </row>
+    <row r="524">
+      <c r="D524" s="9"/>
+      <c r="E524" s="10"/>
+    </row>
+    <row r="525">
+      <c r="D525" s="9"/>
+      <c r="E525" s="10"/>
+    </row>
+    <row r="526">
+      <c r="D526" s="9"/>
+      <c r="E526" s="10"/>
+    </row>
+    <row r="527">
+      <c r="D527" s="9"/>
+      <c r="E527" s="10"/>
+    </row>
+    <row r="528">
+      <c r="D528" s="9"/>
+      <c r="E528" s="10"/>
+    </row>
+    <row r="529">
+      <c r="D529" s="9"/>
+      <c r="E529" s="10"/>
+    </row>
+    <row r="530">
+      <c r="D530" s="9"/>
+      <c r="E530" s="10"/>
+    </row>
+    <row r="531">
+      <c r="D531" s="9"/>
+      <c r="E531" s="10"/>
+    </row>
+    <row r="532">
+      <c r="D532" s="9"/>
+      <c r="E532" s="10"/>
+    </row>
+    <row r="533">
+      <c r="D533" s="9"/>
+      <c r="E533" s="10"/>
+    </row>
+    <row r="534">
+      <c r="D534" s="9"/>
+      <c r="E534" s="10"/>
+    </row>
+    <row r="535">
+      <c r="D535" s="9"/>
+      <c r="E535" s="10"/>
+    </row>
+    <row r="536">
+      <c r="D536" s="9"/>
+      <c r="E536" s="10"/>
+    </row>
+    <row r="537">
+      <c r="D537" s="9"/>
+      <c r="E537" s="10"/>
+    </row>
+    <row r="538">
+      <c r="D538" s="9"/>
+      <c r="E538" s="10"/>
+    </row>
+    <row r="539">
+      <c r="D539" s="9"/>
+      <c r="E539" s="10"/>
+    </row>
+    <row r="540">
+      <c r="D540" s="9"/>
+      <c r="E540" s="10"/>
+    </row>
+    <row r="541">
+      <c r="D541" s="9"/>
+      <c r="E541" s="10"/>
+    </row>
+    <row r="542">
+      <c r="D542" s="9"/>
+      <c r="E542" s="10"/>
+    </row>
+    <row r="543">
+      <c r="D543" s="9"/>
+      <c r="E543" s="10"/>
+    </row>
+    <row r="544">
+      <c r="D544" s="9"/>
+      <c r="E544" s="10"/>
+    </row>
+    <row r="545">
+      <c r="D545" s="9"/>
+      <c r="E545" s="10"/>
+    </row>
+    <row r="546">
+      <c r="D546" s="9"/>
+      <c r="E546" s="10"/>
+    </row>
+    <row r="547">
+      <c r="D547" s="9"/>
+      <c r="E547" s="10"/>
+    </row>
+    <row r="548">
+      <c r="D548" s="9"/>
+      <c r="E548" s="10"/>
+    </row>
+    <row r="549">
+      <c r="D549" s="9"/>
+      <c r="E549" s="10"/>
+    </row>
+    <row r="550">
+      <c r="D550" s="9"/>
+      <c r="E550" s="10"/>
+    </row>
+    <row r="551">
+      <c r="D551" s="9"/>
+      <c r="E551" s="10"/>
+    </row>
+    <row r="552">
+      <c r="D552" s="9"/>
+      <c r="E552" s="10"/>
+    </row>
+    <row r="553">
+      <c r="D553" s="9"/>
+      <c r="E553" s="10"/>
+    </row>
+    <row r="554">
+      <c r="D554" s="9"/>
+      <c r="E554" s="10"/>
+    </row>
+    <row r="555">
+      <c r="D555" s="9"/>
+      <c r="E555" s="10"/>
+    </row>
+    <row r="556">
+      <c r="D556" s="9"/>
+      <c r="E556" s="10"/>
+    </row>
+    <row r="557">
+      <c r="D557" s="9"/>
+      <c r="E557" s="10"/>
+    </row>
+    <row r="558">
+      <c r="D558" s="9"/>
+      <c r="E558" s="10"/>
+    </row>
+    <row r="559">
+      <c r="D559" s="9"/>
+      <c r="E559" s="10"/>
+    </row>
+    <row r="560">
+      <c r="D560" s="9"/>
+      <c r="E560" s="10"/>
+    </row>
+    <row r="561">
+      <c r="D561" s="9"/>
+      <c r="E561" s="10"/>
+    </row>
+    <row r="562">
+      <c r="D562" s="9"/>
+      <c r="E562" s="10"/>
+    </row>
+    <row r="563">
+      <c r="D563" s="9"/>
+      <c r="E563" s="10"/>
+    </row>
+    <row r="564">
+      <c r="D564" s="9"/>
+      <c r="E564" s="10"/>
+    </row>
+    <row r="565">
+      <c r="D565" s="9"/>
+      <c r="E565" s="10"/>
+    </row>
+    <row r="566">
+      <c r="D566" s="9"/>
+      <c r="E566" s="10"/>
+    </row>
+    <row r="567">
+      <c r="D567" s="9"/>
+      <c r="E567" s="10"/>
+    </row>
+    <row r="568">
+      <c r="D568" s="9"/>
+      <c r="E568" s="10"/>
+    </row>
+    <row r="569">
+      <c r="D569" s="9"/>
+      <c r="E569" s="10"/>
+    </row>
+    <row r="570">
+      <c r="D570" s="9"/>
+      <c r="E570" s="10"/>
+    </row>
+    <row r="571">
+      <c r="D571" s="9"/>
+      <c r="E571" s="10"/>
+    </row>
+    <row r="572">
+      <c r="D572" s="9"/>
+      <c r="E572" s="10"/>
+    </row>
+    <row r="573">
+      <c r="D573" s="9"/>
+      <c r="E573" s="10"/>
+    </row>
+    <row r="574">
+      <c r="D574" s="9"/>
+      <c r="E574" s="10"/>
+    </row>
+    <row r="575">
+      <c r="D575" s="9"/>
+      <c r="E575" s="10"/>
+    </row>
+    <row r="576">
+      <c r="D576" s="9"/>
+      <c r="E576" s="10"/>
+    </row>
+    <row r="577">
+      <c r="D577" s="9"/>
+      <c r="E577" s="10"/>
+    </row>
+    <row r="578">
+      <c r="D578" s="9"/>
+      <c r="E578" s="10"/>
+    </row>
+    <row r="579">
+      <c r="D579" s="9"/>
+      <c r="E579" s="10"/>
+    </row>
+    <row r="580">
+      <c r="D580" s="9"/>
+      <c r="E580" s="10"/>
+    </row>
+    <row r="581">
+      <c r="D581" s="9"/>
+      <c r="E581" s="10"/>
+    </row>
+    <row r="582">
+      <c r="D582" s="9"/>
+      <c r="E582" s="10"/>
+    </row>
+    <row r="583">
+      <c r="D583" s="9"/>
+      <c r="E583" s="10"/>
+    </row>
+    <row r="584">
+      <c r="D584" s="9"/>
+      <c r="E584" s="10"/>
+    </row>
+    <row r="585">
+      <c r="D585" s="9"/>
+      <c r="E585" s="10"/>
+    </row>
+    <row r="586">
+      <c r="D586" s="9"/>
+      <c r="E586" s="10"/>
+    </row>
+    <row r="587">
+      <c r="D587" s="9"/>
+      <c r="E587" s="10"/>
+    </row>
+    <row r="588">
+      <c r="D588" s="9"/>
+      <c r="E588" s="10"/>
+    </row>
+    <row r="589">
+      <c r="D589" s="9"/>
+      <c r="E589" s="10"/>
+    </row>
+    <row r="590">
+      <c r="D590" s="9"/>
+      <c r="E590" s="10"/>
+    </row>
+    <row r="591">
+      <c r="D591" s="9"/>
+      <c r="E591" s="10"/>
+    </row>
+    <row r="592">
+      <c r="D592" s="9"/>
+      <c r="E592" s="10"/>
+    </row>
+    <row r="593">
+      <c r="D593" s="9"/>
+      <c r="E593" s="10"/>
+    </row>
+    <row r="594">
+      <c r="D594" s="9"/>
+      <c r="E594" s="10"/>
+    </row>
+    <row r="595">
+      <c r="D595" s="9"/>
+      <c r="E595" s="10"/>
+    </row>
+    <row r="596">
+      <c r="D596" s="9"/>
+      <c r="E596" s="10"/>
+    </row>
+    <row r="597">
+      <c r="D597" s="9"/>
+      <c r="E597" s="10"/>
+    </row>
+    <row r="598">
+      <c r="D598" s="9"/>
+      <c r="E598" s="10"/>
+    </row>
+    <row r="599">
+      <c r="D599" s="9"/>
+      <c r="E599" s="10"/>
+    </row>
+    <row r="600">
+      <c r="D600" s="9"/>
+      <c r="E600" s="10"/>
+    </row>
+    <row r="601">
+      <c r="D601" s="9"/>
+      <c r="E601" s="10"/>
+    </row>
+    <row r="602">
+      <c r="D602" s="9"/>
+      <c r="E602" s="10"/>
+    </row>
+    <row r="603">
+      <c r="D603" s="9"/>
+      <c r="E603" s="10"/>
+    </row>
+    <row r="604">
+      <c r="D604" s="9"/>
+      <c r="E604" s="10"/>
+    </row>
+    <row r="605">
+      <c r="D605" s="9"/>
+      <c r="E605" s="10"/>
+    </row>
+    <row r="606">
+      <c r="D606" s="9"/>
+      <c r="E606" s="10"/>
+    </row>
+    <row r="607">
+      <c r="D607" s="9"/>
+      <c r="E607" s="10"/>
+    </row>
+    <row r="608">
+      <c r="D608" s="9"/>
+      <c r="E608" s="10"/>
+    </row>
+    <row r="609">
+      <c r="D609" s="9"/>
+      <c r="E609" s="10"/>
+    </row>
+    <row r="610">
+      <c r="D610" s="9"/>
+      <c r="E610" s="10"/>
+    </row>
+    <row r="611">
+      <c r="D611" s="9"/>
+      <c r="E611" s="10"/>
+    </row>
+    <row r="612">
+      <c r="D612" s="9"/>
+      <c r="E612" s="10"/>
+    </row>
+    <row r="613">
+      <c r="D613" s="9"/>
+      <c r="E613" s="10"/>
+    </row>
+    <row r="614">
+      <c r="D614" s="9"/>
+      <c r="E614" s="10"/>
+    </row>
+    <row r="615">
+      <c r="D615" s="9"/>
+      <c r="E615" s="10"/>
+    </row>
+    <row r="616">
+      <c r="D616" s="9"/>
+      <c r="E616" s="10"/>
+    </row>
+    <row r="617">
+      <c r="D617" s="9"/>
+      <c r="E617" s="10"/>
+    </row>
+    <row r="618">
+      <c r="D618" s="9"/>
+      <c r="E618" s="10"/>
+    </row>
+    <row r="619">
+      <c r="D619" s="9"/>
+      <c r="E619" s="10"/>
+    </row>
+    <row r="620">
+      <c r="D620" s="9"/>
+      <c r="E620" s="10"/>
+    </row>
+    <row r="621">
+      <c r="D621" s="9"/>
+      <c r="E621" s="10"/>
+    </row>
+    <row r="622">
+      <c r="D622" s="9"/>
+      <c r="E622" s="10"/>
+    </row>
+    <row r="623">
+      <c r="D623" s="9"/>
+      <c r="E623" s="10"/>
+    </row>
+    <row r="624">
+      <c r="D624" s="9"/>
+      <c r="E624" s="10"/>
+    </row>
+    <row r="625">
+      <c r="D625" s="9"/>
+      <c r="E625" s="10"/>
+    </row>
+    <row r="626">
+      <c r="D626" s="9"/>
+      <c r="E626" s="10"/>
+    </row>
+    <row r="627">
+      <c r="D627" s="9"/>
+      <c r="E627" s="10"/>
+    </row>
+    <row r="628">
+      <c r="D628" s="9"/>
+      <c r="E628" s="10"/>
+    </row>
+    <row r="629">
+      <c r="D629" s="9"/>
+      <c r="E629" s="10"/>
+    </row>
+    <row r="630">
+      <c r="D630" s="9"/>
+      <c r="E630" s="10"/>
+    </row>
+    <row r="631">
+      <c r="D631" s="9"/>
+      <c r="E631" s="10"/>
+    </row>
+    <row r="632">
+      <c r="D632" s="9"/>
+      <c r="E632" s="10"/>
+    </row>
+    <row r="633">
+      <c r="D633" s="9"/>
+      <c r="E633" s="10"/>
+    </row>
+    <row r="634">
+      <c r="D634" s="9"/>
+      <c r="E634" s="10"/>
+    </row>
+    <row r="635">
+      <c r="D635" s="9"/>
+      <c r="E635" s="10"/>
+    </row>
+    <row r="636">
+      <c r="D636" s="9"/>
+      <c r="E636" s="10"/>
+    </row>
+    <row r="637">
+      <c r="D637" s="9"/>
+      <c r="E637" s="10"/>
+    </row>
+    <row r="638">
+      <c r="D638" s="9"/>
+      <c r="E638" s="10"/>
+    </row>
+    <row r="639">
+      <c r="D639" s="9"/>
+      <c r="E639" s="10"/>
+    </row>
+    <row r="640">
+      <c r="D640" s="9"/>
+      <c r="E640" s="10"/>
+    </row>
+    <row r="641">
+      <c r="D641" s="9"/>
+      <c r="E641" s="10"/>
+    </row>
+    <row r="642">
+      <c r="D642" s="9"/>
+      <c r="E642" s="10"/>
+    </row>
+    <row r="643">
+      <c r="D643" s="9"/>
+      <c r="E643" s="10"/>
+    </row>
+    <row r="644">
+      <c r="D644" s="9"/>
+      <c r="E644" s="10"/>
+    </row>
+    <row r="645">
+      <c r="D645" s="9"/>
+      <c r="E645" s="10"/>
+    </row>
+    <row r="646">
+      <c r="D646" s="9"/>
+      <c r="E646" s="10"/>
+    </row>
+    <row r="647">
+      <c r="D647" s="9"/>
+      <c r="E647" s="10"/>
+    </row>
+    <row r="648">
+      <c r="D648" s="9"/>
+      <c r="E648" s="10"/>
+    </row>
+    <row r="649">
+      <c r="D649" s="9"/>
+      <c r="E649" s="10"/>
+    </row>
+    <row r="650">
+      <c r="D650" s="9"/>
+      <c r="E650" s="10"/>
+    </row>
+    <row r="651">
+      <c r="D651" s="9"/>
+      <c r="E651" s="10"/>
+    </row>
+    <row r="652">
+      <c r="D652" s="9"/>
+      <c r="E652" s="10"/>
+    </row>
+    <row r="653">
+      <c r="D653" s="9"/>
+      <c r="E653" s="10"/>
+    </row>
+    <row r="654">
+      <c r="D654" s="9"/>
+      <c r="E654" s="10"/>
+    </row>
+    <row r="655">
+      <c r="D655" s="9"/>
+      <c r="E655" s="10"/>
+    </row>
+    <row r="656">
+      <c r="D656" s="9"/>
+      <c r="E656" s="10"/>
+    </row>
+    <row r="657">
+      <c r="D657" s="9"/>
+      <c r="E657" s="10"/>
+    </row>
+    <row r="658">
+      <c r="D658" s="9"/>
+      <c r="E658" s="10"/>
+    </row>
+    <row r="659">
+      <c r="D659" s="9"/>
+      <c r="E659" s="10"/>
+    </row>
+    <row r="660">
+      <c r="D660" s="9"/>
+      <c r="E660" s="10"/>
+    </row>
+    <row r="661">
+      <c r="D661" s="9"/>
+      <c r="E661" s="10"/>
+    </row>
+    <row r="662">
+      <c r="D662" s="9"/>
+      <c r="E662" s="10"/>
+    </row>
+    <row r="663">
+      <c r="D663" s="9"/>
+      <c r="E663" s="10"/>
+    </row>
+    <row r="664">
+      <c r="D664" s="9"/>
+      <c r="E664" s="10"/>
+    </row>
+    <row r="665">
+      <c r="D665" s="9"/>
+      <c r="E665" s="10"/>
+    </row>
+    <row r="666">
+      <c r="D666" s="9"/>
+      <c r="E666" s="10"/>
+    </row>
+    <row r="667">
+      <c r="D667" s="9"/>
+      <c r="E667" s="10"/>
+    </row>
+    <row r="668">
+      <c r="D668" s="9"/>
+      <c r="E668" s="10"/>
+    </row>
+    <row r="669">
+      <c r="D669" s="9"/>
+      <c r="E669" s="10"/>
+    </row>
+    <row r="670">
+      <c r="D670" s="9"/>
+      <c r="E670" s="10"/>
+    </row>
+    <row r="671">
+      <c r="D671" s="9"/>
+      <c r="E671" s="10"/>
+    </row>
+    <row r="672">
+      <c r="D672" s="9"/>
+      <c r="E672" s="10"/>
+    </row>
+    <row r="673">
+      <c r="D673" s="9"/>
+      <c r="E673" s="10"/>
+    </row>
+    <row r="674">
+      <c r="D674" s="9"/>
+      <c r="E674" s="10"/>
+    </row>
+    <row r="675">
+      <c r="D675" s="9"/>
+      <c r="E675" s="10"/>
+    </row>
+    <row r="676">
+      <c r="D676" s="9"/>
+      <c r="E676" s="10"/>
+    </row>
+    <row r="677">
+      <c r="D677" s="9"/>
+      <c r="E677" s="10"/>
+    </row>
+    <row r="678">
+      <c r="D678" s="9"/>
+      <c r="E678" s="10"/>
+    </row>
+    <row r="679">
+      <c r="D679" s="9"/>
+      <c r="E679" s="10"/>
+    </row>
+    <row r="680">
+      <c r="D680" s="9"/>
+      <c r="E680" s="10"/>
+    </row>
+    <row r="681">
+      <c r="D681" s="9"/>
+      <c r="E681" s="10"/>
+    </row>
+    <row r="682">
+      <c r="D682" s="9"/>
+      <c r="E682" s="10"/>
+    </row>
+    <row r="683">
+      <c r="D683" s="9"/>
+      <c r="E683" s="10"/>
+    </row>
+    <row r="684">
+      <c r="D684" s="9"/>
+      <c r="E684" s="10"/>
+    </row>
+    <row r="685">
+      <c r="D685" s="9"/>
+      <c r="E685" s="10"/>
+    </row>
+    <row r="686">
+      <c r="D686" s="9"/>
+      <c r="E686" s="10"/>
+    </row>
+    <row r="687">
+      <c r="D687" s="9"/>
+      <c r="E687" s="10"/>
+    </row>
+    <row r="688">
+      <c r="D688" s="9"/>
+      <c r="E688" s="10"/>
+    </row>
+    <row r="689">
+      <c r="D689" s="9"/>
+      <c r="E689" s="10"/>
+    </row>
+    <row r="690">
+      <c r="D690" s="9"/>
+      <c r="E690" s="10"/>
+    </row>
+    <row r="691">
+      <c r="D691" s="9"/>
+      <c r="E691" s="10"/>
+    </row>
+    <row r="692">
+      <c r="D692" s="9"/>
+      <c r="E692" s="10"/>
+    </row>
+    <row r="693">
+      <c r="D693" s="9"/>
+      <c r="E693" s="10"/>
+    </row>
+    <row r="694">
+      <c r="D694" s="9"/>
+      <c r="E694" s="10"/>
+    </row>
+    <row r="695">
+      <c r="D695" s="9"/>
+      <c r="E695" s="10"/>
+    </row>
+    <row r="696">
+      <c r="D696" s="9"/>
+      <c r="E696" s="10"/>
+    </row>
+    <row r="697">
+      <c r="D697" s="9"/>
+      <c r="E697" s="10"/>
+    </row>
+    <row r="698">
+      <c r="D698" s="9"/>
+      <c r="E698" s="10"/>
+    </row>
+    <row r="699">
+      <c r="D699" s="9"/>
+      <c r="E699" s="10"/>
+    </row>
+    <row r="700">
+      <c r="D700" s="9"/>
+      <c r="E700" s="10"/>
+    </row>
+    <row r="701">
+      <c r="D701" s="9"/>
+      <c r="E701" s="10"/>
+    </row>
+    <row r="702">
+      <c r="D702" s="9"/>
+      <c r="E702" s="10"/>
+    </row>
+    <row r="703">
+      <c r="D703" s="9"/>
+      <c r="E703" s="10"/>
+    </row>
+    <row r="704">
+      <c r="D704" s="9"/>
+      <c r="E704" s="10"/>
+    </row>
+    <row r="705">
+      <c r="D705" s="9"/>
+      <c r="E705" s="10"/>
+    </row>
+    <row r="706">
+      <c r="D706" s="9"/>
+      <c r="E706" s="10"/>
+    </row>
+    <row r="707">
+      <c r="D707" s="9"/>
+      <c r="E707" s="10"/>
+    </row>
+    <row r="708">
+      <c r="D708" s="9"/>
+      <c r="E708" s="10"/>
+    </row>
+    <row r="709">
+      <c r="D709" s="9"/>
+      <c r="E709" s="10"/>
+    </row>
+    <row r="710">
+      <c r="D710" s="9"/>
+      <c r="E710" s="10"/>
+    </row>
+    <row r="711">
+      <c r="D711" s="9"/>
+      <c r="E711" s="10"/>
+    </row>
+    <row r="712">
+      <c r="D712" s="9"/>
+      <c r="E712" s="10"/>
+    </row>
+    <row r="713">
+      <c r="D713" s="9"/>
+      <c r="E713" s="10"/>
+    </row>
+    <row r="714">
+      <c r="D714" s="9"/>
+      <c r="E714" s="10"/>
+    </row>
+    <row r="715">
+      <c r="D715" s="9"/>
+      <c r="E715" s="10"/>
+    </row>
+    <row r="716">
+      <c r="D716" s="9"/>
+      <c r="E716" s="10"/>
+    </row>
+    <row r="717">
+      <c r="D717" s="9"/>
+      <c r="E717" s="10"/>
+    </row>
+    <row r="718">
+      <c r="D718" s="9"/>
+      <c r="E718" s="10"/>
+    </row>
+    <row r="719">
+      <c r="D719" s="9"/>
+      <c r="E719" s="10"/>
+    </row>
+    <row r="720">
+      <c r="D720" s="9"/>
+      <c r="E720" s="10"/>
+    </row>
+    <row r="721">
+      <c r="D721" s="9"/>
+      <c r="E721" s="10"/>
+    </row>
+    <row r="722">
+      <c r="D722" s="9"/>
+      <c r="E722" s="10"/>
+    </row>
+    <row r="723">
+      <c r="D723" s="9"/>
+      <c r="E723" s="10"/>
+    </row>
+    <row r="724">
+      <c r="D724" s="9"/>
+      <c r="E724" s="10"/>
+    </row>
+    <row r="725">
+      <c r="D725" s="9"/>
+      <c r="E725" s="10"/>
+    </row>
+    <row r="726">
+      <c r="D726" s="9"/>
+      <c r="E726" s="10"/>
+    </row>
+    <row r="727">
+      <c r="D727" s="9"/>
+      <c r="E727" s="10"/>
+    </row>
+    <row r="728">
+      <c r="D728" s="9"/>
+      <c r="E728" s="10"/>
+    </row>
+    <row r="729">
+      <c r="D729" s="9"/>
+      <c r="E729" s="10"/>
+    </row>
+    <row r="730">
+      <c r="D730" s="9"/>
+      <c r="E730" s="10"/>
+    </row>
+    <row r="731">
+      <c r="D731" s="9"/>
+      <c r="E731" s="10"/>
+    </row>
+    <row r="732">
+      <c r="D732" s="9"/>
+      <c r="E732" s="10"/>
+    </row>
+    <row r="733">
+      <c r="D733" s="9"/>
+      <c r="E733" s="10"/>
+    </row>
+    <row r="734">
+      <c r="D734" s="9"/>
+      <c r="E734" s="10"/>
+    </row>
+    <row r="735">
+      <c r="D735" s="9"/>
+      <c r="E735" s="10"/>
+    </row>
+    <row r="736">
+      <c r="D736" s="9"/>
+      <c r="E736" s="10"/>
+    </row>
+    <row r="737">
+      <c r="D737" s="9"/>
+      <c r="E737" s="10"/>
+    </row>
+    <row r="738">
+      <c r="D738" s="9"/>
+      <c r="E738" s="10"/>
+    </row>
+    <row r="739">
+      <c r="D739" s="9"/>
+      <c r="E739" s="10"/>
+    </row>
+    <row r="740">
+      <c r="D740" s="9"/>
+      <c r="E740" s="10"/>
+    </row>
+    <row r="741">
+      <c r="D741" s="9"/>
+      <c r="E741" s="10"/>
+    </row>
+    <row r="742">
+      <c r="D742" s="9"/>
+      <c r="E742" s="10"/>
+    </row>
+    <row r="743">
+      <c r="D743" s="9"/>
+      <c r="E743" s="10"/>
+    </row>
+    <row r="744">
+      <c r="D744" s="9"/>
+      <c r="E744" s="10"/>
+    </row>
+    <row r="745">
+      <c r="D745" s="9"/>
+      <c r="E745" s="10"/>
+    </row>
+    <row r="746">
+      <c r="D746" s="9"/>
+      <c r="E746" s="10"/>
+    </row>
+    <row r="747">
+      <c r="D747" s="9"/>
+      <c r="E747" s="10"/>
+    </row>
+    <row r="748">
+      <c r="D748" s="9"/>
+      <c r="E748" s="10"/>
+    </row>
+    <row r="749">
+      <c r="D749" s="9"/>
+      <c r="E749" s="10"/>
+    </row>
+    <row r="750">
+      <c r="D750" s="9"/>
+      <c r="E750" s="10"/>
+    </row>
+    <row r="751">
+      <c r="D751" s="9"/>
+      <c r="E751" s="10"/>
+    </row>
+    <row r="752">
+      <c r="D752" s="9"/>
+      <c r="E752" s="10"/>
+    </row>
+    <row r="753">
+      <c r="D753" s="9"/>
+      <c r="E753" s="10"/>
+    </row>
+    <row r="754">
+      <c r="D754" s="9"/>
+      <c r="E754" s="10"/>
+    </row>
+    <row r="755">
+      <c r="D755" s="9"/>
+      <c r="E755" s="10"/>
+    </row>
+    <row r="756">
+      <c r="D756" s="9"/>
+      <c r="E756" s="10"/>
+    </row>
+    <row r="757">
+      <c r="D757" s="9"/>
+      <c r="E757" s="10"/>
+    </row>
+    <row r="758">
+      <c r="D758" s="9"/>
+      <c r="E758" s="10"/>
+    </row>
+    <row r="759">
+      <c r="D759" s="9"/>
+      <c r="E759" s="10"/>
+    </row>
+    <row r="760">
+      <c r="D760" s="9"/>
+      <c r="E760" s="10"/>
+    </row>
+    <row r="761">
+      <c r="D761" s="9"/>
+      <c r="E761" s="10"/>
+    </row>
+    <row r="762">
+      <c r="D762" s="9"/>
+      <c r="E762" s="10"/>
+    </row>
+    <row r="763">
+      <c r="D763" s="9"/>
+      <c r="E763" s="10"/>
+    </row>
+    <row r="764">
+      <c r="D764" s="9"/>
+      <c r="E764" s="10"/>
+    </row>
+    <row r="765">
+      <c r="D765" s="9"/>
+      <c r="E765" s="10"/>
+    </row>
+    <row r="766">
+      <c r="D766" s="9"/>
+      <c r="E766" s="10"/>
+    </row>
+    <row r="767">
+      <c r="D767" s="9"/>
+      <c r="E767" s="10"/>
+    </row>
+    <row r="768">
+      <c r="D768" s="9"/>
+      <c r="E768" s="10"/>
+    </row>
+    <row r="769">
+      <c r="D769" s="9"/>
+      <c r="E769" s="10"/>
+    </row>
+    <row r="770">
+      <c r="D770" s="9"/>
+      <c r="E770" s="10"/>
+    </row>
+    <row r="771">
+      <c r="D771" s="9"/>
+      <c r="E771" s="10"/>
+    </row>
+    <row r="772">
+      <c r="D772" s="9"/>
+      <c r="E772" s="10"/>
+    </row>
+    <row r="773">
+      <c r="D773" s="9"/>
+      <c r="E773" s="10"/>
+    </row>
+    <row r="774">
+      <c r="D774" s="9"/>
+      <c r="E774" s="10"/>
+    </row>
+    <row r="775">
+      <c r="D775" s="9"/>
+      <c r="E775" s="10"/>
+    </row>
+    <row r="776">
+      <c r="D776" s="9"/>
+      <c r="E776" s="10"/>
+    </row>
+    <row r="777">
+      <c r="D777" s="9"/>
+      <c r="E777" s="10"/>
+    </row>
+    <row r="778">
+      <c r="D778" s="9"/>
+      <c r="E778" s="10"/>
+    </row>
+    <row r="779">
+      <c r="D779" s="9"/>
+      <c r="E779" s="10"/>
+    </row>
+    <row r="780">
+      <c r="D780" s="9"/>
+      <c r="E780" s="10"/>
+    </row>
+    <row r="781">
+      <c r="D781" s="9"/>
+      <c r="E781" s="10"/>
+    </row>
+    <row r="782">
+      <c r="D782" s="9"/>
+      <c r="E782" s="10"/>
+    </row>
+    <row r="783">
+      <c r="D783" s="9"/>
+      <c r="E783" s="10"/>
+    </row>
+    <row r="784">
+      <c r="D784" s="9"/>
+      <c r="E784" s="10"/>
+    </row>
+    <row r="785">
+      <c r="D785" s="9"/>
+      <c r="E785" s="10"/>
+    </row>
+    <row r="786">
+      <c r="D786" s="9"/>
+      <c r="E786" s="10"/>
+    </row>
+    <row r="787">
+      <c r="D787" s="9"/>
+      <c r="E787" s="10"/>
+    </row>
+    <row r="788">
+      <c r="D788" s="9"/>
+      <c r="E788" s="10"/>
+    </row>
+    <row r="789">
+      <c r="D789" s="9"/>
+      <c r="E789" s="10"/>
+    </row>
+    <row r="790">
+      <c r="D790" s="9"/>
+      <c r="E790" s="10"/>
+    </row>
+    <row r="791">
+      <c r="D791" s="9"/>
+      <c r="E791" s="10"/>
+    </row>
+    <row r="792">
+      <c r="D792" s="9"/>
+      <c r="E792" s="10"/>
+    </row>
+    <row r="793">
+      <c r="D793" s="9"/>
+      <c r="E793" s="10"/>
+    </row>
+    <row r="794">
+      <c r="D794" s="9"/>
+      <c r="E794" s="10"/>
+    </row>
+    <row r="795">
+      <c r="D795" s="9"/>
+      <c r="E795" s="10"/>
+    </row>
+    <row r="796">
+      <c r="D796" s="9"/>
+      <c r="E796" s="10"/>
+    </row>
+    <row r="797">
+      <c r="D797" s="9"/>
+      <c r="E797" s="10"/>
+    </row>
+    <row r="798">
+      <c r="D798" s="9"/>
+      <c r="E798" s="10"/>
+    </row>
+    <row r="799">
+      <c r="D799" s="9"/>
+      <c r="E799" s="10"/>
+    </row>
+    <row r="800">
+      <c r="D800" s="9"/>
+      <c r="E800" s="10"/>
+    </row>
+    <row r="801">
+      <c r="D801" s="9"/>
+      <c r="E801" s="10"/>
+    </row>
+    <row r="802">
+      <c r="D802" s="9"/>
+      <c r="E802" s="10"/>
+    </row>
+    <row r="803">
+      <c r="D803" s="9"/>
+      <c r="E803" s="10"/>
+    </row>
+    <row r="804">
+      <c r="D804" s="9"/>
+      <c r="E804" s="10"/>
+    </row>
+    <row r="805">
+      <c r="D805" s="9"/>
+      <c r="E805" s="10"/>
+    </row>
+    <row r="806">
+      <c r="D806" s="9"/>
+      <c r="E806" s="10"/>
+    </row>
+    <row r="807">
+      <c r="D807" s="9"/>
+      <c r="E807" s="10"/>
+    </row>
+    <row r="808">
+      <c r="D808" s="9"/>
+      <c r="E808" s="10"/>
+    </row>
+    <row r="809">
+      <c r="D809" s="9"/>
+      <c r="E809" s="10"/>
+    </row>
+    <row r="810">
+      <c r="D810" s="9"/>
+      <c r="E810" s="10"/>
+    </row>
+    <row r="811">
+      <c r="D811" s="9"/>
+      <c r="E811" s="10"/>
+    </row>
+    <row r="812">
+      <c r="D812" s="9"/>
+      <c r="E812" s="10"/>
+    </row>
+    <row r="813">
+      <c r="D813" s="9"/>
+      <c r="E813" s="10"/>
+    </row>
+    <row r="814">
+      <c r="D814" s="9"/>
+      <c r="E814" s="10"/>
+    </row>
+    <row r="815">
+      <c r="D815" s="9"/>
+      <c r="E815" s="10"/>
+    </row>
+    <row r="816">
+      <c r="D816" s="9"/>
+      <c r="E816" s="10"/>
+    </row>
+    <row r="817">
+      <c r="D817" s="9"/>
+      <c r="E817" s="10"/>
+    </row>
+    <row r="818">
+      <c r="D818" s="9"/>
+      <c r="E818" s="10"/>
+    </row>
+    <row r="819">
+      <c r="D819" s="9"/>
+      <c r="E819" s="10"/>
+    </row>
+    <row r="820">
+      <c r="D820" s="9"/>
+      <c r="E820" s="10"/>
+    </row>
+    <row r="821">
+      <c r="D821" s="9"/>
+      <c r="E821" s="10"/>
+    </row>
+    <row r="822">
+      <c r="D822" s="9"/>
+      <c r="E822" s="10"/>
+    </row>
+    <row r="823">
+      <c r="D823" s="9"/>
+      <c r="E823" s="10"/>
+    </row>
+    <row r="824">
+      <c r="D824" s="9"/>
+      <c r="E824" s="10"/>
+    </row>
+    <row r="825">
+      <c r="D825" s="9"/>
+      <c r="E825" s="10"/>
+    </row>
+    <row r="826">
+      <c r="D826" s="9"/>
+      <c r="E826" s="10"/>
+    </row>
+    <row r="827">
+      <c r="D827" s="9"/>
+      <c r="E827" s="10"/>
+    </row>
+    <row r="828">
+      <c r="D828" s="9"/>
+      <c r="E828" s="10"/>
+    </row>
+    <row r="829">
+      <c r="D829" s="9"/>
+      <c r="E829" s="10"/>
+    </row>
+    <row r="830">
+      <c r="D830" s="9"/>
+      <c r="E830" s="10"/>
+    </row>
+    <row r="831">
+      <c r="D831" s="9"/>
+      <c r="E831" s="10"/>
+    </row>
+    <row r="832">
+      <c r="D832" s="9"/>
+      <c r="E832" s="10"/>
+    </row>
+    <row r="833">
+      <c r="D833" s="9"/>
+      <c r="E833" s="10"/>
+    </row>
+    <row r="834">
+      <c r="D834" s="9"/>
+      <c r="E834" s="10"/>
+    </row>
+    <row r="835">
+      <c r="D835" s="9"/>
+      <c r="E835" s="10"/>
+    </row>
+    <row r="836">
+      <c r="D836" s="9"/>
+      <c r="E836" s="10"/>
+    </row>
+    <row r="837">
+      <c r="D837" s="9"/>
+      <c r="E837" s="10"/>
+    </row>
+    <row r="838">
+      <c r="D838" s="9"/>
+      <c r="E838" s="10"/>
+    </row>
+    <row r="839">
+      <c r="D839" s="9"/>
+      <c r="E839" s="10"/>
+    </row>
+    <row r="840">
+      <c r="D840" s="9"/>
+      <c r="E840" s="10"/>
+    </row>
+    <row r="841">
+      <c r="D841" s="9"/>
+      <c r="E841" s="10"/>
+    </row>
+    <row r="842">
+      <c r="D842" s="9"/>
+      <c r="E842" s="10"/>
+    </row>
+    <row r="843">
+      <c r="D843" s="9"/>
+      <c r="E843" s="10"/>
+    </row>
+    <row r="844">
+      <c r="D844" s="9"/>
+      <c r="E844" s="10"/>
+    </row>
+    <row r="845">
+      <c r="D845" s="9"/>
+      <c r="E845" s="10"/>
+    </row>
+    <row r="846">
+      <c r="D846" s="9"/>
+      <c r="E846" s="10"/>
+    </row>
+    <row r="847">
+      <c r="D847" s="9"/>
+      <c r="E847" s="10"/>
+    </row>
+    <row r="848">
+      <c r="D848" s="9"/>
+      <c r="E848" s="10"/>
+    </row>
+    <row r="849">
+      <c r="D849" s="9"/>
+      <c r="E849" s="10"/>
+    </row>
+    <row r="850">
+      <c r="D850" s="9"/>
+      <c r="E850" s="10"/>
+    </row>
+    <row r="851">
+      <c r="D851" s="9"/>
+      <c r="E851" s="10"/>
+    </row>
+    <row r="852">
+      <c r="D852" s="9"/>
+      <c r="E852" s="10"/>
+    </row>
+    <row r="853">
+      <c r="D853" s="9"/>
+      <c r="E853" s="10"/>
+    </row>
+    <row r="854">
+      <c r="D854" s="9"/>
+      <c r="E854" s="10"/>
+    </row>
+    <row r="855">
+      <c r="D855" s="9"/>
+      <c r="E855" s="10"/>
+    </row>
+    <row r="856">
+      <c r="D856" s="9"/>
+      <c r="E856" s="10"/>
+    </row>
+    <row r="857">
+      <c r="D857" s="9"/>
+      <c r="E857" s="10"/>
+    </row>
+    <row r="858">
+      <c r="D858" s="9"/>
+      <c r="E858" s="10"/>
+    </row>
+    <row r="859">
+      <c r="D859" s="9"/>
+      <c r="E859" s="10"/>
+    </row>
+    <row r="860">
+      <c r="D860" s="9"/>
+      <c r="E860" s="10"/>
+    </row>
+    <row r="861">
+      <c r="D861" s="9"/>
+      <c r="E861" s="10"/>
+    </row>
+    <row r="862">
+      <c r="D862" s="9"/>
+      <c r="E862" s="10"/>
+    </row>
+    <row r="863">
+      <c r="D863" s="9"/>
+      <c r="E863" s="10"/>
+    </row>
+    <row r="864">
+      <c r="D864" s="9"/>
+      <c r="E864" s="10"/>
+    </row>
+    <row r="865">
+      <c r="D865" s="9"/>
+      <c r="E865" s="10"/>
+    </row>
+    <row r="866">
+      <c r="D866" s="9"/>
+      <c r="E866" s="10"/>
+    </row>
+    <row r="867">
+      <c r="D867" s="9"/>
+      <c r="E867" s="10"/>
+    </row>
+    <row r="868">
+      <c r="D868" s="9"/>
+      <c r="E868" s="10"/>
+    </row>
+    <row r="869">
+      <c r="D869" s="9"/>
+      <c r="E869" s="10"/>
+    </row>
+    <row r="870">
+      <c r="D870" s="9"/>
+      <c r="E870" s="10"/>
+    </row>
+    <row r="871">
+      <c r="D871" s="9"/>
+      <c r="E871" s="10"/>
+    </row>
+    <row r="872">
+      <c r="D872" s="9"/>
+      <c r="E872" s="10"/>
+    </row>
+    <row r="873">
+      <c r="D873" s="9"/>
+      <c r="E873" s="10"/>
+    </row>
+    <row r="874">
+      <c r="D874" s="9"/>
+      <c r="E874" s="10"/>
+    </row>
+    <row r="875">
+      <c r="D875" s="9"/>
+      <c r="E875" s="10"/>
+    </row>
+    <row r="876">
+      <c r="D876" s="9"/>
+      <c r="E876" s="10"/>
+    </row>
+    <row r="877">
+      <c r="D877" s="9"/>
+      <c r="E877" s="10"/>
+    </row>
+    <row r="878">
+      <c r="D878" s="9"/>
+      <c r="E878" s="10"/>
+    </row>
+    <row r="879">
+      <c r="D879" s="9"/>
+      <c r="E879" s="10"/>
+    </row>
+    <row r="880">
+      <c r="D880" s="9"/>
+      <c r="E880" s="10"/>
+    </row>
+    <row r="881">
+      <c r="D881" s="9"/>
+      <c r="E881" s="10"/>
+    </row>
+    <row r="882">
+      <c r="D882" s="9"/>
+      <c r="E882" s="10"/>
+    </row>
+    <row r="883">
+      <c r="D883" s="9"/>
+      <c r="E883" s="10"/>
+    </row>
+    <row r="884">
+      <c r="D884" s="9"/>
+      <c r="E884" s="10"/>
+    </row>
+    <row r="885">
+      <c r="D885" s="9"/>
+      <c r="E885" s="10"/>
+    </row>
+    <row r="886">
+      <c r="D886" s="9"/>
+      <c r="E886" s="10"/>
+    </row>
+    <row r="887">
+      <c r="D887" s="9"/>
+      <c r="E887" s="10"/>
+    </row>
+    <row r="888">
+      <c r="D888" s="9"/>
+      <c r="E888" s="10"/>
+    </row>
+    <row r="889">
+      <c r="D889" s="9"/>
+      <c r="E889" s="10"/>
+    </row>
+    <row r="890">
+      <c r="D890" s="9"/>
+      <c r="E890" s="10"/>
+    </row>
+    <row r="891">
+      <c r="D891" s="9"/>
+      <c r="E891" s="10"/>
+    </row>
+    <row r="892">
+      <c r="D892" s="9"/>
+      <c r="E892" s="10"/>
+    </row>
+    <row r="893">
+      <c r="D893" s="9"/>
+      <c r="E893" s="10"/>
+    </row>
+    <row r="894">
+      <c r="D894" s="9"/>
+      <c r="E894" s="10"/>
+    </row>
+    <row r="895">
+      <c r="D895" s="9"/>
+      <c r="E895" s="10"/>
+    </row>
+    <row r="896">
+      <c r="D896" s="9"/>
+      <c r="E896" s="10"/>
+    </row>
+    <row r="897">
+      <c r="D897" s="9"/>
+      <c r="E897" s="10"/>
+    </row>
+    <row r="898">
+      <c r="D898" s="9"/>
+      <c r="E898" s="10"/>
+    </row>
+    <row r="899">
+      <c r="D899" s="9"/>
+      <c r="E899" s="10"/>
+    </row>
+    <row r="900">
+      <c r="D900" s="9"/>
+      <c r="E900" s="10"/>
+    </row>
+    <row r="901">
+      <c r="D901" s="9"/>
+      <c r="E901" s="10"/>
+    </row>
+    <row r="902">
+      <c r="D902" s="9"/>
+      <c r="E902" s="10"/>
+    </row>
+    <row r="903">
+      <c r="D903" s="9"/>
+      <c r="E903" s="10"/>
+    </row>
+    <row r="904">
+      <c r="D904" s="9"/>
+      <c r="E904" s="10"/>
+    </row>
+    <row r="905">
+      <c r="D905" s="9"/>
+      <c r="E905" s="10"/>
+    </row>
+    <row r="906">
+      <c r="D906" s="9"/>
+      <c r="E906" s="10"/>
+    </row>
+    <row r="907">
+      <c r="D907" s="9"/>
+      <c r="E907" s="10"/>
+    </row>
+    <row r="908">
+      <c r="D908" s="9"/>
+      <c r="E908" s="10"/>
+    </row>
+    <row r="909">
+      <c r="D909" s="9"/>
+      <c r="E909" s="10"/>
+    </row>
+    <row r="910">
+      <c r="D910" s="9"/>
+      <c r="E910" s="10"/>
+    </row>
+    <row r="911">
+      <c r="D911" s="9"/>
+      <c r="E911" s="10"/>
+    </row>
+    <row r="912">
+      <c r="D912" s="9"/>
+      <c r="E912" s="10"/>
+    </row>
+    <row r="913">
+      <c r="D913" s="9"/>
+      <c r="E913" s="10"/>
+    </row>
+    <row r="914">
+      <c r="D914" s="9"/>
+      <c r="E914" s="10"/>
+    </row>
+    <row r="915">
+      <c r="D915" s="9"/>
+      <c r="E915" s="10"/>
+    </row>
+    <row r="916">
+      <c r="D916" s="9"/>
+      <c r="E916" s="10"/>
+    </row>
+    <row r="917">
+      <c r="D917" s="9"/>
+      <c r="E917" s="10"/>
+    </row>
+    <row r="918">
+      <c r="D918" s="9"/>
+      <c r="E918" s="10"/>
+    </row>
+    <row r="919">
+      <c r="D919" s="9"/>
+      <c r="E919" s="10"/>
+    </row>
+    <row r="920">
+      <c r="D920" s="9"/>
+      <c r="E920" s="10"/>
+    </row>
+    <row r="921">
+      <c r="D921" s="9"/>
+      <c r="E921" s="10"/>
+    </row>
+    <row r="922">
+      <c r="D922" s="9"/>
+      <c r="E922" s="10"/>
+    </row>
+    <row r="923">
+      <c r="D923" s="9"/>
+      <c r="E923" s="10"/>
+    </row>
+    <row r="924">
+      <c r="D924" s="9"/>
+      <c r="E924" s="10"/>
+    </row>
+    <row r="925">
+      <c r="D925" s="9"/>
+      <c r="E925" s="10"/>
+    </row>
+    <row r="926">
+      <c r="D926" s="9"/>
+      <c r="E926" s="10"/>
+    </row>
+    <row r="927">
+      <c r="D927" s="9"/>
+      <c r="E927" s="10"/>
+    </row>
+    <row r="928">
+      <c r="D928" s="9"/>
+      <c r="E928" s="10"/>
+    </row>
+    <row r="929">
+      <c r="D929" s="9"/>
+      <c r="E929" s="10"/>
+    </row>
+    <row r="930">
+      <c r="D930" s="9"/>
+      <c r="E930" s="10"/>
+    </row>
+    <row r="931">
+      <c r="D931" s="9"/>
+      <c r="E931" s="10"/>
+    </row>
+    <row r="932">
+      <c r="D932" s="9"/>
+      <c r="E932" s="10"/>
+    </row>
+    <row r="933">
+      <c r="D933" s="9"/>
+      <c r="E933" s="10"/>
+    </row>
+    <row r="934">
+      <c r="D934" s="9"/>
+      <c r="E934" s="10"/>
+    </row>
+    <row r="935">
+      <c r="D935" s="9"/>
+      <c r="E935" s="10"/>
+    </row>
+    <row r="936">
+      <c r="D936" s="9"/>
+      <c r="E936" s="10"/>
+    </row>
+    <row r="937">
+      <c r="D937" s="9"/>
+      <c r="E937" s="10"/>
+    </row>
+    <row r="938">
+      <c r="D938" s="9"/>
+      <c r="E938" s="10"/>
+    </row>
+    <row r="939">
+      <c r="D939" s="9"/>
+      <c r="E939" s="10"/>
+    </row>
+    <row r="940">
+      <c r="D940" s="9"/>
+      <c r="E940" s="10"/>
+    </row>
+    <row r="941">
+      <c r="D941" s="9"/>
+      <c r="E941" s="10"/>
+    </row>
+    <row r="942">
+      <c r="D942" s="9"/>
+      <c r="E942" s="10"/>
+    </row>
+    <row r="943">
+      <c r="D943" s="9"/>
+      <c r="E943" s="10"/>
+    </row>
+    <row r="944">
+      <c r="D944" s="9"/>
+      <c r="E944" s="10"/>
+    </row>
+    <row r="945">
+      <c r="D945" s="9"/>
+      <c r="E945" s="10"/>
+    </row>
+    <row r="946">
+      <c r="D946" s="9"/>
+      <c r="E946" s="10"/>
+    </row>
+    <row r="947">
+      <c r="D947" s="9"/>
+      <c r="E947" s="10"/>
+    </row>
+    <row r="948">
+      <c r="D948" s="9"/>
+      <c r="E948" s="10"/>
+    </row>
+    <row r="949">
+      <c r="D949" s="9"/>
+      <c r="E949" s="10"/>
+    </row>
+    <row r="950">
+      <c r="D950" s="9"/>
+      <c r="E950" s="10"/>
+    </row>
+    <row r="951">
+      <c r="D951" s="9"/>
+      <c r="E951" s="10"/>
+    </row>
+    <row r="952">
+      <c r="D952" s="9"/>
+      <c r="E952" s="10"/>
+    </row>
+    <row r="953">
+      <c r="D953" s="9"/>
+      <c r="E953" s="10"/>
+    </row>
+    <row r="954">
+      <c r="D954" s="9"/>
+      <c r="E954" s="10"/>
+    </row>
+    <row r="955">
+      <c r="D955" s="9"/>
+      <c r="E955" s="10"/>
+    </row>
+    <row r="956">
+      <c r="D956" s="9"/>
+      <c r="E956" s="10"/>
+    </row>
+    <row r="957">
+      <c r="D957" s="9"/>
+      <c r="E957" s="10"/>
+    </row>
+    <row r="958">
+      <c r="D958" s="9"/>
+      <c r="E958" s="10"/>
+    </row>
+    <row r="959">
+      <c r="D959" s="9"/>
+      <c r="E959" s="10"/>
+    </row>
+    <row r="960">
+      <c r="D960" s="9"/>
+      <c r="E960" s="10"/>
+    </row>
+    <row r="961">
+      <c r="D961" s="9"/>
+      <c r="E961" s="10"/>
+    </row>
+    <row r="962">
+      <c r="D962" s="9"/>
+      <c r="E962" s="10"/>
+    </row>
+    <row r="963">
+      <c r="D963" s="9"/>
+      <c r="E963" s="10"/>
+    </row>
+    <row r="964">
+      <c r="D964" s="9"/>
+      <c r="E964" s="10"/>
+    </row>
+    <row r="965">
+      <c r="D965" s="9"/>
+      <c r="E965" s="10"/>
+    </row>
+    <row r="966">
+      <c r="D966" s="9"/>
+      <c r="E966" s="10"/>
+    </row>
+    <row r="967">
+      <c r="D967" s="9"/>
+      <c r="E967" s="10"/>
+    </row>
+    <row r="968">
+      <c r="D968" s="9"/>
+      <c r="E968" s="10"/>
+    </row>
+    <row r="969">
+      <c r="D969" s="9"/>
+      <c r="E969" s="10"/>
+    </row>
+    <row r="970">
+      <c r="D970" s="9"/>
+      <c r="E970" s="10"/>
+    </row>
+    <row r="971">
+      <c r="D971" s="9"/>
+      <c r="E971" s="10"/>
+    </row>
+    <row r="972">
+      <c r="D972" s="9"/>
+      <c r="E972" s="10"/>
+    </row>
+    <row r="973">
+      <c r="D973" s="9"/>
+      <c r="E973" s="10"/>
+    </row>
+    <row r="974">
+      <c r="D974" s="9"/>
+      <c r="E974" s="10"/>
+    </row>
+    <row r="975">
+      <c r="D975" s="9"/>
+      <c r="E975" s="10"/>
+    </row>
+    <row r="976">
+      <c r="D976" s="9"/>
+      <c r="E976" s="10"/>
+    </row>
+    <row r="977">
+      <c r="D977" s="9"/>
+      <c r="E977" s="10"/>
+    </row>
+    <row r="978">
+      <c r="D978" s="9"/>
+      <c r="E978" s="10"/>
+    </row>
+    <row r="979">
+      <c r="D979" s="9"/>
+      <c r="E979" s="10"/>
+    </row>
+    <row r="980">
+      <c r="D980" s="9"/>
+      <c r="E980" s="10"/>
+    </row>
+    <row r="981">
+      <c r="D981" s="9"/>
+      <c r="E981" s="10"/>
+    </row>
+    <row r="982">
+      <c r="D982" s="9"/>
+      <c r="E982" s="10"/>
+    </row>
+    <row r="983">
+      <c r="D983" s="9"/>
+      <c r="E983" s="10"/>
+    </row>
+    <row r="984">
+      <c r="D984" s="9"/>
+      <c r="E984" s="10"/>
+    </row>
+    <row r="985">
+      <c r="D985" s="9"/>
+      <c r="E985" s="10"/>
+    </row>
+    <row r="986">
+      <c r="D986" s="9"/>
+      <c r="E986" s="10"/>
+    </row>
+    <row r="987">
+      <c r="D987" s="9"/>
+      <c r="E987" s="10"/>
+    </row>
+    <row r="988">
+      <c r="D988" s="9"/>
+      <c r="E988" s="10"/>
+    </row>
+    <row r="989">
+      <c r="D989" s="9"/>
+      <c r="E989" s="10"/>
+    </row>
+    <row r="990">
+      <c r="D990" s="9"/>
+      <c r="E990" s="10"/>
+    </row>
+    <row r="991">
+      <c r="D991" s="9"/>
+      <c r="E991" s="10"/>
+    </row>
+    <row r="992">
+      <c r="D992" s="9"/>
+      <c r="E992" s="10"/>
+    </row>
+    <row r="993">
+      <c r="D993" s="9"/>
+      <c r="E993" s="10"/>
+    </row>
+    <row r="994">
+      <c r="D994" s="9"/>
+      <c r="E994" s="10"/>
+    </row>
+    <row r="995">
+      <c r="D995" s="9"/>
+      <c r="E995" s="10"/>
+    </row>
+    <row r="996">
+      <c r="D996" s="9"/>
+      <c r="E996" s="10"/>
+    </row>
+    <row r="997">
+      <c r="D997" s="9"/>
+      <c r="E997" s="10"/>
+    </row>
+    <row r="998">
+      <c r="D998" s="9"/>
+      <c r="E998" s="10"/>
+    </row>
+    <row r="999">
+      <c r="D999" s="9"/>
+      <c r="E999" s="10"/>
+    </row>
+    <row r="1000">
+      <c r="D1000" s="9"/>
+      <c r="E1000" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5194,238 +8680,238 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>4.0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>5.0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>6.0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>7.0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>8.0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>9.0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>10.0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>11.0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>12.0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>13.0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>14.0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>15.0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>16.0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>17.0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>18.0</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>19.0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>20.0</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>21.0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>235</v>
       </c>
     </row>

--- a/src/content/menu.xlsx
+++ b/src/content/menu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="248">
   <si>
     <t>order</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>Fresh Broccoli with Garlic Sauce</t>
-  </si>
-  <si>
-    <t>General Tso’s Tofu</t>
   </si>
   <si>
     <t>Sauteed Fresh Broccoli</t>
@@ -765,7 +762,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -783,11 +780,6 @@
       <name val="Open Sans"/>
     </font>
     <font/>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Open Sans"/>
-    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -807,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -829,15 +821,14 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3440,26 +3431,26 @@
       <c r="G119" s="5"/>
     </row>
     <row r="120">
-      <c r="A120" s="1">
+      <c r="A120" s="9">
         <v>118.0</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D120" s="4"/>
-      <c r="E120" s="4">
-        <v>8.35</v>
+      <c r="E120" s="6">
+        <v>7.55</v>
       </c>
       <c r="F120" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" s="5"/>
     </row>
     <row r="121">
-      <c r="A121" s="1">
+      <c r="A121" s="9">
         <v>119.0</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -3470,7 +3461,7 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="6">
-        <v>7.55</v>
+        <v>7.45</v>
       </c>
       <c r="F121" s="1" t="b">
         <v>0</v>
@@ -3478,7 +3469,7 @@
       <c r="G121" s="5"/>
     </row>
     <row r="122">
-      <c r="A122" s="1">
+      <c r="A122" s="9">
         <v>120.0</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -3492,44 +3483,46 @@
         <v>7.45</v>
       </c>
       <c r="F122" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="5"/>
     </row>
     <row r="123">
-      <c r="A123" s="1">
+      <c r="A123" s="9">
         <v>121.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D123" s="6">
+        <v>6.15</v>
+      </c>
+      <c r="E123" s="6">
+        <v>9.15</v>
+      </c>
+      <c r="F123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="9">
+        <v>122.0</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D123" s="4"/>
-      <c r="E123" s="6">
-        <v>7.45</v>
-      </c>
-      <c r="F123" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>122.0</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D124" s="6">
-        <v>6.15</v>
+        <v>5.95</v>
       </c>
       <c r="E124" s="6">
-        <v>9.15</v>
+        <v>8.45</v>
       </c>
       <c r="F124" s="1" t="b">
         <v>0</v>
@@ -3537,20 +3530,20 @@
       <c r="G124" s="5"/>
     </row>
     <row r="125">
-      <c r="A125" s="1">
+      <c r="A125" s="9">
         <v>123.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D125" s="6">
-        <v>5.95</v>
+        <v>6.55</v>
       </c>
       <c r="E125" s="6">
-        <v>8.45</v>
+        <v>9.55</v>
       </c>
       <c r="F125" s="1" t="b">
         <v>0</v>
@@ -3558,60 +3551,58 @@
       <c r="G125" s="5"/>
     </row>
     <row r="126">
-      <c r="A126" s="1">
+      <c r="A126" s="9">
         <v>124.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D126" s="6">
-        <v>6.55</v>
-      </c>
+      <c r="D126" s="4"/>
       <c r="E126" s="6">
-        <v>9.55</v>
+        <v>9.15</v>
       </c>
       <c r="F126" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G126" s="5"/>
+      <c r="G126" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="1">
+      <c r="A127" s="9">
         <v>125.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="6">
-        <v>9.15</v>
+        <v>8.75</v>
       </c>
       <c r="F127" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="G127" s="5"/>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>126.0</v>
+        <v>1.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="6">
-        <v>8.75</v>
+        <v>8.95</v>
       </c>
       <c r="F128" s="1" t="b">
         <v>0</v>
@@ -3620,10 +3611,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>151</v>
@@ -3639,10 +3630,10 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>152</v>
@@ -3652,19 +3643,19 @@
         <v>8.95</v>
       </c>
       <c r="F130" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="5"/>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="6">
@@ -3677,13 +3668,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="6">
@@ -3696,13 +3687,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="6">
@@ -3715,13 +3706,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="6">
@@ -3734,32 +3725,32 @@
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="6">
         <v>8.95</v>
       </c>
       <c r="F135" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" s="5"/>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="6">
@@ -3772,13 +3763,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="6">
@@ -3791,13 +3782,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="6">
@@ -3810,13 +3801,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="6">
@@ -3829,13 +3820,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="6">
@@ -3848,13 +3839,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="6">
@@ -3867,51 +3858,51 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="6">
         <v>8.95</v>
       </c>
       <c r="F142" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" s="5"/>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="6">
         <v>8.95</v>
       </c>
       <c r="F143" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" s="5"/>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="6">
@@ -3924,13 +3915,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="6">
@@ -3943,13 +3934,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="6">
@@ -3962,29 +3953,29 @@
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="6">
         <v>8.95</v>
       </c>
       <c r="F147" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" s="5"/>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>157</v>
@@ -3994,19 +3985,19 @@
         <v>8.95</v>
       </c>
       <c r="F148" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" s="5"/>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="6">
@@ -4019,32 +4010,32 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="6">
         <v>8.95</v>
       </c>
       <c r="F150" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" s="5"/>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="6">
@@ -4057,10 +4048,10 @@
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>159</v>
@@ -4076,10 +4067,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>160</v>
@@ -4089,16 +4080,16 @@
         <v>8.95</v>
       </c>
       <c r="F153" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" s="5"/>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>161</v>
@@ -4114,10 +4105,10 @@
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>162</v>
@@ -4133,141 +4124,141 @@
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D156" s="4"/>
-      <c r="E156" s="6">
-        <v>8.95</v>
+      <c r="E156" s="2">
+        <v>12.95</v>
       </c>
       <c r="F156" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G156" s="5"/>
+      <c r="G156" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="2">
-        <v>12.95</v>
+        <v>14.95</v>
       </c>
       <c r="F157" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="2">
-        <v>14.95</v>
+        <v>11.95</v>
       </c>
       <c r="F158" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="2">
-        <v>11.95</v>
+        <v>11.75</v>
       </c>
       <c r="F159" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="2">
-        <v>11.75</v>
+        <v>11.95</v>
       </c>
       <c r="F160" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="2">
         <v>11.95</v>
       </c>
       <c r="F161" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>174</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G161" s="5"/>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="2">
-        <v>11.95</v>
+        <v>10.25</v>
       </c>
       <c r="F162" s="1" t="b">
         <v>1</v>
@@ -4276,118 +4267,118 @@
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="2">
-        <v>10.25</v>
+        <v>11.95</v>
       </c>
       <c r="F163" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G163" s="5"/>
+      <c r="G163" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="2">
-        <v>11.95</v>
+        <v>12.5</v>
       </c>
       <c r="F164" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G164" s="3" t="s">
-        <v>178</v>
+      <c r="G164" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="2">
-        <v>12.5</v>
+        <v>14.95</v>
       </c>
       <c r="F165" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>180</v>
+      <c r="G165" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="2">
-        <v>14.95</v>
+        <v>11.95</v>
       </c>
       <c r="F166" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G166" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="G166" s="5"/>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="2">
-        <v>11.95</v>
+        <v>10.65</v>
       </c>
       <c r="F167" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" s="5"/>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="2">
-        <v>10.65</v>
+        <v>10.25</v>
       </c>
       <c r="F168" s="1" t="b">
         <v>0</v>
@@ -4396,17 +4387,17 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="2">
-        <v>10.25</v>
+        <v>10.65</v>
       </c>
       <c r="F169" s="1" t="b">
         <v>0</v>
@@ -4415,17 +4406,17 @@
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="2">
-        <v>10.65</v>
+        <v>10.25</v>
       </c>
       <c r="F170" s="1" t="b">
         <v>0</v>
@@ -4434,17 +4425,17 @@
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="2">
-        <v>10.25</v>
+        <v>11.95</v>
       </c>
       <c r="F171" s="1" t="b">
         <v>0</v>
@@ -4453,10 +4444,10 @@
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>186</v>
@@ -4468,82 +4459,82 @@
       <c r="F172" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G172" s="5"/>
+      <c r="G172" s="9" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D173" s="4"/>
-      <c r="E173" s="2">
-        <v>11.95</v>
+      <c r="E173" s="4">
+        <v>11.5</v>
       </c>
       <c r="F173" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G173" s="10" t="s">
-        <v>188</v>
+      <c r="G173" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D174" s="4"/>
-      <c r="E174" s="4">
-        <v>11.5</v>
+      <c r="E174" s="2">
+        <v>10.5</v>
       </c>
       <c r="F174" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G174" s="5"/>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>19.0</v>
+        <v>126.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D175" s="4"/>
-      <c r="E175" s="2">
-        <v>10.5</v>
+      <c r="E175" s="6">
+        <v>8.15</v>
       </c>
       <c r="F175" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" s="5"/>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="6">
-        <v>8.15</v>
+        <v>7.65</v>
       </c>
       <c r="F176" s="1" t="b">
         <v>0</v>
@@ -4552,13 +4543,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="6">
@@ -4571,17 +4562,17 @@
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>128.0</v>
+        <v>129.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="6">
-        <v>7.65</v>
+        <v>8.15</v>
       </c>
       <c r="F178" s="1" t="b">
         <v>0</v>
@@ -4590,17 +4581,17 @@
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>129.0</v>
+        <v>130.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="6">
-        <v>8.15</v>
+        <v>7.15</v>
       </c>
       <c r="F179" s="1" t="b">
         <v>0</v>
@@ -4609,17 +4600,17 @@
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="6">
-        <v>7.15</v>
+        <v>8.65</v>
       </c>
       <c r="F180" s="1" t="b">
         <v>0</v>
@@ -4628,38 +4619,40 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>131.0</v>
+        <v>132.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D181" s="4"/>
-      <c r="E181" s="6">
-        <v>8.65</v>
+        <v>198</v>
+      </c>
+      <c r="D181" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="E181" s="4">
+        <v>8.95</v>
       </c>
       <c r="F181" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" s="5"/>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>132.0</v>
+        <v>133.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D182" s="4">
-        <v>5.75</v>
+      <c r="D182" s="2">
+        <v>5.55</v>
       </c>
       <c r="E182" s="4">
-        <v>8.95</v>
+        <v>8.75</v>
       </c>
       <c r="F182" s="1" t="b">
         <v>1</v>
@@ -4668,19 +4661,19 @@
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>133.0</v>
+        <v>134.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D183" s="2">
-        <v>5.55</v>
+      <c r="D183" s="4">
+        <v>5.75</v>
       </c>
       <c r="E183" s="4">
-        <v>8.75</v>
+        <v>8.95</v>
       </c>
       <c r="F183" s="1" t="b">
         <v>1</v>
@@ -4689,19 +4682,17 @@
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>134.0</v>
+        <v>1.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D184" s="4">
-        <v>5.75</v>
-      </c>
-      <c r="E184" s="4">
-        <v>8.95</v>
+        <v>202</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="6">
+        <v>38.99</v>
       </c>
       <c r="F184" s="1" t="b">
         <v>1</v>
@@ -4710,29 +4701,29 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="6">
-        <v>38.99</v>
+        <v>35.99</v>
       </c>
       <c r="F185" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" s="5"/>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>204</v>
@@ -4748,10 +4739,10 @@
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>205</v>
@@ -4767,10 +4758,10 @@
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>206</v>
@@ -4786,10 +4777,10 @@
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>207</v>
@@ -4799,16 +4790,16 @@
         <v>35.99</v>
       </c>
       <c r="F189" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" s="5"/>
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>208</v>
@@ -4818,76 +4809,76 @@
         <v>35.99</v>
       </c>
       <c r="F190" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" s="5"/>
     </row>
     <row r="191">
-      <c r="A191" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C191" s="3" t="s">
+      <c r="A191" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C191" s="9" t="s">
         <v>209</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="6">
-        <v>35.99</v>
-      </c>
-      <c r="F191" s="1" t="b">
+        <v>20.99</v>
+      </c>
+      <c r="F191" s="9" t="b">
         <v>0</v>
       </c>
       <c r="G191" s="5"/>
     </row>
     <row r="192">
-      <c r="A192" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C192" s="10" t="s">
+      <c r="A192" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C192" s="9" t="s">
         <v>210</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="6">
         <v>20.99</v>
       </c>
-      <c r="F192" s="10" t="b">
+      <c r="F192" s="9" t="b">
         <v>0</v>
       </c>
       <c r="G192" s="5"/>
     </row>
     <row r="193">
-      <c r="A193" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C193" s="10" t="s">
+      <c r="A193" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>211</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="6">
-        <v>20.99</v>
-      </c>
-      <c r="F193" s="10" t="b">
+        <v>6.45</v>
+      </c>
+      <c r="F193" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G193" s="5"/>
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="6">
@@ -4900,13 +4891,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="6">
@@ -4919,51 +4910,51 @@
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="6">
         <v>6.45</v>
       </c>
       <c r="F196" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" s="5"/>
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="6">
         <v>6.45</v>
       </c>
       <c r="F197" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" s="5"/>
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="6">
@@ -4976,51 +4967,51 @@
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="6">
         <v>6.45</v>
       </c>
       <c r="F199" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" s="5"/>
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="6">
         <v>6.45</v>
       </c>
       <c r="F200" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200" s="5"/>
     </row>
     <row r="201">
       <c r="A201" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="6">
@@ -5033,13 +5024,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="6">
@@ -5052,13 +5043,13 @@
     </row>
     <row r="203">
       <c r="A203" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="6">
@@ -5071,32 +5062,32 @@
     </row>
     <row r="204">
       <c r="A204" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="6">
         <v>6.45</v>
       </c>
       <c r="F204" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" s="5"/>
     </row>
     <row r="205">
       <c r="A205" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="6">
@@ -5109,13 +5100,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="6">
@@ -5128,10 +5119,10 @@
     </row>
     <row r="207">
       <c r="A207" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>216</v>
@@ -5147,32 +5138,32 @@
     </row>
     <row r="208">
       <c r="A208" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="6">
         <v>6.45</v>
       </c>
       <c r="F208" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" s="5"/>
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="6">
@@ -5185,13 +5176,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="6">
@@ -5204,13 +5195,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="6">
@@ -5223,10 +5214,10 @@
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>218</v>
@@ -5242,10 +5233,10 @@
     </row>
     <row r="213">
       <c r="A213" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>219</v>
@@ -5261,10 +5252,10 @@
     </row>
     <row r="214">
       <c r="A214" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>220</v>
@@ -5280,10 +5271,10 @@
     </row>
     <row r="215">
       <c r="A215" s="1">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>221</v>
@@ -5299,13 +5290,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="6">
@@ -5318,32 +5309,32 @@
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="6">
         <v>6.45</v>
       </c>
       <c r="F217" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" s="5"/>
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="6">
@@ -5356,13 +5347,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="6">
@@ -5375,13 +5366,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="6">
@@ -5394,10 +5385,10 @@
     </row>
     <row r="221">
       <c r="A221" s="1">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>224</v>
@@ -5407,19 +5398,19 @@
         <v>6.45</v>
       </c>
       <c r="F221" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" s="5"/>
     </row>
     <row r="222">
       <c r="A222" s="1">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="6">
@@ -5432,17 +5423,17 @@
     </row>
     <row r="223">
       <c r="A223" s="1">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="D223" s="4"/>
-      <c r="E223" s="6">
-        <v>6.45</v>
+      <c r="E223" s="2">
+        <v>7.45</v>
       </c>
       <c r="F223" s="1" t="b">
         <v>0</v>
@@ -5451,57 +5442,57 @@
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="2">
-        <v>7.45</v>
+        <v>11.95</v>
       </c>
       <c r="F224" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G224" s="5"/>
+      <c r="G224" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>228</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="2">
-        <v>11.95</v>
+        <v>9.35</v>
       </c>
       <c r="F225" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G225" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="G225" s="5"/>
     </row>
     <row r="226">
       <c r="A226" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="2">
-        <v>9.35</v>
+        <v>9.95</v>
       </c>
       <c r="F226" s="1" t="b">
         <v>0</v>
@@ -5510,10 +5501,10 @@
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>230</v>
@@ -5529,17 +5520,17 @@
     </row>
     <row r="228">
       <c r="A228" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="2">
-        <v>9.95</v>
+        <v>9.45</v>
       </c>
       <c r="F228" s="1" t="b">
         <v>0</v>
@@ -5548,17 +5539,17 @@
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="2">
-        <v>9.45</v>
+        <v>9.95</v>
       </c>
       <c r="F229" s="1" t="b">
         <v>0</v>
@@ -5567,17 +5558,17 @@
     </row>
     <row r="230">
       <c r="A230" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>233</v>
       </c>
       <c r="D230" s="4"/>
-      <c r="E230" s="2">
-        <v>9.95</v>
+      <c r="E230" s="6">
+        <v>9.35</v>
       </c>
       <c r="F230" s="1" t="b">
         <v>0</v>
@@ -5586,10 +5577,10 @@
     </row>
     <row r="231">
       <c r="A231" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>234</v>
@@ -5605,17 +5596,17 @@
     </row>
     <row r="232">
       <c r="A232" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="6">
-        <v>9.35</v>
+        <v>14.95</v>
       </c>
       <c r="F232" s="1" t="b">
         <v>0</v>
@@ -5623,3099 +5614,3080 @@
       <c r="G232" s="5"/>
     </row>
     <row r="233">
-      <c r="A233" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D233" s="4"/>
-      <c r="E233" s="6">
-        <v>14.95</v>
-      </c>
-      <c r="F233" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G233" s="5"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
     </row>
     <row r="234">
-      <c r="D234" s="11"/>
-      <c r="E234" s="11"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
     </row>
     <row r="235">
-      <c r="D235" s="11"/>
-      <c r="E235" s="11"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
     </row>
     <row r="236">
-      <c r="D236" s="11"/>
-      <c r="E236" s="11"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10"/>
     </row>
     <row r="237">
-      <c r="D237" s="11"/>
-      <c r="E237" s="11"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
     </row>
     <row r="238">
-      <c r="D238" s="11"/>
-      <c r="E238" s="11"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
     </row>
     <row r="239">
-      <c r="D239" s="11"/>
-      <c r="E239" s="11"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
     </row>
     <row r="240">
-      <c r="D240" s="11"/>
-      <c r="E240" s="11"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
     </row>
     <row r="241">
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
     </row>
     <row r="242">
-      <c r="D242" s="11"/>
-      <c r="E242" s="11"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
     </row>
     <row r="243">
-      <c r="D243" s="11"/>
-      <c r="E243" s="11"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
     </row>
     <row r="244">
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
     </row>
     <row r="245">
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="10"/>
     </row>
     <row r="246">
-      <c r="D246" s="11"/>
-      <c r="E246" s="11"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="10"/>
     </row>
     <row r="247">
-      <c r="D247" s="11"/>
-      <c r="E247" s="11"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="10"/>
     </row>
     <row r="248">
-      <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="10"/>
     </row>
     <row r="249">
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="10"/>
     </row>
     <row r="250">
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="10"/>
     </row>
     <row r="251">
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10"/>
     </row>
     <row r="252">
-      <c r="D252" s="11"/>
-      <c r="E252" s="11"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="10"/>
     </row>
     <row r="253">
-      <c r="D253" s="11"/>
-      <c r="E253" s="11"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="10"/>
     </row>
     <row r="254">
-      <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
     </row>
     <row r="255">
-      <c r="D255" s="11"/>
-      <c r="E255" s="11"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
     </row>
     <row r="256">
-      <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="10"/>
     </row>
     <row r="257">
-      <c r="D257" s="11"/>
-      <c r="E257" s="11"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="10"/>
     </row>
     <row r="258">
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10"/>
     </row>
     <row r="259">
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
     </row>
     <row r="260">
-      <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10"/>
     </row>
     <row r="261">
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
     </row>
     <row r="262">
-      <c r="D262" s="11"/>
-      <c r="E262" s="11"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10"/>
     </row>
     <row r="263">
-      <c r="D263" s="11"/>
-      <c r="E263" s="11"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="10"/>
     </row>
     <row r="264">
-      <c r="D264" s="11"/>
-      <c r="E264" s="11"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10"/>
     </row>
     <row r="265">
-      <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
     </row>
     <row r="266">
-      <c r="D266" s="11"/>
-      <c r="E266" s="11"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
     </row>
     <row r="267">
-      <c r="D267" s="11"/>
-      <c r="E267" s="11"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
     </row>
     <row r="268">
-      <c r="D268" s="11"/>
-      <c r="E268" s="11"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="10"/>
     </row>
     <row r="269">
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
     </row>
     <row r="270">
-      <c r="D270" s="11"/>
-      <c r="E270" s="11"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="10"/>
     </row>
     <row r="271">
-      <c r="D271" s="11"/>
-      <c r="E271" s="11"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
     </row>
     <row r="272">
-      <c r="D272" s="11"/>
-      <c r="E272" s="11"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
     </row>
     <row r="273">
-      <c r="D273" s="11"/>
-      <c r="E273" s="11"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
     </row>
     <row r="274">
-      <c r="D274" s="11"/>
-      <c r="E274" s="11"/>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
     </row>
     <row r="275">
-      <c r="D275" s="11"/>
-      <c r="E275" s="11"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
     </row>
     <row r="276">
-      <c r="D276" s="11"/>
-      <c r="E276" s="11"/>
+      <c r="D276" s="10"/>
+      <c r="E276" s="10"/>
     </row>
     <row r="277">
-      <c r="D277" s="11"/>
-      <c r="E277" s="11"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
     </row>
     <row r="278">
-      <c r="D278" s="11"/>
-      <c r="E278" s="11"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="10"/>
     </row>
     <row r="279">
-      <c r="D279" s="11"/>
-      <c r="E279" s="11"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
     </row>
     <row r="280">
-      <c r="D280" s="11"/>
-      <c r="E280" s="11"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
     </row>
     <row r="281">
-      <c r="D281" s="11"/>
-      <c r="E281" s="11"/>
+      <c r="D281" s="10"/>
+      <c r="E281" s="10"/>
     </row>
     <row r="282">
-      <c r="D282" s="11"/>
-      <c r="E282" s="11"/>
+      <c r="D282" s="10"/>
+      <c r="E282" s="10"/>
     </row>
     <row r="283">
-      <c r="D283" s="11"/>
-      <c r="E283" s="11"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
     </row>
     <row r="284">
-      <c r="D284" s="11"/>
-      <c r="E284" s="11"/>
+      <c r="D284" s="10"/>
+      <c r="E284" s="10"/>
     </row>
     <row r="285">
-      <c r="D285" s="11"/>
-      <c r="E285" s="11"/>
+      <c r="D285" s="10"/>
+      <c r="E285" s="10"/>
     </row>
     <row r="286">
-      <c r="D286" s="11"/>
-      <c r="E286" s="11"/>
+      <c r="D286" s="10"/>
+      <c r="E286" s="10"/>
     </row>
     <row r="287">
-      <c r="D287" s="11"/>
-      <c r="E287" s="11"/>
+      <c r="D287" s="10"/>
+      <c r="E287" s="10"/>
     </row>
     <row r="288">
-      <c r="D288" s="11"/>
-      <c r="E288" s="11"/>
+      <c r="D288" s="10"/>
+      <c r="E288" s="10"/>
     </row>
     <row r="289">
-      <c r="D289" s="11"/>
-      <c r="E289" s="11"/>
+      <c r="D289" s="10"/>
+      <c r="E289" s="10"/>
     </row>
     <row r="290">
-      <c r="D290" s="11"/>
-      <c r="E290" s="11"/>
+      <c r="D290" s="10"/>
+      <c r="E290" s="10"/>
     </row>
     <row r="291">
-      <c r="D291" s="11"/>
-      <c r="E291" s="11"/>
+      <c r="D291" s="10"/>
+      <c r="E291" s="10"/>
     </row>
     <row r="292">
-      <c r="D292" s="11"/>
-      <c r="E292" s="11"/>
+      <c r="D292" s="10"/>
+      <c r="E292" s="10"/>
     </row>
     <row r="293">
-      <c r="D293" s="11"/>
-      <c r="E293" s="11"/>
+      <c r="D293" s="10"/>
+      <c r="E293" s="10"/>
     </row>
     <row r="294">
-      <c r="D294" s="11"/>
-      <c r="E294" s="11"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
     </row>
     <row r="295">
-      <c r="D295" s="11"/>
-      <c r="E295" s="11"/>
+      <c r="D295" s="10"/>
+      <c r="E295" s="10"/>
     </row>
     <row r="296">
-      <c r="D296" s="11"/>
-      <c r="E296" s="11"/>
+      <c r="D296" s="10"/>
+      <c r="E296" s="10"/>
     </row>
     <row r="297">
-      <c r="D297" s="11"/>
-      <c r="E297" s="11"/>
+      <c r="D297" s="10"/>
+      <c r="E297" s="10"/>
     </row>
     <row r="298">
-      <c r="D298" s="11"/>
-      <c r="E298" s="11"/>
+      <c r="D298" s="10"/>
+      <c r="E298" s="10"/>
     </row>
     <row r="299">
-      <c r="D299" s="11"/>
-      <c r="E299" s="11"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="10"/>
     </row>
     <row r="300">
-      <c r="D300" s="11"/>
-      <c r="E300" s="11"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
     </row>
     <row r="301">
-      <c r="D301" s="11"/>
-      <c r="E301" s="11"/>
+      <c r="D301" s="10"/>
+      <c r="E301" s="10"/>
     </row>
     <row r="302">
-      <c r="D302" s="11"/>
-      <c r="E302" s="11"/>
+      <c r="D302" s="10"/>
+      <c r="E302" s="10"/>
     </row>
     <row r="303">
-      <c r="D303" s="11"/>
-      <c r="E303" s="11"/>
+      <c r="D303" s="10"/>
+      <c r="E303" s="10"/>
     </row>
     <row r="304">
-      <c r="D304" s="11"/>
-      <c r="E304" s="11"/>
+      <c r="D304" s="10"/>
+      <c r="E304" s="10"/>
     </row>
     <row r="305">
-      <c r="D305" s="11"/>
-      <c r="E305" s="11"/>
+      <c r="D305" s="10"/>
+      <c r="E305" s="10"/>
     </row>
     <row r="306">
-      <c r="D306" s="11"/>
-      <c r="E306" s="11"/>
+      <c r="D306" s="10"/>
+      <c r="E306" s="10"/>
     </row>
     <row r="307">
-      <c r="D307" s="11"/>
-      <c r="E307" s="11"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="10"/>
     </row>
     <row r="308">
-      <c r="D308" s="11"/>
-      <c r="E308" s="11"/>
+      <c r="D308" s="10"/>
+      <c r="E308" s="10"/>
     </row>
     <row r="309">
-      <c r="D309" s="11"/>
-      <c r="E309" s="11"/>
+      <c r="D309" s="10"/>
+      <c r="E309" s="10"/>
     </row>
     <row r="310">
-      <c r="D310" s="11"/>
-      <c r="E310" s="11"/>
+      <c r="D310" s="10"/>
+      <c r="E310" s="10"/>
     </row>
     <row r="311">
-      <c r="D311" s="11"/>
-      <c r="E311" s="11"/>
+      <c r="D311" s="10"/>
+      <c r="E311" s="10"/>
     </row>
     <row r="312">
-      <c r="D312" s="11"/>
-      <c r="E312" s="11"/>
+      <c r="D312" s="10"/>
+      <c r="E312" s="10"/>
     </row>
     <row r="313">
-      <c r="D313" s="11"/>
-      <c r="E313" s="11"/>
+      <c r="D313" s="10"/>
+      <c r="E313" s="10"/>
     </row>
     <row r="314">
-      <c r="D314" s="11"/>
-      <c r="E314" s="11"/>
+      <c r="D314" s="10"/>
+      <c r="E314" s="10"/>
     </row>
     <row r="315">
-      <c r="D315" s="11"/>
-      <c r="E315" s="11"/>
+      <c r="D315" s="10"/>
+      <c r="E315" s="10"/>
     </row>
     <row r="316">
-      <c r="D316" s="11"/>
-      <c r="E316" s="11"/>
+      <c r="D316" s="10"/>
+      <c r="E316" s="10"/>
     </row>
     <row r="317">
-      <c r="D317" s="11"/>
-      <c r="E317" s="11"/>
+      <c r="D317" s="10"/>
+      <c r="E317" s="10"/>
     </row>
     <row r="318">
-      <c r="D318" s="11"/>
-      <c r="E318" s="11"/>
+      <c r="D318" s="10"/>
+      <c r="E318" s="10"/>
     </row>
     <row r="319">
-      <c r="D319" s="11"/>
-      <c r="E319" s="11"/>
+      <c r="D319" s="10"/>
+      <c r="E319" s="10"/>
     </row>
     <row r="320">
-      <c r="D320" s="11"/>
-      <c r="E320" s="11"/>
+      <c r="D320" s="10"/>
+      <c r="E320" s="10"/>
     </row>
     <row r="321">
-      <c r="D321" s="11"/>
-      <c r="E321" s="11"/>
+      <c r="D321" s="10"/>
+      <c r="E321" s="10"/>
     </row>
     <row r="322">
-      <c r="D322" s="11"/>
-      <c r="E322" s="11"/>
+      <c r="D322" s="10"/>
+      <c r="E322" s="10"/>
     </row>
     <row r="323">
-      <c r="D323" s="11"/>
-      <c r="E323" s="11"/>
+      <c r="D323" s="10"/>
+      <c r="E323" s="10"/>
     </row>
     <row r="324">
-      <c r="D324" s="11"/>
-      <c r="E324" s="11"/>
+      <c r="D324" s="10"/>
+      <c r="E324" s="10"/>
     </row>
     <row r="325">
-      <c r="D325" s="11"/>
-      <c r="E325" s="11"/>
+      <c r="D325" s="10"/>
+      <c r="E325" s="10"/>
     </row>
     <row r="326">
-      <c r="D326" s="11"/>
-      <c r="E326" s="11"/>
+      <c r="D326" s="10"/>
+      <c r="E326" s="10"/>
     </row>
     <row r="327">
-      <c r="D327" s="11"/>
-      <c r="E327" s="11"/>
+      <c r="D327" s="10"/>
+      <c r="E327" s="10"/>
     </row>
     <row r="328">
-      <c r="D328" s="11"/>
-      <c r="E328" s="11"/>
+      <c r="D328" s="10"/>
+      <c r="E328" s="10"/>
     </row>
     <row r="329">
-      <c r="D329" s="11"/>
-      <c r="E329" s="11"/>
+      <c r="D329" s="10"/>
+      <c r="E329" s="10"/>
     </row>
     <row r="330">
-      <c r="D330" s="11"/>
-      <c r="E330" s="11"/>
+      <c r="D330" s="10"/>
+      <c r="E330" s="10"/>
     </row>
     <row r="331">
-      <c r="D331" s="11"/>
-      <c r="E331" s="11"/>
+      <c r="D331" s="10"/>
+      <c r="E331" s="10"/>
     </row>
     <row r="332">
-      <c r="D332" s="11"/>
-      <c r="E332" s="11"/>
+      <c r="D332" s="10"/>
+      <c r="E332" s="10"/>
     </row>
     <row r="333">
-      <c r="D333" s="11"/>
-      <c r="E333" s="11"/>
+      <c r="D333" s="10"/>
+      <c r="E333" s="10"/>
     </row>
     <row r="334">
-      <c r="D334" s="11"/>
-      <c r="E334" s="11"/>
+      <c r="D334" s="10"/>
+      <c r="E334" s="10"/>
     </row>
     <row r="335">
-      <c r="D335" s="11"/>
-      <c r="E335" s="11"/>
+      <c r="D335" s="10"/>
+      <c r="E335" s="10"/>
     </row>
     <row r="336">
-      <c r="D336" s="11"/>
-      <c r="E336" s="11"/>
+      <c r="D336" s="10"/>
+      <c r="E336" s="10"/>
     </row>
     <row r="337">
-      <c r="D337" s="11"/>
-      <c r="E337" s="11"/>
+      <c r="D337" s="10"/>
+      <c r="E337" s="10"/>
     </row>
     <row r="338">
-      <c r="D338" s="11"/>
-      <c r="E338" s="11"/>
+      <c r="D338" s="10"/>
+      <c r="E338" s="10"/>
     </row>
     <row r="339">
-      <c r="D339" s="11"/>
-      <c r="E339" s="11"/>
+      <c r="D339" s="10"/>
+      <c r="E339" s="10"/>
     </row>
     <row r="340">
-      <c r="D340" s="11"/>
-      <c r="E340" s="11"/>
+      <c r="D340" s="10"/>
+      <c r="E340" s="10"/>
     </row>
     <row r="341">
-      <c r="D341" s="11"/>
-      <c r="E341" s="11"/>
+      <c r="D341" s="10"/>
+      <c r="E341" s="10"/>
     </row>
     <row r="342">
-      <c r="D342" s="11"/>
-      <c r="E342" s="11"/>
+      <c r="D342" s="10"/>
+      <c r="E342" s="10"/>
     </row>
     <row r="343">
-      <c r="D343" s="11"/>
-      <c r="E343" s="11"/>
+      <c r="D343" s="10"/>
+      <c r="E343" s="10"/>
     </row>
     <row r="344">
-      <c r="D344" s="11"/>
-      <c r="E344" s="11"/>
+      <c r="D344" s="10"/>
+      <c r="E344" s="10"/>
     </row>
     <row r="345">
-      <c r="D345" s="11"/>
-      <c r="E345" s="11"/>
+      <c r="D345" s="10"/>
+      <c r="E345" s="10"/>
     </row>
     <row r="346">
-      <c r="D346" s="11"/>
-      <c r="E346" s="11"/>
+      <c r="D346" s="10"/>
+      <c r="E346" s="10"/>
     </row>
     <row r="347">
-      <c r="D347" s="11"/>
-      <c r="E347" s="11"/>
+      <c r="D347" s="10"/>
+      <c r="E347" s="10"/>
     </row>
     <row r="348">
-      <c r="D348" s="11"/>
-      <c r="E348" s="11"/>
+      <c r="D348" s="10"/>
+      <c r="E348" s="10"/>
     </row>
     <row r="349">
-      <c r="D349" s="11"/>
-      <c r="E349" s="11"/>
+      <c r="D349" s="10"/>
+      <c r="E349" s="10"/>
     </row>
     <row r="350">
-      <c r="D350" s="11"/>
-      <c r="E350" s="11"/>
+      <c r="D350" s="10"/>
+      <c r="E350" s="10"/>
     </row>
     <row r="351">
-      <c r="D351" s="11"/>
-      <c r="E351" s="11"/>
+      <c r="D351" s="10"/>
+      <c r="E351" s="10"/>
     </row>
     <row r="352">
-      <c r="D352" s="11"/>
-      <c r="E352" s="11"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="10"/>
     </row>
     <row r="353">
-      <c r="D353" s="11"/>
-      <c r="E353" s="11"/>
+      <c r="D353" s="10"/>
+      <c r="E353" s="10"/>
     </row>
     <row r="354">
-      <c r="D354" s="11"/>
-      <c r="E354" s="11"/>
+      <c r="D354" s="10"/>
+      <c r="E354" s="10"/>
     </row>
     <row r="355">
-      <c r="D355" s="11"/>
-      <c r="E355" s="11"/>
+      <c r="D355" s="10"/>
+      <c r="E355" s="10"/>
     </row>
     <row r="356">
-      <c r="D356" s="11"/>
-      <c r="E356" s="11"/>
+      <c r="D356" s="10"/>
+      <c r="E356" s="10"/>
     </row>
     <row r="357">
-      <c r="D357" s="11"/>
-      <c r="E357" s="11"/>
+      <c r="D357" s="10"/>
+      <c r="E357" s="10"/>
     </row>
     <row r="358">
-      <c r="D358" s="11"/>
-      <c r="E358" s="11"/>
+      <c r="D358" s="10"/>
+      <c r="E358" s="10"/>
     </row>
     <row r="359">
-      <c r="D359" s="11"/>
-      <c r="E359" s="11"/>
+      <c r="D359" s="10"/>
+      <c r="E359" s="10"/>
     </row>
     <row r="360">
-      <c r="D360" s="11"/>
-      <c r="E360" s="11"/>
+      <c r="D360" s="10"/>
+      <c r="E360" s="10"/>
     </row>
     <row r="361">
-      <c r="D361" s="11"/>
-      <c r="E361" s="11"/>
+      <c r="D361" s="10"/>
+      <c r="E361" s="10"/>
     </row>
     <row r="362">
-      <c r="D362" s="11"/>
-      <c r="E362" s="11"/>
+      <c r="D362" s="10"/>
+      <c r="E362" s="10"/>
     </row>
     <row r="363">
-      <c r="D363" s="11"/>
-      <c r="E363" s="11"/>
+      <c r="D363" s="10"/>
+      <c r="E363" s="10"/>
     </row>
     <row r="364">
-      <c r="D364" s="11"/>
-      <c r="E364" s="11"/>
+      <c r="D364" s="10"/>
+      <c r="E364" s="10"/>
     </row>
     <row r="365">
-      <c r="D365" s="11"/>
-      <c r="E365" s="11"/>
+      <c r="D365" s="10"/>
+      <c r="E365" s="10"/>
     </row>
     <row r="366">
-      <c r="D366" s="11"/>
-      <c r="E366" s="11"/>
+      <c r="D366" s="10"/>
+      <c r="E366" s="10"/>
     </row>
     <row r="367">
-      <c r="D367" s="11"/>
-      <c r="E367" s="11"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="10"/>
     </row>
     <row r="368">
-      <c r="D368" s="11"/>
-      <c r="E368" s="11"/>
+      <c r="D368" s="10"/>
+      <c r="E368" s="10"/>
     </row>
     <row r="369">
-      <c r="D369" s="11"/>
-      <c r="E369" s="11"/>
+      <c r="D369" s="10"/>
+      <c r="E369" s="10"/>
     </row>
     <row r="370">
-      <c r="D370" s="11"/>
-      <c r="E370" s="11"/>
+      <c r="D370" s="10"/>
+      <c r="E370" s="10"/>
     </row>
     <row r="371">
-      <c r="D371" s="11"/>
-      <c r="E371" s="11"/>
+      <c r="D371" s="10"/>
+      <c r="E371" s="10"/>
     </row>
     <row r="372">
-      <c r="D372" s="11"/>
-      <c r="E372" s="11"/>
+      <c r="D372" s="10"/>
+      <c r="E372" s="10"/>
     </row>
     <row r="373">
-      <c r="D373" s="11"/>
-      <c r="E373" s="11"/>
+      <c r="D373" s="10"/>
+      <c r="E373" s="10"/>
     </row>
     <row r="374">
-      <c r="D374" s="11"/>
-      <c r="E374" s="11"/>
+      <c r="D374" s="10"/>
+      <c r="E374" s="10"/>
     </row>
     <row r="375">
-      <c r="D375" s="11"/>
-      <c r="E375" s="11"/>
+      <c r="D375" s="10"/>
+      <c r="E375" s="10"/>
     </row>
     <row r="376">
-      <c r="D376" s="11"/>
-      <c r="E376" s="11"/>
+      <c r="D376" s="10"/>
+      <c r="E376" s="10"/>
     </row>
     <row r="377">
-      <c r="D377" s="11"/>
-      <c r="E377" s="11"/>
+      <c r="D377" s="10"/>
+      <c r="E377" s="10"/>
     </row>
     <row r="378">
-      <c r="D378" s="11"/>
-      <c r="E378" s="11"/>
+      <c r="D378" s="10"/>
+      <c r="E378" s="10"/>
     </row>
     <row r="379">
-      <c r="D379" s="11"/>
-      <c r="E379" s="11"/>
+      <c r="D379" s="10"/>
+      <c r="E379" s="10"/>
     </row>
     <row r="380">
-      <c r="D380" s="11"/>
-      <c r="E380" s="11"/>
+      <c r="D380" s="10"/>
+      <c r="E380" s="10"/>
     </row>
     <row r="381">
-      <c r="D381" s="11"/>
-      <c r="E381" s="11"/>
+      <c r="D381" s="10"/>
+      <c r="E381" s="10"/>
     </row>
     <row r="382">
-      <c r="D382" s="11"/>
-      <c r="E382" s="11"/>
+      <c r="D382" s="10"/>
+      <c r="E382" s="10"/>
     </row>
     <row r="383">
-      <c r="D383" s="11"/>
-      <c r="E383" s="11"/>
+      <c r="D383" s="10"/>
+      <c r="E383" s="10"/>
     </row>
     <row r="384">
-      <c r="D384" s="11"/>
-      <c r="E384" s="11"/>
+      <c r="D384" s="10"/>
+      <c r="E384" s="10"/>
     </row>
     <row r="385">
-      <c r="D385" s="11"/>
-      <c r="E385" s="11"/>
+      <c r="D385" s="10"/>
+      <c r="E385" s="10"/>
     </row>
     <row r="386">
-      <c r="D386" s="11"/>
-      <c r="E386" s="11"/>
+      <c r="D386" s="10"/>
+      <c r="E386" s="10"/>
     </row>
     <row r="387">
-      <c r="D387" s="11"/>
-      <c r="E387" s="11"/>
+      <c r="D387" s="10"/>
+      <c r="E387" s="10"/>
     </row>
     <row r="388">
-      <c r="D388" s="11"/>
-      <c r="E388" s="11"/>
+      <c r="D388" s="10"/>
+      <c r="E388" s="10"/>
     </row>
     <row r="389">
-      <c r="D389" s="11"/>
-      <c r="E389" s="11"/>
+      <c r="D389" s="10"/>
+      <c r="E389" s="10"/>
     </row>
     <row r="390">
-      <c r="D390" s="11"/>
-      <c r="E390" s="11"/>
+      <c r="D390" s="10"/>
+      <c r="E390" s="10"/>
     </row>
     <row r="391">
-      <c r="D391" s="11"/>
-      <c r="E391" s="11"/>
+      <c r="D391" s="10"/>
+      <c r="E391" s="10"/>
     </row>
     <row r="392">
-      <c r="D392" s="11"/>
-      <c r="E392" s="11"/>
+      <c r="D392" s="10"/>
+      <c r="E392" s="10"/>
     </row>
     <row r="393">
-      <c r="D393" s="11"/>
-      <c r="E393" s="11"/>
+      <c r="D393" s="10"/>
+      <c r="E393" s="10"/>
     </row>
     <row r="394">
-      <c r="D394" s="11"/>
-      <c r="E394" s="11"/>
+      <c r="D394" s="10"/>
+      <c r="E394" s="10"/>
     </row>
     <row r="395">
-      <c r="D395" s="11"/>
-      <c r="E395" s="11"/>
+      <c r="D395" s="10"/>
+      <c r="E395" s="10"/>
     </row>
     <row r="396">
-      <c r="D396" s="11"/>
-      <c r="E396" s="11"/>
+      <c r="D396" s="10"/>
+      <c r="E396" s="10"/>
     </row>
     <row r="397">
-      <c r="D397" s="11"/>
-      <c r="E397" s="11"/>
+      <c r="D397" s="10"/>
+      <c r="E397" s="10"/>
     </row>
     <row r="398">
-      <c r="D398" s="11"/>
-      <c r="E398" s="11"/>
+      <c r="D398" s="10"/>
+      <c r="E398" s="10"/>
     </row>
     <row r="399">
-      <c r="D399" s="11"/>
-      <c r="E399" s="11"/>
+      <c r="D399" s="10"/>
+      <c r="E399" s="10"/>
     </row>
     <row r="400">
-      <c r="D400" s="11"/>
-      <c r="E400" s="11"/>
+      <c r="D400" s="10"/>
+      <c r="E400" s="10"/>
     </row>
     <row r="401">
-      <c r="D401" s="11"/>
-      <c r="E401" s="11"/>
+      <c r="D401" s="10"/>
+      <c r="E401" s="10"/>
     </row>
     <row r="402">
-      <c r="D402" s="11"/>
-      <c r="E402" s="11"/>
+      <c r="D402" s="10"/>
+      <c r="E402" s="10"/>
     </row>
     <row r="403">
-      <c r="D403" s="11"/>
-      <c r="E403" s="11"/>
+      <c r="D403" s="10"/>
+      <c r="E403" s="10"/>
     </row>
     <row r="404">
-      <c r="D404" s="11"/>
-      <c r="E404" s="11"/>
+      <c r="D404" s="10"/>
+      <c r="E404" s="10"/>
     </row>
     <row r="405">
-      <c r="D405" s="11"/>
-      <c r="E405" s="11"/>
+      <c r="D405" s="10"/>
+      <c r="E405" s="10"/>
     </row>
     <row r="406">
-      <c r="D406" s="11"/>
-      <c r="E406" s="11"/>
+      <c r="D406" s="10"/>
+      <c r="E406" s="10"/>
     </row>
     <row r="407">
-      <c r="D407" s="11"/>
-      <c r="E407" s="11"/>
+      <c r="D407" s="10"/>
+      <c r="E407" s="10"/>
     </row>
     <row r="408">
-      <c r="D408" s="11"/>
-      <c r="E408" s="11"/>
+      <c r="D408" s="10"/>
+      <c r="E408" s="10"/>
     </row>
     <row r="409">
-      <c r="D409" s="11"/>
-      <c r="E409" s="11"/>
+      <c r="D409" s="10"/>
+      <c r="E409" s="10"/>
     </row>
     <row r="410">
-      <c r="D410" s="11"/>
-      <c r="E410" s="11"/>
+      <c r="D410" s="10"/>
+      <c r="E410" s="10"/>
     </row>
     <row r="411">
-      <c r="D411" s="11"/>
-      <c r="E411" s="11"/>
+      <c r="D411" s="10"/>
+      <c r="E411" s="10"/>
     </row>
     <row r="412">
-      <c r="D412" s="11"/>
-      <c r="E412" s="11"/>
+      <c r="D412" s="10"/>
+      <c r="E412" s="10"/>
     </row>
     <row r="413">
-      <c r="D413" s="11"/>
-      <c r="E413" s="11"/>
+      <c r="D413" s="10"/>
+      <c r="E413" s="10"/>
     </row>
     <row r="414">
-      <c r="D414" s="11"/>
-      <c r="E414" s="11"/>
+      <c r="D414" s="10"/>
+      <c r="E414" s="10"/>
     </row>
     <row r="415">
-      <c r="D415" s="11"/>
-      <c r="E415" s="11"/>
+      <c r="D415" s="10"/>
+      <c r="E415" s="10"/>
     </row>
     <row r="416">
-      <c r="D416" s="11"/>
-      <c r="E416" s="11"/>
+      <c r="D416" s="10"/>
+      <c r="E416" s="10"/>
     </row>
     <row r="417">
-      <c r="D417" s="11"/>
-      <c r="E417" s="11"/>
+      <c r="D417" s="10"/>
+      <c r="E417" s="10"/>
     </row>
     <row r="418">
-      <c r="D418" s="11"/>
-      <c r="E418" s="11"/>
+      <c r="D418" s="10"/>
+      <c r="E418" s="10"/>
     </row>
     <row r="419">
-      <c r="D419" s="11"/>
-      <c r="E419" s="11"/>
+      <c r="D419" s="10"/>
+      <c r="E419" s="10"/>
     </row>
     <row r="420">
-      <c r="D420" s="11"/>
-      <c r="E420" s="11"/>
+      <c r="D420" s="10"/>
+      <c r="E420" s="10"/>
     </row>
     <row r="421">
-      <c r="D421" s="11"/>
-      <c r="E421" s="11"/>
+      <c r="D421" s="10"/>
+      <c r="E421" s="10"/>
     </row>
     <row r="422">
-      <c r="D422" s="11"/>
-      <c r="E422" s="11"/>
+      <c r="D422" s="10"/>
+      <c r="E422" s="10"/>
     </row>
     <row r="423">
-      <c r="D423" s="11"/>
-      <c r="E423" s="11"/>
+      <c r="D423" s="10"/>
+      <c r="E423" s="10"/>
     </row>
     <row r="424">
-      <c r="D424" s="11"/>
-      <c r="E424" s="11"/>
+      <c r="D424" s="10"/>
+      <c r="E424" s="10"/>
     </row>
     <row r="425">
-      <c r="D425" s="11"/>
-      <c r="E425" s="11"/>
+      <c r="D425" s="10"/>
+      <c r="E425" s="10"/>
     </row>
     <row r="426">
-      <c r="D426" s="11"/>
-      <c r="E426" s="11"/>
+      <c r="D426" s="10"/>
+      <c r="E426" s="10"/>
     </row>
     <row r="427">
-      <c r="D427" s="11"/>
-      <c r="E427" s="11"/>
+      <c r="D427" s="10"/>
+      <c r="E427" s="10"/>
     </row>
     <row r="428">
-      <c r="D428" s="11"/>
-      <c r="E428" s="11"/>
+      <c r="D428" s="10"/>
+      <c r="E428" s="10"/>
     </row>
     <row r="429">
-      <c r="D429" s="11"/>
-      <c r="E429" s="11"/>
+      <c r="D429" s="10"/>
+      <c r="E429" s="10"/>
     </row>
     <row r="430">
-      <c r="D430" s="11"/>
-      <c r="E430" s="11"/>
+      <c r="D430" s="10"/>
+      <c r="E430" s="10"/>
     </row>
     <row r="431">
-      <c r="D431" s="11"/>
-      <c r="E431" s="11"/>
+      <c r="D431" s="10"/>
+      <c r="E431" s="10"/>
     </row>
     <row r="432">
-      <c r="D432" s="11"/>
-      <c r="E432" s="11"/>
+      <c r="D432" s="10"/>
+      <c r="E432" s="10"/>
     </row>
     <row r="433">
-      <c r="D433" s="11"/>
-      <c r="E433" s="11"/>
+      <c r="D433" s="10"/>
+      <c r="E433" s="10"/>
     </row>
     <row r="434">
-      <c r="D434" s="11"/>
-      <c r="E434" s="11"/>
+      <c r="D434" s="10"/>
+      <c r="E434" s="10"/>
     </row>
     <row r="435">
-      <c r="D435" s="11"/>
-      <c r="E435" s="11"/>
+      <c r="D435" s="10"/>
+      <c r="E435" s="10"/>
     </row>
     <row r="436">
-      <c r="D436" s="11"/>
-      <c r="E436" s="11"/>
+      <c r="D436" s="10"/>
+      <c r="E436" s="10"/>
     </row>
     <row r="437">
-      <c r="D437" s="11"/>
-      <c r="E437" s="11"/>
+      <c r="D437" s="10"/>
+      <c r="E437" s="10"/>
     </row>
     <row r="438">
-      <c r="D438" s="11"/>
-      <c r="E438" s="11"/>
+      <c r="D438" s="10"/>
+      <c r="E438" s="10"/>
     </row>
     <row r="439">
-      <c r="D439" s="11"/>
-      <c r="E439" s="11"/>
+      <c r="D439" s="10"/>
+      <c r="E439" s="10"/>
     </row>
     <row r="440">
-      <c r="D440" s="11"/>
-      <c r="E440" s="11"/>
+      <c r="D440" s="10"/>
+      <c r="E440" s="10"/>
     </row>
     <row r="441">
-      <c r="D441" s="11"/>
-      <c r="E441" s="11"/>
+      <c r="D441" s="10"/>
+      <c r="E441" s="10"/>
     </row>
     <row r="442">
-      <c r="D442" s="11"/>
-      <c r="E442" s="11"/>
+      <c r="D442" s="10"/>
+      <c r="E442" s="10"/>
     </row>
     <row r="443">
-      <c r="D443" s="11"/>
-      <c r="E443" s="11"/>
+      <c r="D443" s="10"/>
+      <c r="E443" s="10"/>
     </row>
     <row r="444">
-      <c r="D444" s="11"/>
-      <c r="E444" s="11"/>
+      <c r="D444" s="10"/>
+      <c r="E444" s="10"/>
     </row>
     <row r="445">
-      <c r="D445" s="11"/>
-      <c r="E445" s="11"/>
+      <c r="D445" s="10"/>
+      <c r="E445" s="10"/>
     </row>
     <row r="446">
-      <c r="D446" s="11"/>
-      <c r="E446" s="11"/>
+      <c r="D446" s="10"/>
+      <c r="E446" s="10"/>
     </row>
     <row r="447">
-      <c r="D447" s="11"/>
-      <c r="E447" s="11"/>
+      <c r="D447" s="10"/>
+      <c r="E447" s="10"/>
     </row>
     <row r="448">
-      <c r="D448" s="11"/>
-      <c r="E448" s="11"/>
+      <c r="D448" s="10"/>
+      <c r="E448" s="10"/>
     </row>
     <row r="449">
-      <c r="D449" s="11"/>
-      <c r="E449" s="11"/>
+      <c r="D449" s="10"/>
+      <c r="E449" s="10"/>
     </row>
     <row r="450">
-      <c r="D450" s="11"/>
-      <c r="E450" s="11"/>
+      <c r="D450" s="10"/>
+      <c r="E450" s="10"/>
     </row>
     <row r="451">
-      <c r="D451" s="11"/>
-      <c r="E451" s="11"/>
+      <c r="D451" s="10"/>
+      <c r="E451" s="10"/>
     </row>
     <row r="452">
-      <c r="D452" s="11"/>
-      <c r="E452" s="11"/>
+      <c r="D452" s="10"/>
+      <c r="E452" s="10"/>
     </row>
     <row r="453">
-      <c r="D453" s="11"/>
-      <c r="E453" s="11"/>
+      <c r="D453" s="10"/>
+      <c r="E453" s="10"/>
     </row>
     <row r="454">
-      <c r="D454" s="11"/>
-      <c r="E454" s="11"/>
+      <c r="D454" s="10"/>
+      <c r="E454" s="10"/>
     </row>
     <row r="455">
-      <c r="D455" s="11"/>
-      <c r="E455" s="11"/>
+      <c r="D455" s="10"/>
+      <c r="E455" s="10"/>
     </row>
     <row r="456">
-      <c r="D456" s="11"/>
-      <c r="E456" s="11"/>
+      <c r="D456" s="10"/>
+      <c r="E456" s="10"/>
     </row>
     <row r="457">
-      <c r="D457" s="11"/>
-      <c r="E457" s="11"/>
+      <c r="D457" s="10"/>
+      <c r="E457" s="10"/>
     </row>
     <row r="458">
-      <c r="D458" s="11"/>
-      <c r="E458" s="11"/>
+      <c r="D458" s="10"/>
+      <c r="E458" s="10"/>
     </row>
     <row r="459">
-      <c r="D459" s="11"/>
-      <c r="E459" s="11"/>
+      <c r="D459" s="10"/>
+      <c r="E459" s="10"/>
     </row>
     <row r="460">
-      <c r="D460" s="11"/>
-      <c r="E460" s="11"/>
+      <c r="D460" s="10"/>
+      <c r="E460" s="10"/>
     </row>
     <row r="461">
-      <c r="D461" s="11"/>
-      <c r="E461" s="11"/>
+      <c r="D461" s="10"/>
+      <c r="E461" s="10"/>
     </row>
     <row r="462">
-      <c r="D462" s="11"/>
-      <c r="E462" s="11"/>
+      <c r="D462" s="10"/>
+      <c r="E462" s="10"/>
     </row>
     <row r="463">
-      <c r="D463" s="11"/>
-      <c r="E463" s="11"/>
+      <c r="D463" s="10"/>
+      <c r="E463" s="10"/>
     </row>
     <row r="464">
-      <c r="D464" s="11"/>
-      <c r="E464" s="11"/>
+      <c r="D464" s="10"/>
+      <c r="E464" s="10"/>
     </row>
     <row r="465">
-      <c r="D465" s="11"/>
-      <c r="E465" s="11"/>
+      <c r="D465" s="10"/>
+      <c r="E465" s="10"/>
     </row>
     <row r="466">
-      <c r="D466" s="11"/>
-      <c r="E466" s="11"/>
+      <c r="D466" s="10"/>
+      <c r="E466" s="10"/>
     </row>
     <row r="467">
-      <c r="D467" s="11"/>
-      <c r="E467" s="11"/>
+      <c r="D467" s="10"/>
+      <c r="E467" s="10"/>
     </row>
     <row r="468">
-      <c r="D468" s="11"/>
-      <c r="E468" s="11"/>
+      <c r="D468" s="10"/>
+      <c r="E468" s="10"/>
     </row>
     <row r="469">
-      <c r="D469" s="11"/>
-      <c r="E469" s="11"/>
+      <c r="D469" s="10"/>
+      <c r="E469" s="10"/>
     </row>
     <row r="470">
-      <c r="D470" s="11"/>
-      <c r="E470" s="11"/>
+      <c r="D470" s="10"/>
+      <c r="E470" s="10"/>
     </row>
     <row r="471">
-      <c r="D471" s="11"/>
-      <c r="E471" s="11"/>
+      <c r="D471" s="10"/>
+      <c r="E471" s="10"/>
     </row>
     <row r="472">
-      <c r="D472" s="11"/>
-      <c r="E472" s="11"/>
+      <c r="D472" s="10"/>
+      <c r="E472" s="10"/>
     </row>
     <row r="473">
-      <c r="D473" s="11"/>
-      <c r="E473" s="11"/>
+      <c r="D473" s="10"/>
+      <c r="E473" s="10"/>
     </row>
     <row r="474">
-      <c r="D474" s="11"/>
-      <c r="E474" s="11"/>
+      <c r="D474" s="10"/>
+      <c r="E474" s="10"/>
     </row>
     <row r="475">
-      <c r="D475" s="11"/>
-      <c r="E475" s="11"/>
+      <c r="D475" s="10"/>
+      <c r="E475" s="10"/>
     </row>
     <row r="476">
-      <c r="D476" s="11"/>
-      <c r="E476" s="11"/>
+      <c r="D476" s="10"/>
+      <c r="E476" s="10"/>
     </row>
     <row r="477">
-      <c r="D477" s="11"/>
-      <c r="E477" s="11"/>
+      <c r="D477" s="10"/>
+      <c r="E477" s="10"/>
     </row>
     <row r="478">
-      <c r="D478" s="11"/>
-      <c r="E478" s="11"/>
+      <c r="D478" s="10"/>
+      <c r="E478" s="10"/>
     </row>
     <row r="479">
-      <c r="D479" s="11"/>
-      <c r="E479" s="11"/>
+      <c r="D479" s="10"/>
+      <c r="E479" s="10"/>
     </row>
     <row r="480">
-      <c r="D480" s="11"/>
-      <c r="E480" s="11"/>
+      <c r="D480" s="10"/>
+      <c r="E480" s="10"/>
     </row>
     <row r="481">
-      <c r="D481" s="11"/>
-      <c r="E481" s="11"/>
+      <c r="D481" s="10"/>
+      <c r="E481" s="10"/>
     </row>
     <row r="482">
-      <c r="D482" s="11"/>
-      <c r="E482" s="11"/>
+      <c r="D482" s="10"/>
+      <c r="E482" s="10"/>
     </row>
     <row r="483">
-      <c r="D483" s="11"/>
-      <c r="E483" s="11"/>
+      <c r="D483" s="10"/>
+      <c r="E483" s="10"/>
     </row>
     <row r="484">
-      <c r="D484" s="11"/>
-      <c r="E484" s="11"/>
+      <c r="D484" s="10"/>
+      <c r="E484" s="10"/>
     </row>
     <row r="485">
-      <c r="D485" s="11"/>
-      <c r="E485" s="11"/>
+      <c r="D485" s="10"/>
+      <c r="E485" s="10"/>
     </row>
     <row r="486">
-      <c r="D486" s="11"/>
-      <c r="E486" s="11"/>
+      <c r="D486" s="10"/>
+      <c r="E486" s="10"/>
     </row>
     <row r="487">
-      <c r="D487" s="11"/>
-      <c r="E487" s="11"/>
+      <c r="D487" s="10"/>
+      <c r="E487" s="10"/>
     </row>
     <row r="488">
-      <c r="D488" s="11"/>
-      <c r="E488" s="11"/>
+      <c r="D488" s="10"/>
+      <c r="E488" s="10"/>
     </row>
     <row r="489">
-      <c r="D489" s="11"/>
-      <c r="E489" s="11"/>
+      <c r="D489" s="10"/>
+      <c r="E489" s="10"/>
     </row>
     <row r="490">
-      <c r="D490" s="11"/>
-      <c r="E490" s="11"/>
+      <c r="D490" s="10"/>
+      <c r="E490" s="10"/>
     </row>
     <row r="491">
-      <c r="D491" s="11"/>
-      <c r="E491" s="11"/>
+      <c r="D491" s="10"/>
+      <c r="E491" s="10"/>
     </row>
     <row r="492">
-      <c r="D492" s="11"/>
-      <c r="E492" s="11"/>
+      <c r="D492" s="10"/>
+      <c r="E492" s="10"/>
     </row>
     <row r="493">
-      <c r="D493" s="11"/>
-      <c r="E493" s="11"/>
+      <c r="D493" s="10"/>
+      <c r="E493" s="10"/>
     </row>
     <row r="494">
-      <c r="D494" s="11"/>
-      <c r="E494" s="11"/>
+      <c r="D494" s="10"/>
+      <c r="E494" s="10"/>
     </row>
     <row r="495">
-      <c r="D495" s="11"/>
-      <c r="E495" s="11"/>
+      <c r="D495" s="10"/>
+      <c r="E495" s="10"/>
     </row>
     <row r="496">
-      <c r="D496" s="11"/>
-      <c r="E496" s="11"/>
+      <c r="D496" s="10"/>
+      <c r="E496" s="10"/>
     </row>
     <row r="497">
-      <c r="D497" s="11"/>
-      <c r="E497" s="11"/>
+      <c r="D497" s="10"/>
+      <c r="E497" s="10"/>
     </row>
     <row r="498">
-      <c r="D498" s="11"/>
-      <c r="E498" s="11"/>
+      <c r="D498" s="10"/>
+      <c r="E498" s="10"/>
     </row>
     <row r="499">
-      <c r="D499" s="11"/>
-      <c r="E499" s="11"/>
+      <c r="D499" s="10"/>
+      <c r="E499" s="10"/>
     </row>
     <row r="500">
-      <c r="D500" s="11"/>
-      <c r="E500" s="11"/>
+      <c r="D500" s="10"/>
+      <c r="E500" s="10"/>
     </row>
     <row r="501">
-      <c r="D501" s="11"/>
-      <c r="E501" s="11"/>
+      <c r="D501" s="10"/>
+      <c r="E501" s="10"/>
     </row>
     <row r="502">
-      <c r="D502" s="11"/>
-      <c r="E502" s="11"/>
+      <c r="D502" s="10"/>
+      <c r="E502" s="10"/>
     </row>
     <row r="503">
-      <c r="D503" s="11"/>
-      <c r="E503" s="11"/>
+      <c r="D503" s="10"/>
+      <c r="E503" s="10"/>
     </row>
     <row r="504">
-      <c r="D504" s="11"/>
-      <c r="E504" s="11"/>
+      <c r="D504" s="10"/>
+      <c r="E504" s="10"/>
     </row>
     <row r="505">
-      <c r="D505" s="11"/>
-      <c r="E505" s="11"/>
+      <c r="D505" s="10"/>
+      <c r="E505" s="10"/>
     </row>
     <row r="506">
-      <c r="D506" s="11"/>
-      <c r="E506" s="11"/>
+      <c r="D506" s="10"/>
+      <c r="E506" s="10"/>
     </row>
     <row r="507">
-      <c r="D507" s="11"/>
-      <c r="E507" s="11"/>
+      <c r="D507" s="10"/>
+      <c r="E507" s="10"/>
     </row>
     <row r="508">
-      <c r="D508" s="11"/>
-      <c r="E508" s="11"/>
+      <c r="D508" s="10"/>
+      <c r="E508" s="10"/>
     </row>
     <row r="509">
-      <c r="D509" s="11"/>
-      <c r="E509" s="11"/>
+      <c r="D509" s="10"/>
+      <c r="E509" s="10"/>
     </row>
     <row r="510">
-      <c r="D510" s="11"/>
-      <c r="E510" s="11"/>
+      <c r="D510" s="10"/>
+      <c r="E510" s="10"/>
     </row>
     <row r="511">
-      <c r="D511" s="11"/>
-      <c r="E511" s="11"/>
+      <c r="D511" s="10"/>
+      <c r="E511" s="10"/>
     </row>
     <row r="512">
-      <c r="D512" s="11"/>
-      <c r="E512" s="11"/>
+      <c r="D512" s="10"/>
+      <c r="E512" s="10"/>
     </row>
     <row r="513">
-      <c r="D513" s="11"/>
-      <c r="E513" s="11"/>
+      <c r="D513" s="10"/>
+      <c r="E513" s="10"/>
     </row>
     <row r="514">
-      <c r="D514" s="11"/>
-      <c r="E514" s="11"/>
+      <c r="D514" s="10"/>
+      <c r="E514" s="10"/>
     </row>
     <row r="515">
-      <c r="D515" s="11"/>
-      <c r="E515" s="11"/>
+      <c r="D515" s="10"/>
+      <c r="E515" s="10"/>
     </row>
     <row r="516">
-      <c r="D516" s="11"/>
-      <c r="E516" s="11"/>
+      <c r="D516" s="10"/>
+      <c r="E516" s="10"/>
     </row>
     <row r="517">
-      <c r="D517" s="11"/>
-      <c r="E517" s="11"/>
+      <c r="D517" s="10"/>
+      <c r="E517" s="10"/>
     </row>
     <row r="518">
-      <c r="D518" s="11"/>
-      <c r="E518" s="11"/>
+      <c r="D518" s="10"/>
+      <c r="E518" s="10"/>
     </row>
     <row r="519">
-      <c r="D519" s="11"/>
-      <c r="E519" s="11"/>
+      <c r="D519" s="10"/>
+      <c r="E519" s="10"/>
     </row>
     <row r="520">
-      <c r="D520" s="11"/>
-      <c r="E520" s="11"/>
+      <c r="D520" s="10"/>
+      <c r="E520" s="10"/>
     </row>
     <row r="521">
-      <c r="D521" s="11"/>
-      <c r="E521" s="11"/>
+      <c r="D521" s="10"/>
+      <c r="E521" s="10"/>
     </row>
     <row r="522">
-      <c r="D522" s="11"/>
-      <c r="E522" s="11"/>
+      <c r="D522" s="10"/>
+      <c r="E522" s="10"/>
     </row>
     <row r="523">
-      <c r="D523" s="11"/>
-      <c r="E523" s="11"/>
+      <c r="D523" s="10"/>
+      <c r="E523" s="10"/>
     </row>
     <row r="524">
-      <c r="D524" s="11"/>
-      <c r="E524" s="11"/>
+      <c r="D524" s="10"/>
+      <c r="E524" s="10"/>
     </row>
     <row r="525">
-      <c r="D525" s="11"/>
-      <c r="E525" s="11"/>
+      <c r="D525" s="10"/>
+      <c r="E525" s="10"/>
     </row>
     <row r="526">
-      <c r="D526" s="11"/>
-      <c r="E526" s="11"/>
+      <c r="D526" s="10"/>
+      <c r="E526" s="10"/>
     </row>
     <row r="527">
-      <c r="D527" s="11"/>
-      <c r="E527" s="11"/>
+      <c r="D527" s="10"/>
+      <c r="E527" s="10"/>
     </row>
     <row r="528">
-      <c r="D528" s="11"/>
-      <c r="E528" s="11"/>
+      <c r="D528" s="10"/>
+      <c r="E528" s="10"/>
     </row>
     <row r="529">
-      <c r="D529" s="11"/>
-      <c r="E529" s="11"/>
+      <c r="D529" s="10"/>
+      <c r="E529" s="10"/>
     </row>
     <row r="530">
-      <c r="D530" s="11"/>
-      <c r="E530" s="11"/>
+      <c r="D530" s="10"/>
+      <c r="E530" s="10"/>
     </row>
     <row r="531">
-      <c r="D531" s="11"/>
-      <c r="E531" s="11"/>
+      <c r="D531" s="10"/>
+      <c r="E531" s="10"/>
     </row>
     <row r="532">
-      <c r="D532" s="11"/>
-      <c r="E532" s="11"/>
+      <c r="D532" s="10"/>
+      <c r="E532" s="10"/>
     </row>
     <row r="533">
-      <c r="D533" s="11"/>
-      <c r="E533" s="11"/>
+      <c r="D533" s="10"/>
+      <c r="E533" s="10"/>
     </row>
     <row r="534">
-      <c r="D534" s="11"/>
-      <c r="E534" s="11"/>
+      <c r="D534" s="10"/>
+      <c r="E534" s="10"/>
     </row>
     <row r="535">
-      <c r="D535" s="11"/>
-      <c r="E535" s="11"/>
+      <c r="D535" s="10"/>
+      <c r="E535" s="10"/>
     </row>
     <row r="536">
-      <c r="D536" s="11"/>
-      <c r="E536" s="11"/>
+      <c r="D536" s="10"/>
+      <c r="E536" s="10"/>
     </row>
     <row r="537">
-      <c r="D537" s="11"/>
-      <c r="E537" s="11"/>
+      <c r="D537" s="10"/>
+      <c r="E537" s="10"/>
     </row>
     <row r="538">
-      <c r="D538" s="11"/>
-      <c r="E538" s="11"/>
+      <c r="D538" s="10"/>
+      <c r="E538" s="10"/>
     </row>
     <row r="539">
-      <c r="D539" s="11"/>
-      <c r="E539" s="11"/>
+      <c r="D539" s="10"/>
+      <c r="E539" s="10"/>
     </row>
     <row r="540">
-      <c r="D540" s="11"/>
-      <c r="E540" s="11"/>
+      <c r="D540" s="10"/>
+      <c r="E540" s="10"/>
     </row>
     <row r="541">
-      <c r="D541" s="11"/>
-      <c r="E541" s="11"/>
+      <c r="D541" s="10"/>
+      <c r="E541" s="10"/>
     </row>
     <row r="542">
-      <c r="D542" s="11"/>
-      <c r="E542" s="11"/>
+      <c r="D542" s="10"/>
+      <c r="E542" s="10"/>
     </row>
     <row r="543">
-      <c r="D543" s="11"/>
-      <c r="E543" s="11"/>
+      <c r="D543" s="10"/>
+      <c r="E543" s="10"/>
     </row>
     <row r="544">
-      <c r="D544" s="11"/>
-      <c r="E544" s="11"/>
+      <c r="D544" s="10"/>
+      <c r="E544" s="10"/>
     </row>
     <row r="545">
-      <c r="D545" s="11"/>
-      <c r="E545" s="11"/>
+      <c r="D545" s="10"/>
+      <c r="E545" s="10"/>
     </row>
     <row r="546">
-      <c r="D546" s="11"/>
-      <c r="E546" s="11"/>
+      <c r="D546" s="10"/>
+      <c r="E546" s="10"/>
     </row>
     <row r="547">
-      <c r="D547" s="11"/>
-      <c r="E547" s="11"/>
+      <c r="D547" s="10"/>
+      <c r="E547" s="10"/>
     </row>
     <row r="548">
-      <c r="D548" s="11"/>
-      <c r="E548" s="11"/>
+      <c r="D548" s="10"/>
+      <c r="E548" s="10"/>
     </row>
     <row r="549">
-      <c r="D549" s="11"/>
-      <c r="E549" s="11"/>
+      <c r="D549" s="10"/>
+      <c r="E549" s="10"/>
     </row>
     <row r="550">
-      <c r="D550" s="11"/>
-      <c r="E550" s="11"/>
+      <c r="D550" s="10"/>
+      <c r="E550" s="10"/>
     </row>
     <row r="551">
-      <c r="D551" s="11"/>
-      <c r="E551" s="11"/>
+      <c r="D551" s="10"/>
+      <c r="E551" s="10"/>
     </row>
     <row r="552">
-      <c r="D552" s="11"/>
-      <c r="E552" s="11"/>
+      <c r="D552" s="10"/>
+      <c r="E552" s="10"/>
     </row>
     <row r="553">
-      <c r="D553" s="11"/>
-      <c r="E553" s="11"/>
+      <c r="D553" s="10"/>
+      <c r="E553" s="10"/>
     </row>
     <row r="554">
-      <c r="D554" s="11"/>
-      <c r="E554" s="11"/>
+      <c r="D554" s="10"/>
+      <c r="E554" s="10"/>
     </row>
     <row r="555">
-      <c r="D555" s="11"/>
-      <c r="E555" s="11"/>
+      <c r="D555" s="10"/>
+      <c r="E555" s="10"/>
     </row>
     <row r="556">
-      <c r="D556" s="11"/>
-      <c r="E556" s="11"/>
+      <c r="D556" s="10"/>
+      <c r="E556" s="10"/>
     </row>
     <row r="557">
-      <c r="D557" s="11"/>
-      <c r="E557" s="11"/>
+      <c r="D557" s="10"/>
+      <c r="E557" s="10"/>
     </row>
     <row r="558">
-      <c r="D558" s="11"/>
-      <c r="E558" s="11"/>
+      <c r="D558" s="10"/>
+      <c r="E558" s="10"/>
     </row>
     <row r="559">
-      <c r="D559" s="11"/>
-      <c r="E559" s="11"/>
+      <c r="D559" s="10"/>
+      <c r="E559" s="10"/>
     </row>
     <row r="560">
-      <c r="D560" s="11"/>
-      <c r="E560" s="11"/>
+      <c r="D560" s="10"/>
+      <c r="E560" s="10"/>
     </row>
     <row r="561">
-      <c r="D561" s="11"/>
-      <c r="E561" s="11"/>
+      <c r="D561" s="10"/>
+      <c r="E561" s="10"/>
     </row>
     <row r="562">
-      <c r="D562" s="11"/>
-      <c r="E562" s="11"/>
+      <c r="D562" s="10"/>
+      <c r="E562" s="10"/>
     </row>
     <row r="563">
-      <c r="D563" s="11"/>
-      <c r="E563" s="11"/>
+      <c r="D563" s="10"/>
+      <c r="E563" s="10"/>
     </row>
     <row r="564">
-      <c r="D564" s="11"/>
-      <c r="E564" s="11"/>
+      <c r="D564" s="10"/>
+      <c r="E564" s="10"/>
     </row>
     <row r="565">
-      <c r="D565" s="11"/>
-      <c r="E565" s="11"/>
+      <c r="D565" s="10"/>
+      <c r="E565" s="10"/>
     </row>
     <row r="566">
-      <c r="D566" s="11"/>
-      <c r="E566" s="11"/>
+      <c r="D566" s="10"/>
+      <c r="E566" s="10"/>
     </row>
     <row r="567">
-      <c r="D567" s="11"/>
-      <c r="E567" s="11"/>
+      <c r="D567" s="10"/>
+      <c r="E567" s="10"/>
     </row>
     <row r="568">
-      <c r="D568" s="11"/>
-      <c r="E568" s="11"/>
+      <c r="D568" s="10"/>
+      <c r="E568" s="10"/>
     </row>
     <row r="569">
-      <c r="D569" s="11"/>
-      <c r="E569" s="11"/>
+      <c r="D569" s="10"/>
+      <c r="E569" s="10"/>
     </row>
     <row r="570">
-      <c r="D570" s="11"/>
-      <c r="E570" s="11"/>
+      <c r="D570" s="10"/>
+      <c r="E570" s="10"/>
     </row>
     <row r="571">
-      <c r="D571" s="11"/>
-      <c r="E571" s="11"/>
+      <c r="D571" s="10"/>
+      <c r="E571" s="10"/>
     </row>
     <row r="572">
-      <c r="D572" s="11"/>
-      <c r="E572" s="11"/>
+      <c r="D572" s="10"/>
+      <c r="E572" s="10"/>
     </row>
     <row r="573">
-      <c r="D573" s="11"/>
-      <c r="E573" s="11"/>
+      <c r="D573" s="10"/>
+      <c r="E573" s="10"/>
     </row>
     <row r="574">
-      <c r="D574" s="11"/>
-      <c r="E574" s="11"/>
+      <c r="D574" s="10"/>
+      <c r="E574" s="10"/>
     </row>
     <row r="575">
-      <c r="D575" s="11"/>
-      <c r="E575" s="11"/>
+      <c r="D575" s="10"/>
+      <c r="E575" s="10"/>
     </row>
     <row r="576">
-      <c r="D576" s="11"/>
-      <c r="E576" s="11"/>
+      <c r="D576" s="10"/>
+      <c r="E576" s="10"/>
     </row>
     <row r="577">
-      <c r="D577" s="11"/>
-      <c r="E577" s="11"/>
+      <c r="D577" s="10"/>
+      <c r="E577" s="10"/>
     </row>
     <row r="578">
-      <c r="D578" s="11"/>
-      <c r="E578" s="11"/>
+      <c r="D578" s="10"/>
+      <c r="E578" s="10"/>
     </row>
     <row r="579">
-      <c r="D579" s="11"/>
-      <c r="E579" s="11"/>
+      <c r="D579" s="10"/>
+      <c r="E579" s="10"/>
     </row>
     <row r="580">
-      <c r="D580" s="11"/>
-      <c r="E580" s="11"/>
+      <c r="D580" s="10"/>
+      <c r="E580" s="10"/>
     </row>
     <row r="581">
-      <c r="D581" s="11"/>
-      <c r="E581" s="11"/>
+      <c r="D581" s="10"/>
+      <c r="E581" s="10"/>
     </row>
     <row r="582">
-      <c r="D582" s="11"/>
-      <c r="E582" s="11"/>
+      <c r="D582" s="10"/>
+      <c r="E582" s="10"/>
     </row>
     <row r="583">
-      <c r="D583" s="11"/>
-      <c r="E583" s="11"/>
+      <c r="D583" s="10"/>
+      <c r="E583" s="10"/>
     </row>
     <row r="584">
-      <c r="D584" s="11"/>
-      <c r="E584" s="11"/>
+      <c r="D584" s="10"/>
+      <c r="E584" s="10"/>
     </row>
     <row r="585">
-      <c r="D585" s="11"/>
-      <c r="E585" s="11"/>
+      <c r="D585" s="10"/>
+      <c r="E585" s="10"/>
     </row>
     <row r="586">
-      <c r="D586" s="11"/>
-      <c r="E586" s="11"/>
+      <c r="D586" s="10"/>
+      <c r="E586" s="10"/>
     </row>
     <row r="587">
-      <c r="D587" s="11"/>
-      <c r="E587" s="11"/>
+      <c r="D587" s="10"/>
+      <c r="E587" s="10"/>
     </row>
     <row r="588">
-      <c r="D588" s="11"/>
-      <c r="E588" s="11"/>
+      <c r="D588" s="10"/>
+      <c r="E588" s="10"/>
     </row>
     <row r="589">
-      <c r="D589" s="11"/>
-      <c r="E589" s="11"/>
+      <c r="D589" s="10"/>
+      <c r="E589" s="10"/>
     </row>
     <row r="590">
-      <c r="D590" s="11"/>
-      <c r="E590" s="11"/>
+      <c r="D590" s="10"/>
+      <c r="E590" s="10"/>
     </row>
     <row r="591">
-      <c r="D591" s="11"/>
-      <c r="E591" s="11"/>
+      <c r="D591" s="10"/>
+      <c r="E591" s="10"/>
     </row>
     <row r="592">
-      <c r="D592" s="11"/>
-      <c r="E592" s="11"/>
+      <c r="D592" s="10"/>
+      <c r="E592" s="10"/>
     </row>
     <row r="593">
-      <c r="D593" s="11"/>
-      <c r="E593" s="11"/>
+      <c r="D593" s="10"/>
+      <c r="E593" s="10"/>
     </row>
     <row r="594">
-      <c r="D594" s="11"/>
-      <c r="E594" s="11"/>
+      <c r="D594" s="10"/>
+      <c r="E594" s="10"/>
     </row>
     <row r="595">
-      <c r="D595" s="11"/>
-      <c r="E595" s="11"/>
+      <c r="D595" s="10"/>
+      <c r="E595" s="10"/>
     </row>
     <row r="596">
-      <c r="D596" s="11"/>
-      <c r="E596" s="11"/>
+      <c r="D596" s="10"/>
+      <c r="E596" s="10"/>
     </row>
     <row r="597">
-      <c r="D597" s="11"/>
-      <c r="E597" s="11"/>
+      <c r="D597" s="10"/>
+      <c r="E597" s="10"/>
     </row>
     <row r="598">
-      <c r="D598" s="11"/>
-      <c r="E598" s="11"/>
+      <c r="D598" s="10"/>
+      <c r="E598" s="10"/>
     </row>
     <row r="599">
-      <c r="D599" s="11"/>
-      <c r="E599" s="11"/>
+      <c r="D599" s="10"/>
+      <c r="E599" s="10"/>
     </row>
     <row r="600">
-      <c r="D600" s="11"/>
-      <c r="E600" s="11"/>
+      <c r="D600" s="10"/>
+      <c r="E600" s="10"/>
     </row>
     <row r="601">
-      <c r="D601" s="11"/>
-      <c r="E601" s="11"/>
+      <c r="D601" s="10"/>
+      <c r="E601" s="10"/>
     </row>
     <row r="602">
-      <c r="D602" s="11"/>
-      <c r="E602" s="11"/>
+      <c r="D602" s="10"/>
+      <c r="E602" s="10"/>
     </row>
     <row r="603">
-      <c r="D603" s="11"/>
-      <c r="E603" s="11"/>
+      <c r="D603" s="10"/>
+      <c r="E603" s="10"/>
     </row>
     <row r="604">
-      <c r="D604" s="11"/>
-      <c r="E604" s="11"/>
+      <c r="D604" s="10"/>
+      <c r="E604" s="10"/>
     </row>
     <row r="605">
-      <c r="D605" s="11"/>
-      <c r="E605" s="11"/>
+      <c r="D605" s="10"/>
+      <c r="E605" s="10"/>
     </row>
     <row r="606">
-      <c r="D606" s="11"/>
-      <c r="E606" s="11"/>
+      <c r="D606" s="10"/>
+      <c r="E606" s="10"/>
     </row>
     <row r="607">
-      <c r="D607" s="11"/>
-      <c r="E607" s="11"/>
+      <c r="D607" s="10"/>
+      <c r="E607" s="10"/>
     </row>
     <row r="608">
-      <c r="D608" s="11"/>
-      <c r="E608" s="11"/>
+      <c r="D608" s="10"/>
+      <c r="E608" s="10"/>
     </row>
     <row r="609">
-      <c r="D609" s="11"/>
-      <c r="E609" s="11"/>
+      <c r="D609" s="10"/>
+      <c r="E609" s="10"/>
     </row>
     <row r="610">
-      <c r="D610" s="11"/>
-      <c r="E610" s="11"/>
+      <c r="D610" s="10"/>
+      <c r="E610" s="10"/>
     </row>
     <row r="611">
-      <c r="D611" s="11"/>
-      <c r="E611" s="11"/>
+      <c r="D611" s="10"/>
+      <c r="E611" s="10"/>
     </row>
     <row r="612">
-      <c r="D612" s="11"/>
-      <c r="E612" s="11"/>
+      <c r="D612" s="10"/>
+      <c r="E612" s="10"/>
     </row>
     <row r="613">
-      <c r="D613" s="11"/>
-      <c r="E613" s="11"/>
+      <c r="D613" s="10"/>
+      <c r="E613" s="10"/>
     </row>
     <row r="614">
-      <c r="D614" s="11"/>
-      <c r="E614" s="11"/>
+      <c r="D614" s="10"/>
+      <c r="E614" s="10"/>
     </row>
     <row r="615">
-      <c r="D615" s="11"/>
-      <c r="E615" s="11"/>
+      <c r="D615" s="10"/>
+      <c r="E615" s="10"/>
     </row>
     <row r="616">
-      <c r="D616" s="11"/>
-      <c r="E616" s="11"/>
+      <c r="D616" s="10"/>
+      <c r="E616" s="10"/>
     </row>
     <row r="617">
-      <c r="D617" s="11"/>
-      <c r="E617" s="11"/>
+      <c r="D617" s="10"/>
+      <c r="E617" s="10"/>
     </row>
     <row r="618">
-      <c r="D618" s="11"/>
-      <c r="E618" s="11"/>
+      <c r="D618" s="10"/>
+      <c r="E618" s="10"/>
     </row>
     <row r="619">
-      <c r="D619" s="11"/>
-      <c r="E619" s="11"/>
+      <c r="D619" s="10"/>
+      <c r="E619" s="10"/>
     </row>
     <row r="620">
-      <c r="D620" s="11"/>
-      <c r="E620" s="11"/>
+      <c r="D620" s="10"/>
+      <c r="E620" s="10"/>
     </row>
     <row r="621">
-      <c r="D621" s="11"/>
-      <c r="E621" s="11"/>
+      <c r="D621" s="10"/>
+      <c r="E621" s="10"/>
     </row>
     <row r="622">
-      <c r="D622" s="11"/>
-      <c r="E622" s="11"/>
+      <c r="D622" s="10"/>
+      <c r="E622" s="10"/>
     </row>
     <row r="623">
-      <c r="D623" s="11"/>
-      <c r="E623" s="11"/>
+      <c r="D623" s="10"/>
+      <c r="E623" s="10"/>
     </row>
     <row r="624">
-      <c r="D624" s="11"/>
-      <c r="E624" s="11"/>
+      <c r="D624" s="10"/>
+      <c r="E624" s="10"/>
     </row>
     <row r="625">
-      <c r="D625" s="11"/>
-      <c r="E625" s="11"/>
+      <c r="D625" s="10"/>
+      <c r="E625" s="10"/>
     </row>
     <row r="626">
-      <c r="D626" s="11"/>
-      <c r="E626" s="11"/>
+      <c r="D626" s="10"/>
+      <c r="E626" s="10"/>
     </row>
     <row r="627">
-      <c r="D627" s="11"/>
-      <c r="E627" s="11"/>
+      <c r="D627" s="10"/>
+      <c r="E627" s="10"/>
     </row>
     <row r="628">
-      <c r="D628" s="11"/>
-      <c r="E628" s="11"/>
+      <c r="D628" s="10"/>
+      <c r="E628" s="10"/>
     </row>
     <row r="629">
-      <c r="D629" s="11"/>
-      <c r="E629" s="11"/>
+      <c r="D629" s="10"/>
+      <c r="E629" s="10"/>
     </row>
     <row r="630">
-      <c r="D630" s="11"/>
-      <c r="E630" s="11"/>
+      <c r="D630" s="10"/>
+      <c r="E630" s="10"/>
     </row>
     <row r="631">
-      <c r="D631" s="11"/>
-      <c r="E631" s="11"/>
+      <c r="D631" s="10"/>
+      <c r="E631" s="10"/>
     </row>
     <row r="632">
-      <c r="D632" s="11"/>
-      <c r="E632" s="11"/>
+      <c r="D632" s="10"/>
+      <c r="E632" s="10"/>
     </row>
     <row r="633">
-      <c r="D633" s="11"/>
-      <c r="E633" s="11"/>
+      <c r="D633" s="10"/>
+      <c r="E633" s="10"/>
     </row>
     <row r="634">
-      <c r="D634" s="11"/>
-      <c r="E634" s="11"/>
+      <c r="D634" s="10"/>
+      <c r="E634" s="10"/>
     </row>
     <row r="635">
-      <c r="D635" s="11"/>
-      <c r="E635" s="11"/>
+      <c r="D635" s="10"/>
+      <c r="E635" s="10"/>
     </row>
     <row r="636">
-      <c r="D636" s="11"/>
-      <c r="E636" s="11"/>
+      <c r="D636" s="10"/>
+      <c r="E636" s="10"/>
     </row>
     <row r="637">
-      <c r="D637" s="11"/>
-      <c r="E637" s="11"/>
+      <c r="D637" s="10"/>
+      <c r="E637" s="10"/>
     </row>
     <row r="638">
-      <c r="D638" s="11"/>
-      <c r="E638" s="11"/>
+      <c r="D638" s="10"/>
+      <c r="E638" s="10"/>
     </row>
     <row r="639">
-      <c r="D639" s="11"/>
-      <c r="E639" s="11"/>
+      <c r="D639" s="10"/>
+      <c r="E639" s="10"/>
     </row>
     <row r="640">
-      <c r="D640" s="11"/>
-      <c r="E640" s="11"/>
+      <c r="D640" s="10"/>
+      <c r="E640" s="10"/>
     </row>
     <row r="641">
-      <c r="D641" s="11"/>
-      <c r="E641" s="11"/>
+      <c r="D641" s="10"/>
+      <c r="E641" s="10"/>
     </row>
     <row r="642">
-      <c r="D642" s="11"/>
-      <c r="E642" s="11"/>
+      <c r="D642" s="10"/>
+      <c r="E642" s="10"/>
     </row>
     <row r="643">
-      <c r="D643" s="11"/>
-      <c r="E643" s="11"/>
+      <c r="D643" s="10"/>
+      <c r="E643" s="10"/>
     </row>
     <row r="644">
-      <c r="D644" s="11"/>
-      <c r="E644" s="11"/>
+      <c r="D644" s="10"/>
+      <c r="E644" s="10"/>
     </row>
     <row r="645">
-      <c r="D645" s="11"/>
-      <c r="E645" s="11"/>
+      <c r="D645" s="10"/>
+      <c r="E645" s="10"/>
     </row>
     <row r="646">
-      <c r="D646" s="11"/>
-      <c r="E646" s="11"/>
+      <c r="D646" s="10"/>
+      <c r="E646" s="10"/>
     </row>
     <row r="647">
-      <c r="D647" s="11"/>
-      <c r="E647" s="11"/>
+      <c r="D647" s="10"/>
+      <c r="E647" s="10"/>
     </row>
     <row r="648">
-      <c r="D648" s="11"/>
-      <c r="E648" s="11"/>
+      <c r="D648" s="10"/>
+      <c r="E648" s="10"/>
     </row>
     <row r="649">
-      <c r="D649" s="11"/>
-      <c r="E649" s="11"/>
+      <c r="D649" s="10"/>
+      <c r="E649" s="10"/>
     </row>
     <row r="650">
-      <c r="D650" s="11"/>
-      <c r="E650" s="11"/>
+      <c r="D650" s="10"/>
+      <c r="E650" s="10"/>
     </row>
     <row r="651">
-      <c r="D651" s="11"/>
-      <c r="E651" s="11"/>
+      <c r="D651" s="10"/>
+      <c r="E651" s="10"/>
     </row>
     <row r="652">
-      <c r="D652" s="11"/>
-      <c r="E652" s="11"/>
+      <c r="D652" s="10"/>
+      <c r="E652" s="10"/>
     </row>
     <row r="653">
-      <c r="D653" s="11"/>
-      <c r="E653" s="11"/>
+      <c r="D653" s="10"/>
+      <c r="E653" s="10"/>
     </row>
     <row r="654">
-      <c r="D654" s="11"/>
-      <c r="E654" s="11"/>
+      <c r="D654" s="10"/>
+      <c r="E654" s="10"/>
     </row>
     <row r="655">
-      <c r="D655" s="11"/>
-      <c r="E655" s="11"/>
+      <c r="D655" s="10"/>
+      <c r="E655" s="10"/>
     </row>
     <row r="656">
-      <c r="D656" s="11"/>
-      <c r="E656" s="11"/>
+      <c r="D656" s="10"/>
+      <c r="E656" s="10"/>
     </row>
     <row r="657">
-      <c r="D657" s="11"/>
-      <c r="E657" s="11"/>
+      <c r="D657" s="10"/>
+      <c r="E657" s="10"/>
     </row>
     <row r="658">
-      <c r="D658" s="11"/>
-      <c r="E658" s="11"/>
+      <c r="D658" s="10"/>
+      <c r="E658" s="10"/>
     </row>
     <row r="659">
-      <c r="D659" s="11"/>
-      <c r="E659" s="11"/>
+      <c r="D659" s="10"/>
+      <c r="E659" s="10"/>
     </row>
     <row r="660">
-      <c r="D660" s="11"/>
-      <c r="E660" s="11"/>
+      <c r="D660" s="10"/>
+      <c r="E660" s="10"/>
     </row>
     <row r="661">
-      <c r="D661" s="11"/>
-      <c r="E661" s="11"/>
+      <c r="D661" s="10"/>
+      <c r="E661" s="10"/>
     </row>
     <row r="662">
-      <c r="D662" s="11"/>
-      <c r="E662" s="11"/>
+      <c r="D662" s="10"/>
+      <c r="E662" s="10"/>
     </row>
     <row r="663">
-      <c r="D663" s="11"/>
-      <c r="E663" s="11"/>
+      <c r="D663" s="10"/>
+      <c r="E663" s="10"/>
     </row>
     <row r="664">
-      <c r="D664" s="11"/>
-      <c r="E664" s="11"/>
+      <c r="D664" s="10"/>
+      <c r="E664" s="10"/>
     </row>
     <row r="665">
-      <c r="D665" s="11"/>
-      <c r="E665" s="11"/>
+      <c r="D665" s="10"/>
+      <c r="E665" s="10"/>
     </row>
     <row r="666">
-      <c r="D666" s="11"/>
-      <c r="E666" s="11"/>
+      <c r="D666" s="10"/>
+      <c r="E666" s="10"/>
     </row>
     <row r="667">
-      <c r="D667" s="11"/>
-      <c r="E667" s="11"/>
+      <c r="D667" s="10"/>
+      <c r="E667" s="10"/>
     </row>
     <row r="668">
-      <c r="D668" s="11"/>
-      <c r="E668" s="11"/>
+      <c r="D668" s="10"/>
+      <c r="E668" s="10"/>
     </row>
     <row r="669">
-      <c r="D669" s="11"/>
-      <c r="E669" s="11"/>
+      <c r="D669" s="10"/>
+      <c r="E669" s="10"/>
     </row>
     <row r="670">
-      <c r="D670" s="11"/>
-      <c r="E670" s="11"/>
+      <c r="D670" s="10"/>
+      <c r="E670" s="10"/>
     </row>
     <row r="671">
-      <c r="D671" s="11"/>
-      <c r="E671" s="11"/>
+      <c r="D671" s="10"/>
+      <c r="E671" s="10"/>
     </row>
     <row r="672">
-      <c r="D672" s="11"/>
-      <c r="E672" s="11"/>
+      <c r="D672" s="10"/>
+      <c r="E672" s="10"/>
     </row>
     <row r="673">
-      <c r="D673" s="11"/>
-      <c r="E673" s="11"/>
+      <c r="D673" s="10"/>
+      <c r="E673" s="10"/>
     </row>
     <row r="674">
-      <c r="D674" s="11"/>
-      <c r="E674" s="11"/>
+      <c r="D674" s="10"/>
+      <c r="E674" s="10"/>
     </row>
     <row r="675">
-      <c r="D675" s="11"/>
-      <c r="E675" s="11"/>
+      <c r="D675" s="10"/>
+      <c r="E675" s="10"/>
     </row>
     <row r="676">
-      <c r="D676" s="11"/>
-      <c r="E676" s="11"/>
+      <c r="D676" s="10"/>
+      <c r="E676" s="10"/>
     </row>
     <row r="677">
-      <c r="D677" s="11"/>
-      <c r="E677" s="11"/>
+      <c r="D677" s="10"/>
+      <c r="E677" s="10"/>
     </row>
     <row r="678">
-      <c r="D678" s="11"/>
-      <c r="E678" s="11"/>
+      <c r="D678" s="10"/>
+      <c r="E678" s="10"/>
     </row>
     <row r="679">
-      <c r="D679" s="11"/>
-      <c r="E679" s="11"/>
+      <c r="D679" s="10"/>
+      <c r="E679" s="10"/>
     </row>
     <row r="680">
-      <c r="D680" s="11"/>
-      <c r="E680" s="11"/>
+      <c r="D680" s="10"/>
+      <c r="E680" s="10"/>
     </row>
     <row r="681">
-      <c r="D681" s="11"/>
-      <c r="E681" s="11"/>
+      <c r="D681" s="10"/>
+      <c r="E681" s="10"/>
     </row>
     <row r="682">
-      <c r="D682" s="11"/>
-      <c r="E682" s="11"/>
+      <c r="D682" s="10"/>
+      <c r="E682" s="10"/>
     </row>
     <row r="683">
-      <c r="D683" s="11"/>
-      <c r="E683" s="11"/>
+      <c r="D683" s="10"/>
+      <c r="E683" s="10"/>
     </row>
     <row r="684">
-      <c r="D684" s="11"/>
-      <c r="E684" s="11"/>
+      <c r="D684" s="10"/>
+      <c r="E684" s="10"/>
     </row>
     <row r="685">
-      <c r="D685" s="11"/>
-      <c r="E685" s="11"/>
+      <c r="D685" s="10"/>
+      <c r="E685" s="10"/>
     </row>
     <row r="686">
-      <c r="D686" s="11"/>
-      <c r="E686" s="11"/>
+      <c r="D686" s="10"/>
+      <c r="E686" s="10"/>
     </row>
     <row r="687">
-      <c r="D687" s="11"/>
-      <c r="E687" s="11"/>
+      <c r="D687" s="10"/>
+      <c r="E687" s="10"/>
     </row>
     <row r="688">
-      <c r="D688" s="11"/>
-      <c r="E688" s="11"/>
+      <c r="D688" s="10"/>
+      <c r="E688" s="10"/>
     </row>
     <row r="689">
-      <c r="D689" s="11"/>
-      <c r="E689" s="11"/>
+      <c r="D689" s="10"/>
+      <c r="E689" s="10"/>
     </row>
     <row r="690">
-      <c r="D690" s="11"/>
-      <c r="E690" s="11"/>
+      <c r="D690" s="10"/>
+      <c r="E690" s="10"/>
     </row>
     <row r="691">
-      <c r="D691" s="11"/>
-      <c r="E691" s="11"/>
+      <c r="D691" s="10"/>
+      <c r="E691" s="10"/>
     </row>
     <row r="692">
-      <c r="D692" s="11"/>
-      <c r="E692" s="11"/>
+      <c r="D692" s="10"/>
+      <c r="E692" s="10"/>
     </row>
     <row r="693">
-      <c r="D693" s="11"/>
-      <c r="E693" s="11"/>
+      <c r="D693" s="10"/>
+      <c r="E693" s="10"/>
     </row>
     <row r="694">
-      <c r="D694" s="11"/>
-      <c r="E694" s="11"/>
+      <c r="D694" s="10"/>
+      <c r="E694" s="10"/>
     </row>
     <row r="695">
-      <c r="D695" s="11"/>
-      <c r="E695" s="11"/>
+      <c r="D695" s="10"/>
+      <c r="E695" s="10"/>
     </row>
     <row r="696">
-      <c r="D696" s="11"/>
-      <c r="E696" s="11"/>
+      <c r="D696" s="10"/>
+      <c r="E696" s="10"/>
     </row>
     <row r="697">
-      <c r="D697" s="11"/>
-      <c r="E697" s="11"/>
+      <c r="D697" s="10"/>
+      <c r="E697" s="10"/>
     </row>
     <row r="698">
-      <c r="D698" s="11"/>
-      <c r="E698" s="11"/>
+      <c r="D698" s="10"/>
+      <c r="E698" s="10"/>
     </row>
     <row r="699">
-      <c r="D699" s="11"/>
-      <c r="E699" s="11"/>
+      <c r="D699" s="10"/>
+      <c r="E699" s="10"/>
     </row>
     <row r="700">
-      <c r="D700" s="11"/>
-      <c r="E700" s="11"/>
+      <c r="D700" s="10"/>
+      <c r="E700" s="10"/>
     </row>
     <row r="701">
-      <c r="D701" s="11"/>
-      <c r="E701" s="11"/>
+      <c r="D701" s="10"/>
+      <c r="E701" s="10"/>
     </row>
     <row r="702">
-      <c r="D702" s="11"/>
-      <c r="E702" s="11"/>
+      <c r="D702" s="10"/>
+      <c r="E702" s="10"/>
     </row>
     <row r="703">
-      <c r="D703" s="11"/>
-      <c r="E703" s="11"/>
+      <c r="D703" s="10"/>
+      <c r="E703" s="10"/>
     </row>
     <row r="704">
-      <c r="D704" s="11"/>
-      <c r="E704" s="11"/>
+      <c r="D704" s="10"/>
+      <c r="E704" s="10"/>
     </row>
     <row r="705">
-      <c r="D705" s="11"/>
-      <c r="E705" s="11"/>
+      <c r="D705" s="10"/>
+      <c r="E705" s="10"/>
     </row>
     <row r="706">
-      <c r="D706" s="11"/>
-      <c r="E706" s="11"/>
+      <c r="D706" s="10"/>
+      <c r="E706" s="10"/>
     </row>
     <row r="707">
-      <c r="D707" s="11"/>
-      <c r="E707" s="11"/>
+      <c r="D707" s="10"/>
+      <c r="E707" s="10"/>
     </row>
     <row r="708">
-      <c r="D708" s="11"/>
-      <c r="E708" s="11"/>
+      <c r="D708" s="10"/>
+      <c r="E708" s="10"/>
     </row>
     <row r="709">
-      <c r="D709" s="11"/>
-      <c r="E709" s="11"/>
+      <c r="D709" s="10"/>
+      <c r="E709" s="10"/>
     </row>
     <row r="710">
-      <c r="D710" s="11"/>
-      <c r="E710" s="11"/>
+      <c r="D710" s="10"/>
+      <c r="E710" s="10"/>
     </row>
     <row r="711">
-      <c r="D711" s="11"/>
-      <c r="E711" s="11"/>
+      <c r="D711" s="10"/>
+      <c r="E711" s="10"/>
     </row>
     <row r="712">
-      <c r="D712" s="11"/>
-      <c r="E712" s="11"/>
+      <c r="D712" s="10"/>
+      <c r="E712" s="10"/>
     </row>
     <row r="713">
-      <c r="D713" s="11"/>
-      <c r="E713" s="11"/>
+      <c r="D713" s="10"/>
+      <c r="E713" s="10"/>
     </row>
     <row r="714">
-      <c r="D714" s="11"/>
-      <c r="E714" s="11"/>
+      <c r="D714" s="10"/>
+      <c r="E714" s="10"/>
     </row>
     <row r="715">
-      <c r="D715" s="11"/>
-      <c r="E715" s="11"/>
+      <c r="D715" s="10"/>
+      <c r="E715" s="10"/>
     </row>
     <row r="716">
-      <c r="D716" s="11"/>
-      <c r="E716" s="11"/>
+      <c r="D716" s="10"/>
+      <c r="E716" s="10"/>
     </row>
     <row r="717">
-      <c r="D717" s="11"/>
-      <c r="E717" s="11"/>
+      <c r="D717" s="10"/>
+      <c r="E717" s="10"/>
     </row>
     <row r="718">
-      <c r="D718" s="11"/>
-      <c r="E718" s="11"/>
+      <c r="D718" s="10"/>
+      <c r="E718" s="10"/>
     </row>
     <row r="719">
-      <c r="D719" s="11"/>
-      <c r="E719" s="11"/>
+      <c r="D719" s="10"/>
+      <c r="E719" s="10"/>
     </row>
     <row r="720">
-      <c r="D720" s="11"/>
-      <c r="E720" s="11"/>
+      <c r="D720" s="10"/>
+      <c r="E720" s="10"/>
     </row>
     <row r="721">
-      <c r="D721" s="11"/>
-      <c r="E721" s="11"/>
+      <c r="D721" s="10"/>
+      <c r="E721" s="10"/>
     </row>
     <row r="722">
-      <c r="D722" s="11"/>
-      <c r="E722" s="11"/>
+      <c r="D722" s="10"/>
+      <c r="E722" s="10"/>
     </row>
     <row r="723">
-      <c r="D723" s="11"/>
-      <c r="E723" s="11"/>
+      <c r="D723" s="10"/>
+      <c r="E723" s="10"/>
     </row>
     <row r="724">
-      <c r="D724" s="11"/>
-      <c r="E724" s="11"/>
+      <c r="D724" s="10"/>
+      <c r="E724" s="10"/>
     </row>
     <row r="725">
-      <c r="D725" s="11"/>
-      <c r="E725" s="11"/>
+      <c r="D725" s="10"/>
+      <c r="E725" s="10"/>
     </row>
     <row r="726">
-      <c r="D726" s="11"/>
-      <c r="E726" s="11"/>
+      <c r="D726" s="10"/>
+      <c r="E726" s="10"/>
     </row>
     <row r="727">
-      <c r="D727" s="11"/>
-      <c r="E727" s="11"/>
+      <c r="D727" s="10"/>
+      <c r="E727" s="10"/>
     </row>
     <row r="728">
-      <c r="D728" s="11"/>
-      <c r="E728" s="11"/>
+      <c r="D728" s="10"/>
+      <c r="E728" s="10"/>
     </row>
     <row r="729">
-      <c r="D729" s="11"/>
-      <c r="E729" s="11"/>
+      <c r="D729" s="10"/>
+      <c r="E729" s="10"/>
     </row>
     <row r="730">
-      <c r="D730" s="11"/>
-      <c r="E730" s="11"/>
+      <c r="D730" s="10"/>
+      <c r="E730" s="10"/>
     </row>
     <row r="731">
-      <c r="D731" s="11"/>
-      <c r="E731" s="11"/>
+      <c r="D731" s="10"/>
+      <c r="E731" s="10"/>
     </row>
     <row r="732">
-      <c r="D732" s="11"/>
-      <c r="E732" s="11"/>
+      <c r="D732" s="10"/>
+      <c r="E732" s="10"/>
     </row>
     <row r="733">
-      <c r="D733" s="11"/>
-      <c r="E733" s="11"/>
+      <c r="D733" s="10"/>
+      <c r="E733" s="10"/>
     </row>
     <row r="734">
-      <c r="D734" s="11"/>
-      <c r="E734" s="11"/>
+      <c r="D734" s="10"/>
+      <c r="E734" s="10"/>
     </row>
     <row r="735">
-      <c r="D735" s="11"/>
-      <c r="E735" s="11"/>
+      <c r="D735" s="10"/>
+      <c r="E735" s="10"/>
     </row>
     <row r="736">
-      <c r="D736" s="11"/>
-      <c r="E736" s="11"/>
+      <c r="D736" s="10"/>
+      <c r="E736" s="10"/>
     </row>
     <row r="737">
-      <c r="D737" s="11"/>
-      <c r="E737" s="11"/>
+      <c r="D737" s="10"/>
+      <c r="E737" s="10"/>
     </row>
     <row r="738">
-      <c r="D738" s="11"/>
-      <c r="E738" s="11"/>
+      <c r="D738" s="10"/>
+      <c r="E738" s="10"/>
     </row>
     <row r="739">
-      <c r="D739" s="11"/>
-      <c r="E739" s="11"/>
+      <c r="D739" s="10"/>
+      <c r="E739" s="10"/>
     </row>
     <row r="740">
-      <c r="D740" s="11"/>
-      <c r="E740" s="11"/>
+      <c r="D740" s="10"/>
+      <c r="E740" s="10"/>
     </row>
     <row r="741">
-      <c r="D741" s="11"/>
-      <c r="E741" s="11"/>
+      <c r="D741" s="10"/>
+      <c r="E741" s="10"/>
     </row>
     <row r="742">
-      <c r="D742" s="11"/>
-      <c r="E742" s="11"/>
+      <c r="D742" s="10"/>
+      <c r="E742" s="10"/>
     </row>
     <row r="743">
-      <c r="D743" s="11"/>
-      <c r="E743" s="11"/>
+      <c r="D743" s="10"/>
+      <c r="E743" s="10"/>
     </row>
     <row r="744">
-      <c r="D744" s="11"/>
-      <c r="E744" s="11"/>
+      <c r="D744" s="10"/>
+      <c r="E744" s="10"/>
     </row>
     <row r="745">
-      <c r="D745" s="11"/>
-      <c r="E745" s="11"/>
+      <c r="D745" s="10"/>
+      <c r="E745" s="10"/>
     </row>
     <row r="746">
-      <c r="D746" s="11"/>
-      <c r="E746" s="11"/>
+      <c r="D746" s="10"/>
+      <c r="E746" s="10"/>
     </row>
     <row r="747">
-      <c r="D747" s="11"/>
-      <c r="E747" s="11"/>
+      <c r="D747" s="10"/>
+      <c r="E747" s="10"/>
     </row>
     <row r="748">
-      <c r="D748" s="11"/>
-      <c r="E748" s="11"/>
+      <c r="D748" s="10"/>
+      <c r="E748" s="10"/>
     </row>
     <row r="749">
-      <c r="D749" s="11"/>
-      <c r="E749" s="11"/>
+      <c r="D749" s="10"/>
+      <c r="E749" s="10"/>
     </row>
     <row r="750">
-      <c r="D750" s="11"/>
-      <c r="E750" s="11"/>
+      <c r="D750" s="10"/>
+      <c r="E750" s="10"/>
     </row>
     <row r="751">
-      <c r="D751" s="11"/>
-      <c r="E751" s="11"/>
+      <c r="D751" s="10"/>
+      <c r="E751" s="10"/>
     </row>
     <row r="752">
-      <c r="D752" s="11"/>
-      <c r="E752" s="11"/>
+      <c r="D752" s="10"/>
+      <c r="E752" s="10"/>
     </row>
     <row r="753">
-      <c r="D753" s="11"/>
-      <c r="E753" s="11"/>
+      <c r="D753" s="10"/>
+      <c r="E753" s="10"/>
     </row>
     <row r="754">
-      <c r="D754" s="11"/>
-      <c r="E754" s="11"/>
+      <c r="D754" s="10"/>
+      <c r="E754" s="10"/>
     </row>
     <row r="755">
-      <c r="D755" s="11"/>
-      <c r="E755" s="11"/>
+      <c r="D755" s="10"/>
+      <c r="E755" s="10"/>
     </row>
     <row r="756">
-      <c r="D756" s="11"/>
-      <c r="E756" s="11"/>
+      <c r="D756" s="10"/>
+      <c r="E756" s="10"/>
     </row>
     <row r="757">
-      <c r="D757" s="11"/>
-      <c r="E757" s="11"/>
+      <c r="D757" s="10"/>
+      <c r="E757" s="10"/>
     </row>
     <row r="758">
-      <c r="D758" s="11"/>
-      <c r="E758" s="11"/>
+      <c r="D758" s="10"/>
+      <c r="E758" s="10"/>
     </row>
     <row r="759">
-      <c r="D759" s="11"/>
-      <c r="E759" s="11"/>
+      <c r="D759" s="10"/>
+      <c r="E759" s="10"/>
     </row>
     <row r="760">
-      <c r="D760" s="11"/>
-      <c r="E760" s="11"/>
+      <c r="D760" s="10"/>
+      <c r="E760" s="10"/>
     </row>
     <row r="761">
-      <c r="D761" s="11"/>
-      <c r="E761" s="11"/>
+      <c r="D761" s="10"/>
+      <c r="E761" s="10"/>
     </row>
     <row r="762">
-      <c r="D762" s="11"/>
-      <c r="E762" s="11"/>
+      <c r="D762" s="10"/>
+      <c r="E762" s="10"/>
     </row>
     <row r="763">
-      <c r="D763" s="11"/>
-      <c r="E763" s="11"/>
+      <c r="D763" s="10"/>
+      <c r="E763" s="10"/>
     </row>
     <row r="764">
-      <c r="D764" s="11"/>
-      <c r="E764" s="11"/>
+      <c r="D764" s="10"/>
+      <c r="E764" s="10"/>
     </row>
     <row r="765">
-      <c r="D765" s="11"/>
-      <c r="E765" s="11"/>
+      <c r="D765" s="10"/>
+      <c r="E765" s="10"/>
     </row>
     <row r="766">
-      <c r="D766" s="11"/>
-      <c r="E766" s="11"/>
+      <c r="D766" s="10"/>
+      <c r="E766" s="10"/>
     </row>
     <row r="767">
-      <c r="D767" s="11"/>
-      <c r="E767" s="11"/>
+      <c r="D767" s="10"/>
+      <c r="E767" s="10"/>
     </row>
     <row r="768">
-      <c r="D768" s="11"/>
-      <c r="E768" s="11"/>
+      <c r="D768" s="10"/>
+      <c r="E768" s="10"/>
     </row>
     <row r="769">
-      <c r="D769" s="11"/>
-      <c r="E769" s="11"/>
+      <c r="D769" s="10"/>
+      <c r="E769" s="10"/>
     </row>
     <row r="770">
-      <c r="D770" s="11"/>
-      <c r="E770" s="11"/>
+      <c r="D770" s="10"/>
+      <c r="E770" s="10"/>
     </row>
     <row r="771">
-      <c r="D771" s="11"/>
-      <c r="E771" s="11"/>
+      <c r="D771" s="10"/>
+      <c r="E771" s="10"/>
     </row>
     <row r="772">
-      <c r="D772" s="11"/>
-      <c r="E772" s="11"/>
+      <c r="D772" s="10"/>
+      <c r="E772" s="10"/>
     </row>
     <row r="773">
-      <c r="D773" s="11"/>
-      <c r="E773" s="11"/>
+      <c r="D773" s="10"/>
+      <c r="E773" s="10"/>
     </row>
     <row r="774">
-      <c r="D774" s="11"/>
-      <c r="E774" s="11"/>
+      <c r="D774" s="10"/>
+      <c r="E774" s="10"/>
     </row>
     <row r="775">
-      <c r="D775" s="11"/>
-      <c r="E775" s="11"/>
+      <c r="D775" s="10"/>
+      <c r="E775" s="10"/>
     </row>
     <row r="776">
-      <c r="D776" s="11"/>
-      <c r="E776" s="11"/>
+      <c r="D776" s="10"/>
+      <c r="E776" s="10"/>
     </row>
     <row r="777">
-      <c r="D777" s="11"/>
-      <c r="E777" s="11"/>
+      <c r="D777" s="10"/>
+      <c r="E777" s="10"/>
     </row>
     <row r="778">
-      <c r="D778" s="11"/>
-      <c r="E778" s="11"/>
+      <c r="D778" s="10"/>
+      <c r="E778" s="10"/>
     </row>
     <row r="779">
-      <c r="D779" s="11"/>
-      <c r="E779" s="11"/>
+      <c r="D779" s="10"/>
+      <c r="E779" s="10"/>
     </row>
     <row r="780">
-      <c r="D780" s="11"/>
-      <c r="E780" s="11"/>
+      <c r="D780" s="10"/>
+      <c r="E780" s="10"/>
     </row>
     <row r="781">
-      <c r="D781" s="11"/>
-      <c r="E781" s="11"/>
+      <c r="D781" s="10"/>
+      <c r="E781" s="10"/>
     </row>
     <row r="782">
-      <c r="D782" s="11"/>
-      <c r="E782" s="11"/>
+      <c r="D782" s="10"/>
+      <c r="E782" s="10"/>
     </row>
     <row r="783">
-      <c r="D783" s="11"/>
-      <c r="E783" s="11"/>
+      <c r="D783" s="10"/>
+      <c r="E783" s="10"/>
     </row>
     <row r="784">
-      <c r="D784" s="11"/>
-      <c r="E784" s="11"/>
+      <c r="D784" s="10"/>
+      <c r="E784" s="10"/>
     </row>
     <row r="785">
-      <c r="D785" s="11"/>
-      <c r="E785" s="11"/>
+      <c r="D785" s="10"/>
+      <c r="E785" s="10"/>
     </row>
     <row r="786">
-      <c r="D786" s="11"/>
-      <c r="E786" s="11"/>
+      <c r="D786" s="10"/>
+      <c r="E786" s="10"/>
     </row>
     <row r="787">
-      <c r="D787" s="11"/>
-      <c r="E787" s="11"/>
+      <c r="D787" s="10"/>
+      <c r="E787" s="10"/>
     </row>
     <row r="788">
-      <c r="D788" s="11"/>
-      <c r="E788" s="11"/>
+      <c r="D788" s="10"/>
+      <c r="E788" s="10"/>
     </row>
     <row r="789">
-      <c r="D789" s="11"/>
-      <c r="E789" s="11"/>
+      <c r="D789" s="10"/>
+      <c r="E789" s="10"/>
     </row>
     <row r="790">
-      <c r="D790" s="11"/>
-      <c r="E790" s="11"/>
+      <c r="D790" s="10"/>
+      <c r="E790" s="10"/>
     </row>
     <row r="791">
-      <c r="D791" s="11"/>
-      <c r="E791" s="11"/>
+      <c r="D791" s="10"/>
+      <c r="E791" s="10"/>
     </row>
     <row r="792">
-      <c r="D792" s="11"/>
-      <c r="E792" s="11"/>
+      <c r="D792" s="10"/>
+      <c r="E792" s="10"/>
     </row>
     <row r="793">
-      <c r="D793" s="11"/>
-      <c r="E793" s="11"/>
+      <c r="D793" s="10"/>
+      <c r="E793" s="10"/>
     </row>
     <row r="794">
-      <c r="D794" s="11"/>
-      <c r="E794" s="11"/>
+      <c r="D794" s="10"/>
+      <c r="E794" s="10"/>
     </row>
     <row r="795">
-      <c r="D795" s="11"/>
-      <c r="E795" s="11"/>
+      <c r="D795" s="10"/>
+      <c r="E795" s="10"/>
     </row>
     <row r="796">
-      <c r="D796" s="11"/>
-      <c r="E796" s="11"/>
+      <c r="D796" s="10"/>
+      <c r="E796" s="10"/>
     </row>
     <row r="797">
-      <c r="D797" s="11"/>
-      <c r="E797" s="11"/>
+      <c r="D797" s="10"/>
+      <c r="E797" s="10"/>
     </row>
     <row r="798">
-      <c r="D798" s="11"/>
-      <c r="E798" s="11"/>
+      <c r="D798" s="10"/>
+      <c r="E798" s="10"/>
     </row>
     <row r="799">
-      <c r="D799" s="11"/>
-      <c r="E799" s="11"/>
+      <c r="D799" s="10"/>
+      <c r="E799" s="10"/>
     </row>
     <row r="800">
-      <c r="D800" s="11"/>
-      <c r="E800" s="11"/>
+      <c r="D800" s="10"/>
+      <c r="E800" s="10"/>
     </row>
     <row r="801">
-      <c r="D801" s="11"/>
-      <c r="E801" s="11"/>
+      <c r="D801" s="10"/>
+      <c r="E801" s="10"/>
     </row>
     <row r="802">
-      <c r="D802" s="11"/>
-      <c r="E802" s="11"/>
+      <c r="D802" s="10"/>
+      <c r="E802" s="10"/>
     </row>
     <row r="803">
-      <c r="D803" s="11"/>
-      <c r="E803" s="11"/>
+      <c r="D803" s="10"/>
+      <c r="E803" s="10"/>
     </row>
     <row r="804">
-      <c r="D804" s="11"/>
-      <c r="E804" s="11"/>
+      <c r="D804" s="10"/>
+      <c r="E804" s="10"/>
     </row>
     <row r="805">
-      <c r="D805" s="11"/>
-      <c r="E805" s="11"/>
+      <c r="D805" s="10"/>
+      <c r="E805" s="10"/>
     </row>
     <row r="806">
-      <c r="D806" s="11"/>
-      <c r="E806" s="11"/>
+      <c r="D806" s="10"/>
+      <c r="E806" s="10"/>
     </row>
     <row r="807">
-      <c r="D807" s="11"/>
-      <c r="E807" s="11"/>
+      <c r="D807" s="10"/>
+      <c r="E807" s="10"/>
     </row>
     <row r="808">
-      <c r="D808" s="11"/>
-      <c r="E808" s="11"/>
+      <c r="D808" s="10"/>
+      <c r="E808" s="10"/>
     </row>
     <row r="809">
-      <c r="D809" s="11"/>
-      <c r="E809" s="11"/>
+      <c r="D809" s="10"/>
+      <c r="E809" s="10"/>
     </row>
     <row r="810">
-      <c r="D810" s="11"/>
-      <c r="E810" s="11"/>
+      <c r="D810" s="10"/>
+      <c r="E810" s="10"/>
     </row>
     <row r="811">
-      <c r="D811" s="11"/>
-      <c r="E811" s="11"/>
+      <c r="D811" s="10"/>
+      <c r="E811" s="10"/>
     </row>
     <row r="812">
-      <c r="D812" s="11"/>
-      <c r="E812" s="11"/>
+      <c r="D812" s="10"/>
+      <c r="E812" s="10"/>
     </row>
     <row r="813">
-      <c r="D813" s="11"/>
-      <c r="E813" s="11"/>
+      <c r="D813" s="10"/>
+      <c r="E813" s="10"/>
     </row>
     <row r="814">
-      <c r="D814" s="11"/>
-      <c r="E814" s="11"/>
+      <c r="D814" s="10"/>
+      <c r="E814" s="10"/>
     </row>
     <row r="815">
-      <c r="D815" s="11"/>
-      <c r="E815" s="11"/>
+      <c r="D815" s="10"/>
+      <c r="E815" s="10"/>
     </row>
     <row r="816">
-      <c r="D816" s="11"/>
-      <c r="E816" s="11"/>
+      <c r="D816" s="10"/>
+      <c r="E816" s="10"/>
     </row>
     <row r="817">
-      <c r="D817" s="11"/>
-      <c r="E817" s="11"/>
+      <c r="D817" s="10"/>
+      <c r="E817" s="10"/>
     </row>
     <row r="818">
-      <c r="D818" s="11"/>
-      <c r="E818" s="11"/>
+      <c r="D818" s="10"/>
+      <c r="E818" s="10"/>
     </row>
     <row r="819">
-      <c r="D819" s="11"/>
-      <c r="E819" s="11"/>
+      <c r="D819" s="10"/>
+      <c r="E819" s="10"/>
     </row>
     <row r="820">
-      <c r="D820" s="11"/>
-      <c r="E820" s="11"/>
+      <c r="D820" s="10"/>
+      <c r="E820" s="10"/>
     </row>
     <row r="821">
-      <c r="D821" s="11"/>
-      <c r="E821" s="11"/>
+      <c r="D821" s="10"/>
+      <c r="E821" s="10"/>
     </row>
     <row r="822">
-      <c r="D822" s="11"/>
-      <c r="E822" s="11"/>
+      <c r="D822" s="10"/>
+      <c r="E822" s="10"/>
     </row>
     <row r="823">
-      <c r="D823" s="11"/>
-      <c r="E823" s="11"/>
+      <c r="D823" s="10"/>
+      <c r="E823" s="10"/>
     </row>
     <row r="824">
-      <c r="D824" s="11"/>
-      <c r="E824" s="11"/>
+      <c r="D824" s="10"/>
+      <c r="E824" s="10"/>
     </row>
     <row r="825">
-      <c r="D825" s="11"/>
-      <c r="E825" s="11"/>
+      <c r="D825" s="10"/>
+      <c r="E825" s="10"/>
     </row>
     <row r="826">
-      <c r="D826" s="11"/>
-      <c r="E826" s="11"/>
+      <c r="D826" s="10"/>
+      <c r="E826" s="10"/>
     </row>
     <row r="827">
-      <c r="D827" s="11"/>
-      <c r="E827" s="11"/>
+      <c r="D827" s="10"/>
+      <c r="E827" s="10"/>
     </row>
     <row r="828">
-      <c r="D828" s="11"/>
-      <c r="E828" s="11"/>
+      <c r="D828" s="10"/>
+      <c r="E828" s="10"/>
     </row>
     <row r="829">
-      <c r="D829" s="11"/>
-      <c r="E829" s="11"/>
+      <c r="D829" s="10"/>
+      <c r="E829" s="10"/>
     </row>
     <row r="830">
-      <c r="D830" s="11"/>
-      <c r="E830" s="11"/>
+      <c r="D830" s="10"/>
+      <c r="E830" s="10"/>
     </row>
     <row r="831">
-      <c r="D831" s="11"/>
-      <c r="E831" s="11"/>
+      <c r="D831" s="10"/>
+      <c r="E831" s="10"/>
     </row>
     <row r="832">
-      <c r="D832" s="11"/>
-      <c r="E832" s="11"/>
+      <c r="D832" s="10"/>
+      <c r="E832" s="10"/>
     </row>
     <row r="833">
-      <c r="D833" s="11"/>
-      <c r="E833" s="11"/>
+      <c r="D833" s="10"/>
+      <c r="E833" s="10"/>
     </row>
     <row r="834">
-      <c r="D834" s="11"/>
-      <c r="E834" s="11"/>
+      <c r="D834" s="10"/>
+      <c r="E834" s="10"/>
     </row>
     <row r="835">
-      <c r="D835" s="11"/>
-      <c r="E835" s="11"/>
+      <c r="D835" s="10"/>
+      <c r="E835" s="10"/>
     </row>
     <row r="836">
-      <c r="D836" s="11"/>
-      <c r="E836" s="11"/>
+      <c r="D836" s="10"/>
+      <c r="E836" s="10"/>
     </row>
     <row r="837">
-      <c r="D837" s="11"/>
-      <c r="E837" s="11"/>
+      <c r="D837" s="10"/>
+      <c r="E837" s="10"/>
     </row>
     <row r="838">
-      <c r="D838" s="11"/>
-      <c r="E838" s="11"/>
+      <c r="D838" s="10"/>
+      <c r="E838" s="10"/>
     </row>
     <row r="839">
-      <c r="D839" s="11"/>
-      <c r="E839" s="11"/>
+      <c r="D839" s="10"/>
+      <c r="E839" s="10"/>
     </row>
     <row r="840">
-      <c r="D840" s="11"/>
-      <c r="E840" s="11"/>
+      <c r="D840" s="10"/>
+      <c r="E840" s="10"/>
     </row>
     <row r="841">
-      <c r="D841" s="11"/>
-      <c r="E841" s="11"/>
+      <c r="D841" s="10"/>
+      <c r="E841" s="10"/>
     </row>
     <row r="842">
-      <c r="D842" s="11"/>
-      <c r="E842" s="11"/>
+      <c r="D842" s="10"/>
+      <c r="E842" s="10"/>
     </row>
     <row r="843">
-      <c r="D843" s="11"/>
-      <c r="E843" s="11"/>
+      <c r="D843" s="10"/>
+      <c r="E843" s="10"/>
     </row>
     <row r="844">
-      <c r="D844" s="11"/>
-      <c r="E844" s="11"/>
+      <c r="D844" s="10"/>
+      <c r="E844" s="10"/>
     </row>
     <row r="845">
-      <c r="D845" s="11"/>
-      <c r="E845" s="11"/>
+      <c r="D845" s="10"/>
+      <c r="E845" s="10"/>
     </row>
     <row r="846">
-      <c r="D846" s="11"/>
-      <c r="E846" s="11"/>
+      <c r="D846" s="10"/>
+      <c r="E846" s="10"/>
     </row>
     <row r="847">
-      <c r="D847" s="11"/>
-      <c r="E847" s="11"/>
+      <c r="D847" s="10"/>
+      <c r="E847" s="10"/>
     </row>
     <row r="848">
-      <c r="D848" s="11"/>
-      <c r="E848" s="11"/>
+      <c r="D848" s="10"/>
+      <c r="E848" s="10"/>
     </row>
     <row r="849">
-      <c r="D849" s="11"/>
-      <c r="E849" s="11"/>
+      <c r="D849" s="10"/>
+      <c r="E849" s="10"/>
     </row>
     <row r="850">
-      <c r="D850" s="11"/>
-      <c r="E850" s="11"/>
+      <c r="D850" s="10"/>
+      <c r="E850" s="10"/>
     </row>
     <row r="851">
-      <c r="D851" s="11"/>
-      <c r="E851" s="11"/>
+      <c r="D851" s="10"/>
+      <c r="E851" s="10"/>
     </row>
     <row r="852">
-      <c r="D852" s="11"/>
-      <c r="E852" s="11"/>
+      <c r="D852" s="10"/>
+      <c r="E852" s="10"/>
     </row>
     <row r="853">
-      <c r="D853" s="11"/>
-      <c r="E853" s="11"/>
+      <c r="D853" s="10"/>
+      <c r="E853" s="10"/>
     </row>
     <row r="854">
-      <c r="D854" s="11"/>
-      <c r="E854" s="11"/>
+      <c r="D854" s="10"/>
+      <c r="E854" s="10"/>
     </row>
     <row r="855">
-      <c r="D855" s="11"/>
-      <c r="E855" s="11"/>
+      <c r="D855" s="10"/>
+      <c r="E855" s="10"/>
     </row>
     <row r="856">
-      <c r="D856" s="11"/>
-      <c r="E856" s="11"/>
+      <c r="D856" s="10"/>
+      <c r="E856" s="10"/>
     </row>
     <row r="857">
-      <c r="D857" s="11"/>
-      <c r="E857" s="11"/>
+      <c r="D857" s="10"/>
+      <c r="E857" s="10"/>
     </row>
     <row r="858">
-      <c r="D858" s="11"/>
-      <c r="E858" s="11"/>
+      <c r="D858" s="10"/>
+      <c r="E858" s="10"/>
     </row>
     <row r="859">
-      <c r="D859" s="11"/>
-      <c r="E859" s="11"/>
+      <c r="D859" s="10"/>
+      <c r="E859" s="10"/>
     </row>
     <row r="860">
-      <c r="D860" s="11"/>
-      <c r="E860" s="11"/>
+      <c r="D860" s="10"/>
+      <c r="E860" s="10"/>
     </row>
     <row r="861">
-      <c r="D861" s="11"/>
-      <c r="E861" s="11"/>
+      <c r="D861" s="10"/>
+      <c r="E861" s="10"/>
     </row>
     <row r="862">
-      <c r="D862" s="11"/>
-      <c r="E862" s="11"/>
+      <c r="D862" s="10"/>
+      <c r="E862" s="10"/>
     </row>
     <row r="863">
-      <c r="D863" s="11"/>
-      <c r="E863" s="11"/>
+      <c r="D863" s="10"/>
+      <c r="E863" s="10"/>
     </row>
     <row r="864">
-      <c r="D864" s="11"/>
-      <c r="E864" s="11"/>
+      <c r="D864" s="10"/>
+      <c r="E864" s="10"/>
     </row>
     <row r="865">
-      <c r="D865" s="11"/>
-      <c r="E865" s="11"/>
+      <c r="D865" s="10"/>
+      <c r="E865" s="10"/>
     </row>
     <row r="866">
-      <c r="D866" s="11"/>
-      <c r="E866" s="11"/>
+      <c r="D866" s="10"/>
+      <c r="E866" s="10"/>
     </row>
     <row r="867">
-      <c r="D867" s="11"/>
-      <c r="E867" s="11"/>
+      <c r="D867" s="10"/>
+      <c r="E867" s="10"/>
     </row>
     <row r="868">
-      <c r="D868" s="11"/>
-      <c r="E868" s="11"/>
+      <c r="D868" s="10"/>
+      <c r="E868" s="10"/>
     </row>
     <row r="869">
-      <c r="D869" s="11"/>
-      <c r="E869" s="11"/>
+      <c r="D869" s="10"/>
+      <c r="E869" s="10"/>
     </row>
     <row r="870">
-      <c r="D870" s="11"/>
-      <c r="E870" s="11"/>
+      <c r="D870" s="10"/>
+      <c r="E870" s="10"/>
     </row>
     <row r="871">
-      <c r="D871" s="11"/>
-      <c r="E871" s="11"/>
+      <c r="D871" s="10"/>
+      <c r="E871" s="10"/>
     </row>
     <row r="872">
-      <c r="D872" s="11"/>
-      <c r="E872" s="11"/>
+      <c r="D872" s="10"/>
+      <c r="E872" s="10"/>
     </row>
     <row r="873">
-      <c r="D873" s="11"/>
-      <c r="E873" s="11"/>
+      <c r="D873" s="10"/>
+      <c r="E873" s="10"/>
     </row>
     <row r="874">
-      <c r="D874" s="11"/>
-      <c r="E874" s="11"/>
+      <c r="D874" s="10"/>
+      <c r="E874" s="10"/>
     </row>
     <row r="875">
-      <c r="D875" s="11"/>
-      <c r="E875" s="11"/>
+      <c r="D875" s="10"/>
+      <c r="E875" s="10"/>
     </row>
     <row r="876">
-      <c r="D876" s="11"/>
-      <c r="E876" s="11"/>
+      <c r="D876" s="10"/>
+      <c r="E876" s="10"/>
     </row>
     <row r="877">
-      <c r="D877" s="11"/>
-      <c r="E877" s="11"/>
+      <c r="D877" s="10"/>
+      <c r="E877" s="10"/>
     </row>
     <row r="878">
-      <c r="D878" s="11"/>
-      <c r="E878" s="11"/>
+      <c r="D878" s="10"/>
+      <c r="E878" s="10"/>
     </row>
     <row r="879">
-      <c r="D879" s="11"/>
-      <c r="E879" s="11"/>
+      <c r="D879" s="10"/>
+      <c r="E879" s="10"/>
     </row>
     <row r="880">
-      <c r="D880" s="11"/>
-      <c r="E880" s="11"/>
+      <c r="D880" s="10"/>
+      <c r="E880" s="10"/>
     </row>
     <row r="881">
-      <c r="D881" s="11"/>
-      <c r="E881" s="11"/>
+      <c r="D881" s="10"/>
+      <c r="E881" s="10"/>
     </row>
     <row r="882">
-      <c r="D882" s="11"/>
-      <c r="E882" s="11"/>
+      <c r="D882" s="10"/>
+      <c r="E882" s="10"/>
     </row>
     <row r="883">
-      <c r="D883" s="11"/>
-      <c r="E883" s="11"/>
+      <c r="D883" s="10"/>
+      <c r="E883" s="10"/>
     </row>
     <row r="884">
-      <c r="D884" s="11"/>
-      <c r="E884" s="11"/>
+      <c r="D884" s="10"/>
+      <c r="E884" s="10"/>
     </row>
     <row r="885">
-      <c r="D885" s="11"/>
-      <c r="E885" s="11"/>
+      <c r="D885" s="10"/>
+      <c r="E885" s="10"/>
     </row>
     <row r="886">
-      <c r="D886" s="11"/>
-      <c r="E886" s="11"/>
+      <c r="D886" s="10"/>
+      <c r="E886" s="10"/>
     </row>
     <row r="887">
-      <c r="D887" s="11"/>
-      <c r="E887" s="11"/>
+      <c r="D887" s="10"/>
+      <c r="E887" s="10"/>
     </row>
     <row r="888">
-      <c r="D888" s="11"/>
-      <c r="E888" s="11"/>
+      <c r="D888" s="10"/>
+      <c r="E888" s="10"/>
     </row>
     <row r="889">
-      <c r="D889" s="11"/>
-      <c r="E889" s="11"/>
+      <c r="D889" s="10"/>
+      <c r="E889" s="10"/>
     </row>
     <row r="890">
-      <c r="D890" s="11"/>
-      <c r="E890" s="11"/>
+      <c r="D890" s="10"/>
+      <c r="E890" s="10"/>
     </row>
     <row r="891">
-      <c r="D891" s="11"/>
-      <c r="E891" s="11"/>
+      <c r="D891" s="10"/>
+      <c r="E891" s="10"/>
     </row>
     <row r="892">
-      <c r="D892" s="11"/>
-      <c r="E892" s="11"/>
+      <c r="D892" s="10"/>
+      <c r="E892" s="10"/>
     </row>
     <row r="893">
-      <c r="D893" s="11"/>
-      <c r="E893" s="11"/>
+      <c r="D893" s="10"/>
+      <c r="E893" s="10"/>
     </row>
     <row r="894">
-      <c r="D894" s="11"/>
-      <c r="E894" s="11"/>
+      <c r="D894" s="10"/>
+      <c r="E894" s="10"/>
     </row>
     <row r="895">
-      <c r="D895" s="11"/>
-      <c r="E895" s="11"/>
+      <c r="D895" s="10"/>
+      <c r="E895" s="10"/>
     </row>
     <row r="896">
-      <c r="D896" s="11"/>
-      <c r="E896" s="11"/>
+      <c r="D896" s="10"/>
+      <c r="E896" s="10"/>
     </row>
     <row r="897">
-      <c r="D897" s="11"/>
-      <c r="E897" s="11"/>
+      <c r="D897" s="10"/>
+      <c r="E897" s="10"/>
     </row>
     <row r="898">
-      <c r="D898" s="11"/>
-      <c r="E898" s="11"/>
+      <c r="D898" s="10"/>
+      <c r="E898" s="10"/>
     </row>
     <row r="899">
-      <c r="D899" s="11"/>
-      <c r="E899" s="11"/>
+      <c r="D899" s="10"/>
+      <c r="E899" s="10"/>
     </row>
     <row r="900">
-      <c r="D900" s="11"/>
-      <c r="E900" s="11"/>
+      <c r="D900" s="10"/>
+      <c r="E900" s="10"/>
     </row>
     <row r="901">
-      <c r="D901" s="11"/>
-      <c r="E901" s="11"/>
+      <c r="D901" s="10"/>
+      <c r="E901" s="10"/>
     </row>
     <row r="902">
-      <c r="D902" s="11"/>
-      <c r="E902" s="11"/>
+      <c r="D902" s="10"/>
+      <c r="E902" s="10"/>
     </row>
     <row r="903">
-      <c r="D903" s="11"/>
-      <c r="E903" s="11"/>
+      <c r="D903" s="10"/>
+      <c r="E903" s="10"/>
     </row>
     <row r="904">
-      <c r="D904" s="11"/>
-      <c r="E904" s="11"/>
+      <c r="D904" s="10"/>
+      <c r="E904" s="10"/>
     </row>
     <row r="905">
-      <c r="D905" s="11"/>
-      <c r="E905" s="11"/>
+      <c r="D905" s="10"/>
+      <c r="E905" s="10"/>
     </row>
     <row r="906">
-      <c r="D906" s="11"/>
-      <c r="E906" s="11"/>
+      <c r="D906" s="10"/>
+      <c r="E906" s="10"/>
     </row>
     <row r="907">
-      <c r="D907" s="11"/>
-      <c r="E907" s="11"/>
+      <c r="D907" s="10"/>
+      <c r="E907" s="10"/>
     </row>
     <row r="908">
-      <c r="D908" s="11"/>
-      <c r="E908" s="11"/>
+      <c r="D908" s="10"/>
+      <c r="E908" s="10"/>
     </row>
     <row r="909">
-      <c r="D909" s="11"/>
-      <c r="E909" s="11"/>
+      <c r="D909" s="10"/>
+      <c r="E909" s="10"/>
     </row>
     <row r="910">
-      <c r="D910" s="11"/>
-      <c r="E910" s="11"/>
+      <c r="D910" s="10"/>
+      <c r="E910" s="10"/>
     </row>
     <row r="911">
-      <c r="D911" s="11"/>
-      <c r="E911" s="11"/>
+      <c r="D911" s="10"/>
+      <c r="E911" s="10"/>
     </row>
     <row r="912">
-      <c r="D912" s="11"/>
-      <c r="E912" s="11"/>
+      <c r="D912" s="10"/>
+      <c r="E912" s="10"/>
     </row>
     <row r="913">
-      <c r="D913" s="11"/>
-      <c r="E913" s="11"/>
+      <c r="D913" s="10"/>
+      <c r="E913" s="10"/>
     </row>
     <row r="914">
-      <c r="D914" s="11"/>
-      <c r="E914" s="11"/>
+      <c r="D914" s="10"/>
+      <c r="E914" s="10"/>
     </row>
     <row r="915">
-      <c r="D915" s="11"/>
-      <c r="E915" s="11"/>
+      <c r="D915" s="10"/>
+      <c r="E915" s="10"/>
     </row>
     <row r="916">
-      <c r="D916" s="11"/>
-      <c r="E916" s="11"/>
+      <c r="D916" s="10"/>
+      <c r="E916" s="10"/>
     </row>
     <row r="917">
-      <c r="D917" s="11"/>
-      <c r="E917" s="11"/>
+      <c r="D917" s="10"/>
+      <c r="E917" s="10"/>
     </row>
     <row r="918">
-      <c r="D918" s="11"/>
-      <c r="E918" s="11"/>
+      <c r="D918" s="10"/>
+      <c r="E918" s="10"/>
     </row>
     <row r="919">
-      <c r="D919" s="11"/>
-      <c r="E919" s="11"/>
+      <c r="D919" s="10"/>
+      <c r="E919" s="10"/>
     </row>
     <row r="920">
-      <c r="D920" s="11"/>
-      <c r="E920" s="11"/>
+      <c r="D920" s="10"/>
+      <c r="E920" s="10"/>
     </row>
     <row r="921">
-      <c r="D921" s="11"/>
-      <c r="E921" s="11"/>
+      <c r="D921" s="10"/>
+      <c r="E921" s="10"/>
     </row>
     <row r="922">
-      <c r="D922" s="11"/>
-      <c r="E922" s="11"/>
+      <c r="D922" s="10"/>
+      <c r="E922" s="10"/>
     </row>
     <row r="923">
-      <c r="D923" s="11"/>
-      <c r="E923" s="11"/>
+      <c r="D923" s="10"/>
+      <c r="E923" s="10"/>
     </row>
     <row r="924">
-      <c r="D924" s="11"/>
-      <c r="E924" s="11"/>
+      <c r="D924" s="10"/>
+      <c r="E924" s="10"/>
     </row>
     <row r="925">
-      <c r="D925" s="11"/>
-      <c r="E925" s="11"/>
+      <c r="D925" s="10"/>
+      <c r="E925" s="10"/>
     </row>
     <row r="926">
-      <c r="D926" s="11"/>
-      <c r="E926" s="11"/>
+      <c r="D926" s="10"/>
+      <c r="E926" s="10"/>
     </row>
     <row r="927">
-      <c r="D927" s="11"/>
-      <c r="E927" s="11"/>
+      <c r="D927" s="10"/>
+      <c r="E927" s="10"/>
     </row>
     <row r="928">
-      <c r="D928" s="11"/>
-      <c r="E928" s="11"/>
+      <c r="D928" s="10"/>
+      <c r="E928" s="10"/>
     </row>
     <row r="929">
-      <c r="D929" s="11"/>
-      <c r="E929" s="11"/>
+      <c r="D929" s="10"/>
+      <c r="E929" s="10"/>
     </row>
     <row r="930">
-      <c r="D930" s="11"/>
-      <c r="E930" s="11"/>
+      <c r="D930" s="10"/>
+      <c r="E930" s="10"/>
     </row>
     <row r="931">
-      <c r="D931" s="11"/>
-      <c r="E931" s="11"/>
+      <c r="D931" s="10"/>
+      <c r="E931" s="10"/>
     </row>
     <row r="932">
-      <c r="D932" s="11"/>
-      <c r="E932" s="11"/>
+      <c r="D932" s="10"/>
+      <c r="E932" s="10"/>
     </row>
     <row r="933">
-      <c r="D933" s="11"/>
-      <c r="E933" s="11"/>
+      <c r="D933" s="10"/>
+      <c r="E933" s="10"/>
     </row>
     <row r="934">
-      <c r="D934" s="11"/>
-      <c r="E934" s="11"/>
+      <c r="D934" s="10"/>
+      <c r="E934" s="10"/>
     </row>
     <row r="935">
-      <c r="D935" s="11"/>
-      <c r="E935" s="11"/>
+      <c r="D935" s="10"/>
+      <c r="E935" s="10"/>
     </row>
     <row r="936">
-      <c r="D936" s="11"/>
-      <c r="E936" s="11"/>
+      <c r="D936" s="10"/>
+      <c r="E936" s="10"/>
     </row>
     <row r="937">
-      <c r="D937" s="11"/>
-      <c r="E937" s="11"/>
+      <c r="D937" s="10"/>
+      <c r="E937" s="10"/>
     </row>
     <row r="938">
-      <c r="D938" s="11"/>
-      <c r="E938" s="11"/>
+      <c r="D938" s="10"/>
+      <c r="E938" s="10"/>
     </row>
     <row r="939">
-      <c r="D939" s="11"/>
-      <c r="E939" s="11"/>
+      <c r="D939" s="10"/>
+      <c r="E939" s="10"/>
     </row>
     <row r="940">
-      <c r="D940" s="11"/>
-      <c r="E940" s="11"/>
+      <c r="D940" s="10"/>
+      <c r="E940" s="10"/>
     </row>
     <row r="941">
-      <c r="D941" s="11"/>
-      <c r="E941" s="11"/>
+      <c r="D941" s="10"/>
+      <c r="E941" s="10"/>
     </row>
     <row r="942">
-      <c r="D942" s="11"/>
-      <c r="E942" s="11"/>
+      <c r="D942" s="10"/>
+      <c r="E942" s="10"/>
     </row>
     <row r="943">
-      <c r="D943" s="11"/>
-      <c r="E943" s="11"/>
+      <c r="D943" s="10"/>
+      <c r="E943" s="10"/>
     </row>
     <row r="944">
-      <c r="D944" s="11"/>
-      <c r="E944" s="11"/>
+      <c r="D944" s="10"/>
+      <c r="E944" s="10"/>
     </row>
     <row r="945">
-      <c r="D945" s="11"/>
-      <c r="E945" s="11"/>
+      <c r="D945" s="10"/>
+      <c r="E945" s="10"/>
     </row>
     <row r="946">
-      <c r="D946" s="11"/>
-      <c r="E946" s="11"/>
+      <c r="D946" s="10"/>
+      <c r="E946" s="10"/>
     </row>
     <row r="947">
-      <c r="D947" s="11"/>
-      <c r="E947" s="11"/>
+      <c r="D947" s="10"/>
+      <c r="E947" s="10"/>
     </row>
     <row r="948">
-      <c r="D948" s="11"/>
-      <c r="E948" s="11"/>
+      <c r="D948" s="10"/>
+      <c r="E948" s="10"/>
     </row>
     <row r="949">
-      <c r="D949" s="11"/>
-      <c r="E949" s="11"/>
+      <c r="D949" s="10"/>
+      <c r="E949" s="10"/>
     </row>
     <row r="950">
-      <c r="D950" s="11"/>
-      <c r="E950" s="11"/>
+      <c r="D950" s="10"/>
+      <c r="E950" s="10"/>
     </row>
     <row r="951">
-      <c r="D951" s="11"/>
-      <c r="E951" s="11"/>
+      <c r="D951" s="10"/>
+      <c r="E951" s="10"/>
     </row>
     <row r="952">
-      <c r="D952" s="11"/>
-      <c r="E952" s="11"/>
+      <c r="D952" s="10"/>
+      <c r="E952" s="10"/>
     </row>
     <row r="953">
-      <c r="D953" s="11"/>
-      <c r="E953" s="11"/>
+      <c r="D953" s="10"/>
+      <c r="E953" s="10"/>
     </row>
     <row r="954">
-      <c r="D954" s="11"/>
-      <c r="E954" s="11"/>
+      <c r="D954" s="10"/>
+      <c r="E954" s="10"/>
     </row>
     <row r="955">
-      <c r="D955" s="11"/>
-      <c r="E955" s="11"/>
+      <c r="D955" s="10"/>
+      <c r="E955" s="10"/>
     </row>
     <row r="956">
-      <c r="D956" s="11"/>
-      <c r="E956" s="11"/>
+      <c r="D956" s="10"/>
+      <c r="E956" s="10"/>
     </row>
     <row r="957">
-      <c r="D957" s="11"/>
-      <c r="E957" s="11"/>
+      <c r="D957" s="10"/>
+      <c r="E957" s="10"/>
     </row>
     <row r="958">
-      <c r="D958" s="11"/>
-      <c r="E958" s="11"/>
+      <c r="D958" s="10"/>
+      <c r="E958" s="10"/>
     </row>
     <row r="959">
-      <c r="D959" s="11"/>
-      <c r="E959" s="11"/>
+      <c r="D959" s="10"/>
+      <c r="E959" s="10"/>
     </row>
     <row r="960">
-      <c r="D960" s="11"/>
-      <c r="E960" s="11"/>
+      <c r="D960" s="10"/>
+      <c r="E960" s="10"/>
     </row>
     <row r="961">
-      <c r="D961" s="11"/>
-      <c r="E961" s="11"/>
+      <c r="D961" s="10"/>
+      <c r="E961" s="10"/>
     </row>
     <row r="962">
-      <c r="D962" s="11"/>
-      <c r="E962" s="11"/>
+      <c r="D962" s="10"/>
+      <c r="E962" s="10"/>
     </row>
     <row r="963">
-      <c r="D963" s="11"/>
-      <c r="E963" s="11"/>
+      <c r="D963" s="10"/>
+      <c r="E963" s="10"/>
     </row>
     <row r="964">
-      <c r="D964" s="11"/>
-      <c r="E964" s="11"/>
+      <c r="D964" s="10"/>
+      <c r="E964" s="10"/>
     </row>
     <row r="965">
-      <c r="D965" s="11"/>
-      <c r="E965" s="11"/>
+      <c r="D965" s="10"/>
+      <c r="E965" s="10"/>
     </row>
     <row r="966">
-      <c r="D966" s="11"/>
-      <c r="E966" s="11"/>
+      <c r="D966" s="10"/>
+      <c r="E966" s="10"/>
     </row>
     <row r="967">
-      <c r="D967" s="11"/>
-      <c r="E967" s="11"/>
+      <c r="D967" s="10"/>
+      <c r="E967" s="10"/>
     </row>
     <row r="968">
-      <c r="D968" s="11"/>
-      <c r="E968" s="11"/>
+      <c r="D968" s="10"/>
+      <c r="E968" s="10"/>
     </row>
     <row r="969">
-      <c r="D969" s="11"/>
-      <c r="E969" s="11"/>
+      <c r="D969" s="10"/>
+      <c r="E969" s="10"/>
     </row>
     <row r="970">
-      <c r="D970" s="11"/>
-      <c r="E970" s="11"/>
+      <c r="D970" s="10"/>
+      <c r="E970" s="10"/>
     </row>
     <row r="971">
-      <c r="D971" s="11"/>
-      <c r="E971" s="11"/>
+      <c r="D971" s="10"/>
+      <c r="E971" s="10"/>
     </row>
     <row r="972">
-      <c r="D972" s="11"/>
-      <c r="E972" s="11"/>
+      <c r="D972" s="10"/>
+      <c r="E972" s="10"/>
     </row>
     <row r="973">
-      <c r="D973" s="11"/>
-      <c r="E973" s="11"/>
+      <c r="D973" s="10"/>
+      <c r="E973" s="10"/>
     </row>
     <row r="974">
-      <c r="D974" s="11"/>
-      <c r="E974" s="11"/>
+      <c r="D974" s="10"/>
+      <c r="E974" s="10"/>
     </row>
     <row r="975">
-      <c r="D975" s="11"/>
-      <c r="E975" s="11"/>
+      <c r="D975" s="10"/>
+      <c r="E975" s="10"/>
     </row>
     <row r="976">
-      <c r="D976" s="11"/>
-      <c r="E976" s="11"/>
+      <c r="D976" s="10"/>
+      <c r="E976" s="10"/>
     </row>
     <row r="977">
-      <c r="D977" s="11"/>
-      <c r="E977" s="11"/>
+      <c r="D977" s="10"/>
+      <c r="E977" s="10"/>
     </row>
     <row r="978">
-      <c r="D978" s="11"/>
-      <c r="E978" s="11"/>
+      <c r="D978" s="10"/>
+      <c r="E978" s="10"/>
     </row>
     <row r="979">
-      <c r="D979" s="11"/>
-      <c r="E979" s="11"/>
+      <c r="D979" s="10"/>
+      <c r="E979" s="10"/>
     </row>
     <row r="980">
-      <c r="D980" s="11"/>
-      <c r="E980" s="11"/>
+      <c r="D980" s="10"/>
+      <c r="E980" s="10"/>
     </row>
     <row r="981">
-      <c r="D981" s="11"/>
-      <c r="E981" s="11"/>
+      <c r="D981" s="10"/>
+      <c r="E981" s="10"/>
     </row>
     <row r="982">
-      <c r="D982" s="11"/>
-      <c r="E982" s="11"/>
+      <c r="D982" s="10"/>
+      <c r="E982" s="10"/>
     </row>
     <row r="983">
-      <c r="D983" s="11"/>
-      <c r="E983" s="11"/>
+      <c r="D983" s="10"/>
+      <c r="E983" s="10"/>
     </row>
     <row r="984">
-      <c r="D984" s="11"/>
-      <c r="E984" s="11"/>
+      <c r="D984" s="10"/>
+      <c r="E984" s="10"/>
     </row>
     <row r="985">
-      <c r="D985" s="11"/>
-      <c r="E985" s="11"/>
+      <c r="D985" s="10"/>
+      <c r="E985" s="10"/>
     </row>
     <row r="986">
-      <c r="D986" s="11"/>
-      <c r="E986" s="11"/>
+      <c r="D986" s="10"/>
+      <c r="E986" s="10"/>
     </row>
     <row r="987">
-      <c r="D987" s="11"/>
-      <c r="E987" s="11"/>
+      <c r="D987" s="10"/>
+      <c r="E987" s="10"/>
     </row>
     <row r="988">
-      <c r="D988" s="11"/>
-      <c r="E988" s="11"/>
+      <c r="D988" s="10"/>
+      <c r="E988" s="10"/>
     </row>
     <row r="989">
-      <c r="D989" s="11"/>
-      <c r="E989" s="11"/>
+      <c r="D989" s="10"/>
+      <c r="E989" s="10"/>
     </row>
     <row r="990">
-      <c r="D990" s="11"/>
-      <c r="E990" s="11"/>
+      <c r="D990" s="10"/>
+      <c r="E990" s="10"/>
     </row>
     <row r="991">
-      <c r="D991" s="11"/>
-      <c r="E991" s="11"/>
+      <c r="D991" s="10"/>
+      <c r="E991" s="10"/>
     </row>
     <row r="992">
-      <c r="D992" s="11"/>
-      <c r="E992" s="11"/>
+      <c r="D992" s="10"/>
+      <c r="E992" s="10"/>
     </row>
     <row r="993">
-      <c r="D993" s="11"/>
-      <c r="E993" s="11"/>
+      <c r="D993" s="10"/>
+      <c r="E993" s="10"/>
     </row>
     <row r="994">
-      <c r="D994" s="11"/>
-      <c r="E994" s="11"/>
+      <c r="D994" s="10"/>
+      <c r="E994" s="10"/>
     </row>
     <row r="995">
-      <c r="D995" s="11"/>
-      <c r="E995" s="11"/>
+      <c r="D995" s="10"/>
+      <c r="E995" s="10"/>
     </row>
     <row r="996">
-      <c r="D996" s="11"/>
-      <c r="E996" s="11"/>
+      <c r="D996" s="10"/>
+      <c r="E996" s="10"/>
     </row>
     <row r="997">
-      <c r="D997" s="11"/>
-      <c r="E997" s="11"/>
+      <c r="D997" s="10"/>
+      <c r="E997" s="10"/>
     </row>
     <row r="998">
-      <c r="D998" s="11"/>
-      <c r="E998" s="11"/>
+      <c r="D998" s="10"/>
+      <c r="E998" s="10"/>
     </row>
     <row r="999">
-      <c r="D999" s="11"/>
-      <c r="E999" s="11"/>
+      <c r="D999" s="10"/>
+      <c r="E999" s="10"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="11"/>
-      <c r="E1000" s="11"/>
+      <c r="D1000" s="10"/>
+      <c r="E1000" s="10"/>
     </row>
     <row r="1001">
-      <c r="D1001" s="11"/>
-      <c r="E1001" s="11"/>
-    </row>
-    <row r="1002">
-      <c r="D1002" s="11"/>
-      <c r="E1002" s="11"/>
+      <c r="D1001" s="10"/>
+      <c r="E1001" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8738,239 +8710,239 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1.0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="4">
+      <c r="A4" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="5">
+      <c r="A5" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="6">
+      <c r="A6" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="12" t="s">
+    <row r="7">
+      <c r="A7" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="12" t="s">
+    <row r="9">
+      <c r="A9" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="10">
+      <c r="A10" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="12" t="s">
+    <row r="13">
+      <c r="A13" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="12" t="s">
+    <row r="14">
+      <c r="A14" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="12" t="s">
+    <row r="16">
+      <c r="A16" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="12" t="s">
+    <row r="21">
+      <c r="A21" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
     <row r="22">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>21.0</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>238</v>
+      <c r="B22" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
